--- a/2018/CRM/03_DetailDesign/CRMF2061_Đánh giá hỗ trợ khách hàng.xlsx
+++ b/2018/CRM/03_DetailDesign/CRMF2061_Đánh giá hỗ trợ khách hàng.xlsx
@@ -1363,7 +1363,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="204">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2000,9 +2000,6 @@
     <t>Mức độ đánh giá</t>
   </si>
   <si>
-    <t>level</t>
-  </si>
-  <si>
     <t>CheckBox</t>
   </si>
   <si>
@@ -2045,22 +2042,53 @@
     <t>Thêm dữ liệu</t>
   </si>
   <si>
-    <t>@APK, 
-@DivisionID, @RequestSubject, @CreateDate, @CreateUserID, @LastModifyDate, @LastModifyUserID, 
-@RealTime, @ReviewDescription, @FeedbackDescription</t>
-  </si>
-  <si>
-    <t>@APK, 
-Biến môi trường @RequestSubject, @CreateDate, @CreateUserID, @LastModifyDate, @LastModifyUserID, 
-@RealTime, @ReviewDescription, @FeedbackDescription</t>
+    <t>LevelAppreciate</t>
   </si>
   <si>
     <t xml:space="preserve">Insert Into CRMT20801 
 (APK, DivisionID, , CreateDate, CreateUserID, LastModifyDate, LastModifyUserID
-, RealTime, ReviewDescription, FeedbackDescription)
+, LevelAppreciate, EmployeeID,  RealTime, ReviewDescription, FeedbackDescription)
 Values 
-(@APK, @DivisionID,  @CreateDate, @CreateUserID, @LastModifyDate, @LastModifyUserID, @RealTime, @ReviewDescription, @FeedbackDescription)
+(@APK, @DivisionID,  @CreateDate, @CreateUserID, @LastModifyDate, @LastModifyUserID, @ LevelAppreciate, @EmployeeID, @RealTime, @ReviewDescription, @FeedbackDescription)
 </t>
+  </si>
+  <si>
+    <t>@APK, @DivisionID,  @CreateDate, @CreateUserID, @LastModifyDate, @LastModifyUserID, 
+@ LevelAppreciate, @EmployeeID, 
+@RealTime, @ReviewDescription, @FeedbackDescription</t>
+  </si>
+  <si>
+    <t>@APK, 
+Biến môi trường
+@CreateDate, @CreateUserID, @LastModifyDate, @LastModifyUserID, 
+@ LevelAppreciate, @EmployeeID, 
+@RealTime, @ReviewDescription, @FeedbackDescription</t>
+  </si>
+  <si>
+    <t>Select RequestID, Fullname As EmployeeName, realtime  
+from CRMT20801 C
+left join AT1103 A on C.AssignedToUserID = A.EmployeeID
+where RequestTypeID = '3' and RequestID = @RequestID</t>
+  </si>
+  <si>
+    <t>Load các biến:
+@EmployeeName
+@Realtime</t>
+  </si>
+  <si>
+    <t>Select</t>
+  </si>
+  <si>
+    <t>@RequestID</t>
+  </si>
+  <si>
+    <t>Biến được truyền từ màn hình CRMT2082</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Load</t>
   </si>
 </sst>
 </file>
@@ -2987,6 +3015,21 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3170,6 +3213,15 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3194,6 +3246,21 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3213,45 +3280,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4184,65 +4212,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="165"/>
-      <c r="B1" s="165"/>
-      <c r="C1" s="167" t="s">
+      <c r="A1" s="170"/>
+      <c r="B1" s="170"/>
+      <c r="C1" s="172" t="s">
         <v>151</v>
       </c>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="166" t="s">
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="174"/>
+      <c r="G1" s="171" t="s">
         <v>147</v>
       </c>
-      <c r="H1" s="166"/>
-      <c r="I1" s="166" t="s">
+      <c r="H1" s="171"/>
+      <c r="I1" s="171" t="s">
         <v>148</v>
       </c>
-      <c r="J1" s="166"/>
+      <c r="J1" s="171"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="165"/>
-      <c r="B2" s="165"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="166" t="s">
+      <c r="A2" s="170"/>
+      <c r="B2" s="170"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="177"/>
+      <c r="G2" s="171" t="s">
         <v>149</v>
       </c>
-      <c r="H2" s="166"/>
-      <c r="I2" s="166"/>
-      <c r="J2" s="166"/>
+      <c r="H2" s="171"/>
+      <c r="I2" s="171"/>
+      <c r="J2" s="171"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="165"/>
-      <c r="B3" s="165"/>
-      <c r="C3" s="173"/>
-      <c r="D3" s="174"/>
-      <c r="E3" s="174"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="162" t="s">
+      <c r="A3" s="170"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="179"/>
+      <c r="E3" s="179"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="167" t="s">
         <v>150</v>
       </c>
-      <c r="H3" s="163"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="163"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="167"/>
+      <c r="J3" s="168"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="89"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="164"/>
-      <c r="B13" s="164"/>
-      <c r="C13" s="164"/>
-      <c r="D13" s="164"/>
-      <c r="E13" s="164"/>
-      <c r="F13" s="164"/>
-      <c r="G13" s="164"/>
-      <c r="H13" s="164"/>
-      <c r="I13" s="164"/>
-      <c r="J13" s="164"/>
+      <c r="A13" s="169"/>
+      <c r="B13" s="169"/>
+      <c r="C13" s="169"/>
+      <c r="D13" s="169"/>
+      <c r="E13" s="169"/>
+      <c r="F13" s="169"/>
+      <c r="G13" s="169"/>
+      <c r="H13" s="169"/>
+      <c r="I13" s="169"/>
+      <c r="J13" s="169"/>
       <c r="K13" s="90"/>
       <c r="L13" s="90"/>
       <c r="M13" s="90"/>
@@ -4253,56 +4281,56 @@
       <c r="R13" s="90"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="160"/>
-      <c r="C14" s="160"/>
-      <c r="D14" s="160"/>
-      <c r="E14" s="160"/>
-      <c r="F14" s="160"/>
-      <c r="G14" s="160"/>
-      <c r="H14" s="160"/>
-      <c r="I14" s="160"/>
-      <c r="J14" s="160"/>
-      <c r="K14" s="160"/>
-      <c r="L14" s="160"/>
-      <c r="M14" s="160"/>
-      <c r="N14" s="160"/>
-      <c r="O14" s="160"/>
-      <c r="P14" s="160"/>
-      <c r="Q14" s="160"/>
-      <c r="R14" s="160"/>
+      <c r="B14" s="165"/>
+      <c r="C14" s="165"/>
+      <c r="D14" s="165"/>
+      <c r="E14" s="165"/>
+      <c r="F14" s="165"/>
+      <c r="G14" s="165"/>
+      <c r="H14" s="165"/>
+      <c r="I14" s="165"/>
+      <c r="J14" s="165"/>
+      <c r="K14" s="165"/>
+      <c r="L14" s="165"/>
+      <c r="M14" s="165"/>
+      <c r="N14" s="165"/>
+      <c r="O14" s="165"/>
+      <c r="P14" s="165"/>
+      <c r="Q14" s="165"/>
+      <c r="R14" s="165"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="160"/>
-      <c r="C15" s="160"/>
-      <c r="D15" s="160"/>
-      <c r="E15" s="160"/>
-      <c r="F15" s="160"/>
-      <c r="G15" s="160"/>
-      <c r="H15" s="160"/>
-      <c r="I15" s="160"/>
-      <c r="J15" s="160"/>
-      <c r="K15" s="160"/>
-      <c r="L15" s="160"/>
-      <c r="M15" s="160"/>
-      <c r="N15" s="160"/>
-      <c r="O15" s="160"/>
-      <c r="P15" s="160"/>
-      <c r="Q15" s="160"/>
-      <c r="R15" s="160"/>
+      <c r="B15" s="165"/>
+      <c r="C15" s="165"/>
+      <c r="D15" s="165"/>
+      <c r="E15" s="165"/>
+      <c r="F15" s="165"/>
+      <c r="G15" s="165"/>
+      <c r="H15" s="165"/>
+      <c r="I15" s="165"/>
+      <c r="J15" s="165"/>
+      <c r="K15" s="165"/>
+      <c r="L15" s="165"/>
+      <c r="M15" s="165"/>
+      <c r="N15" s="165"/>
+      <c r="O15" s="165"/>
+      <c r="P15" s="165"/>
+      <c r="Q15" s="165"/>
+      <c r="R15" s="165"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="161" t="s">
+      <c r="A16" s="166" t="s">
         <v>151</v>
       </c>
-      <c r="B16" s="161"/>
-      <c r="C16" s="161"/>
-      <c r="D16" s="161"/>
-      <c r="E16" s="161"/>
-      <c r="F16" s="161"/>
-      <c r="G16" s="161"/>
-      <c r="H16" s="161"/>
-      <c r="I16" s="161"/>
-      <c r="J16" s="161"/>
+      <c r="B16" s="166"/>
+      <c r="C16" s="166"/>
+      <c r="D16" s="166"/>
+      <c r="E16" s="166"/>
+      <c r="F16" s="166"/>
+      <c r="G16" s="166"/>
+      <c r="H16" s="166"/>
+      <c r="I16" s="166"/>
+      <c r="J16" s="166"/>
       <c r="K16" s="91"/>
       <c r="L16" s="91"/>
       <c r="M16" s="91"/>
@@ -4313,384 +4341,384 @@
       <c r="R16" s="91"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="160"/>
-      <c r="C17" s="160"/>
-      <c r="D17" s="160"/>
-      <c r="E17" s="160"/>
-      <c r="F17" s="160"/>
-      <c r="G17" s="160"/>
-      <c r="H17" s="160"/>
-      <c r="I17" s="160"/>
-      <c r="J17" s="160"/>
-      <c r="K17" s="160"/>
-      <c r="L17" s="160"/>
-      <c r="M17" s="160"/>
-      <c r="N17" s="160"/>
-      <c r="O17" s="160"/>
-      <c r="P17" s="160"/>
-      <c r="Q17" s="160"/>
-      <c r="R17" s="160"/>
+      <c r="B17" s="165"/>
+      <c r="C17" s="165"/>
+      <c r="D17" s="165"/>
+      <c r="E17" s="165"/>
+      <c r="F17" s="165"/>
+      <c r="G17" s="165"/>
+      <c r="H17" s="165"/>
+      <c r="I17" s="165"/>
+      <c r="J17" s="165"/>
+      <c r="K17" s="165"/>
+      <c r="L17" s="165"/>
+      <c r="M17" s="165"/>
+      <c r="N17" s="165"/>
+      <c r="O17" s="165"/>
+      <c r="P17" s="165"/>
+      <c r="Q17" s="165"/>
+      <c r="R17" s="165"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="160"/>
-      <c r="C18" s="160"/>
-      <c r="D18" s="160"/>
-      <c r="E18" s="160"/>
-      <c r="F18" s="160"/>
-      <c r="G18" s="160"/>
-      <c r="H18" s="160"/>
-      <c r="I18" s="160"/>
-      <c r="J18" s="160"/>
-      <c r="K18" s="160"/>
-      <c r="L18" s="160"/>
-      <c r="M18" s="160"/>
-      <c r="N18" s="160"/>
-      <c r="O18" s="160"/>
-      <c r="P18" s="160"/>
-      <c r="Q18" s="160"/>
-      <c r="R18" s="160"/>
+      <c r="B18" s="165"/>
+      <c r="C18" s="165"/>
+      <c r="D18" s="165"/>
+      <c r="E18" s="165"/>
+      <c r="F18" s="165"/>
+      <c r="G18" s="165"/>
+      <c r="H18" s="165"/>
+      <c r="I18" s="165"/>
+      <c r="J18" s="165"/>
+      <c r="K18" s="165"/>
+      <c r="L18" s="165"/>
+      <c r="M18" s="165"/>
+      <c r="N18" s="165"/>
+      <c r="O18" s="165"/>
+      <c r="P18" s="165"/>
+      <c r="Q18" s="165"/>
+      <c r="R18" s="165"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="177"/>
-      <c r="C19" s="177"/>
-      <c r="D19" s="177"/>
-      <c r="E19" s="177"/>
-      <c r="F19" s="177"/>
-      <c r="G19" s="177"/>
-      <c r="H19" s="177"/>
-      <c r="I19" s="177"/>
-      <c r="J19" s="177"/>
-      <c r="K19" s="177"/>
-      <c r="L19" s="177"/>
-      <c r="M19" s="177"/>
-      <c r="N19" s="177"/>
-      <c r="O19" s="177"/>
-      <c r="P19" s="177"/>
-      <c r="Q19" s="177"/>
-      <c r="R19" s="177"/>
+      <c r="B19" s="182"/>
+      <c r="C19" s="182"/>
+      <c r="D19" s="182"/>
+      <c r="E19" s="182"/>
+      <c r="F19" s="182"/>
+      <c r="G19" s="182"/>
+      <c r="H19" s="182"/>
+      <c r="I19" s="182"/>
+      <c r="J19" s="182"/>
+      <c r="K19" s="182"/>
+      <c r="L19" s="182"/>
+      <c r="M19" s="182"/>
+      <c r="N19" s="182"/>
+      <c r="O19" s="182"/>
+      <c r="P19" s="182"/>
+      <c r="Q19" s="182"/>
+      <c r="R19" s="182"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="160"/>
-      <c r="C20" s="160"/>
-      <c r="D20" s="160"/>
-      <c r="E20" s="160"/>
-      <c r="F20" s="160"/>
-      <c r="G20" s="160"/>
-      <c r="H20" s="160"/>
-      <c r="I20" s="160"/>
-      <c r="J20" s="160"/>
-      <c r="K20" s="160"/>
-      <c r="L20" s="160"/>
-      <c r="M20" s="160"/>
-      <c r="N20" s="160"/>
-      <c r="O20" s="160"/>
-      <c r="P20" s="160"/>
-      <c r="Q20" s="160"/>
-      <c r="R20" s="160"/>
+      <c r="B20" s="165"/>
+      <c r="C20" s="165"/>
+      <c r="D20" s="165"/>
+      <c r="E20" s="165"/>
+      <c r="F20" s="165"/>
+      <c r="G20" s="165"/>
+      <c r="H20" s="165"/>
+      <c r="I20" s="165"/>
+      <c r="J20" s="165"/>
+      <c r="K20" s="165"/>
+      <c r="L20" s="165"/>
+      <c r="M20" s="165"/>
+      <c r="N20" s="165"/>
+      <c r="O20" s="165"/>
+      <c r="P20" s="165"/>
+      <c r="Q20" s="165"/>
+      <c r="R20" s="165"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="160"/>
-      <c r="C21" s="160"/>
-      <c r="D21" s="160"/>
-      <c r="E21" s="160"/>
-      <c r="F21" s="160"/>
-      <c r="G21" s="160"/>
-      <c r="H21" s="160"/>
-      <c r="I21" s="160"/>
-      <c r="J21" s="160"/>
-      <c r="K21" s="160"/>
-      <c r="L21" s="160"/>
-      <c r="M21" s="160"/>
-      <c r="N21" s="160"/>
-      <c r="O21" s="160"/>
-      <c r="P21" s="160"/>
-      <c r="Q21" s="160"/>
-      <c r="R21" s="160"/>
+      <c r="B21" s="165"/>
+      <c r="C21" s="165"/>
+      <c r="D21" s="165"/>
+      <c r="E21" s="165"/>
+      <c r="F21" s="165"/>
+      <c r="G21" s="165"/>
+      <c r="H21" s="165"/>
+      <c r="I21" s="165"/>
+      <c r="J21" s="165"/>
+      <c r="K21" s="165"/>
+      <c r="L21" s="165"/>
+      <c r="M21" s="165"/>
+      <c r="N21" s="165"/>
+      <c r="O21" s="165"/>
+      <c r="P21" s="165"/>
+      <c r="Q21" s="165"/>
+      <c r="R21" s="165"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="176"/>
-      <c r="C22" s="176"/>
-      <c r="D22" s="176"/>
-      <c r="E22" s="176"/>
-      <c r="F22" s="176"/>
-      <c r="G22" s="176"/>
-      <c r="H22" s="176"/>
-      <c r="I22" s="176"/>
-      <c r="J22" s="176"/>
-      <c r="K22" s="176"/>
-      <c r="L22" s="176"/>
-      <c r="M22" s="176"/>
-      <c r="N22" s="176"/>
-      <c r="O22" s="176"/>
-      <c r="P22" s="176"/>
-      <c r="Q22" s="176"/>
-      <c r="R22" s="176"/>
+      <c r="B22" s="181"/>
+      <c r="C22" s="181"/>
+      <c r="D22" s="181"/>
+      <c r="E22" s="181"/>
+      <c r="F22" s="181"/>
+      <c r="G22" s="181"/>
+      <c r="H22" s="181"/>
+      <c r="I22" s="181"/>
+      <c r="J22" s="181"/>
+      <c r="K22" s="181"/>
+      <c r="L22" s="181"/>
+      <c r="M22" s="181"/>
+      <c r="N22" s="181"/>
+      <c r="O22" s="181"/>
+      <c r="P22" s="181"/>
+      <c r="Q22" s="181"/>
+      <c r="R22" s="181"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="176"/>
-      <c r="C23" s="176"/>
-      <c r="D23" s="176"/>
-      <c r="E23" s="176"/>
-      <c r="F23" s="176"/>
-      <c r="G23" s="176"/>
-      <c r="H23" s="176"/>
-      <c r="I23" s="176"/>
-      <c r="J23" s="176"/>
-      <c r="K23" s="176"/>
-      <c r="L23" s="176"/>
-      <c r="M23" s="176"/>
-      <c r="N23" s="176"/>
-      <c r="O23" s="176"/>
-      <c r="P23" s="176"/>
-      <c r="Q23" s="176"/>
-      <c r="R23" s="176"/>
+      <c r="B23" s="181"/>
+      <c r="C23" s="181"/>
+      <c r="D23" s="181"/>
+      <c r="E23" s="181"/>
+      <c r="F23" s="181"/>
+      <c r="G23" s="181"/>
+      <c r="H23" s="181"/>
+      <c r="I23" s="181"/>
+      <c r="J23" s="181"/>
+      <c r="K23" s="181"/>
+      <c r="L23" s="181"/>
+      <c r="M23" s="181"/>
+      <c r="N23" s="181"/>
+      <c r="O23" s="181"/>
+      <c r="P23" s="181"/>
+      <c r="Q23" s="181"/>
+      <c r="R23" s="181"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="178"/>
-      <c r="C26" s="178"/>
-      <c r="D26" s="178"/>
-      <c r="E26" s="178"/>
-      <c r="F26" s="178"/>
-      <c r="G26" s="178"/>
-      <c r="H26" s="178"/>
-      <c r="I26" s="178"/>
-      <c r="J26" s="178"/>
-      <c r="K26" s="178"/>
-      <c r="L26" s="178"/>
-      <c r="M26" s="178"/>
-      <c r="N26" s="178"/>
-      <c r="O26" s="178"/>
-      <c r="P26" s="178"/>
-      <c r="Q26" s="178"/>
-      <c r="R26" s="178"/>
+      <c r="B26" s="183"/>
+      <c r="C26" s="183"/>
+      <c r="D26" s="183"/>
+      <c r="E26" s="183"/>
+      <c r="F26" s="183"/>
+      <c r="G26" s="183"/>
+      <c r="H26" s="183"/>
+      <c r="I26" s="183"/>
+      <c r="J26" s="183"/>
+      <c r="K26" s="183"/>
+      <c r="L26" s="183"/>
+      <c r="M26" s="183"/>
+      <c r="N26" s="183"/>
+      <c r="O26" s="183"/>
+      <c r="P26" s="183"/>
+      <c r="Q26" s="183"/>
+      <c r="R26" s="183"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="180"/>
-      <c r="C28" s="180"/>
-      <c r="D28" s="180"/>
-      <c r="E28" s="180"/>
-      <c r="F28" s="180"/>
-      <c r="G28" s="180"/>
-      <c r="H28" s="180"/>
-      <c r="I28" s="180"/>
-      <c r="J28" s="180"/>
-      <c r="K28" s="180"/>
-      <c r="L28" s="180"/>
-      <c r="M28" s="180"/>
-      <c r="N28" s="180"/>
-      <c r="O28" s="180"/>
-      <c r="P28" s="180"/>
-      <c r="Q28" s="180"/>
-      <c r="R28" s="180"/>
-      <c r="S28" s="179"/>
-      <c r="T28" s="179"/>
-      <c r="U28" s="179"/>
-      <c r="V28" s="179"/>
-      <c r="W28" s="179"/>
-      <c r="X28" s="179"/>
-      <c r="Y28" s="179"/>
-      <c r="Z28" s="179"/>
-      <c r="AA28" s="179"/>
-      <c r="AB28" s="179"/>
-      <c r="AC28" s="179"/>
-      <c r="AD28" s="179"/>
-      <c r="AE28" s="179"/>
-      <c r="AF28" s="179"/>
-      <c r="AG28" s="179"/>
-      <c r="AH28" s="179"/>
-      <c r="AI28" s="179"/>
-      <c r="AJ28" s="179"/>
-      <c r="AK28" s="179"/>
-      <c r="AL28" s="179"/>
-      <c r="AM28" s="179"/>
-      <c r="AN28" s="179"/>
-      <c r="AO28" s="179"/>
-      <c r="AP28" s="179"/>
-      <c r="AQ28" s="179"/>
-      <c r="AR28" s="179"/>
-      <c r="AS28" s="179"/>
-      <c r="AT28" s="179"/>
-      <c r="AU28" s="179"/>
-      <c r="AV28" s="179"/>
-      <c r="AW28" s="179"/>
-      <c r="AX28" s="179"/>
-      <c r="AY28" s="179"/>
-      <c r="AZ28" s="179"/>
-      <c r="BA28" s="179"/>
-      <c r="BB28" s="179"/>
-      <c r="BC28" s="179"/>
-      <c r="BD28" s="179"/>
-      <c r="BE28" s="179"/>
-      <c r="BF28" s="179"/>
-      <c r="BG28" s="179"/>
-      <c r="BH28" s="179"/>
-      <c r="BI28" s="179"/>
-      <c r="BJ28" s="179"/>
-      <c r="BK28" s="179"/>
-      <c r="BL28" s="179"/>
-      <c r="BM28" s="179"/>
-      <c r="BN28" s="179"/>
-      <c r="BO28" s="179"/>
-      <c r="BP28" s="179"/>
-      <c r="BQ28" s="179"/>
-      <c r="BR28" s="179"/>
-      <c r="BS28" s="179"/>
-      <c r="BT28" s="179"/>
-      <c r="BU28" s="179"/>
-      <c r="BV28" s="179"/>
-      <c r="BW28" s="179"/>
-      <c r="BX28" s="179"/>
-      <c r="BY28" s="179"/>
-      <c r="BZ28" s="179"/>
-      <c r="CA28" s="179"/>
-      <c r="CB28" s="179"/>
-      <c r="CC28" s="179"/>
-      <c r="CD28" s="179"/>
-      <c r="CE28" s="179"/>
-      <c r="CF28" s="179"/>
-      <c r="CG28" s="179"/>
-      <c r="CH28" s="179"/>
-      <c r="CI28" s="179"/>
-      <c r="CJ28" s="179"/>
-      <c r="CK28" s="179"/>
-      <c r="CL28" s="179"/>
-      <c r="CM28" s="179"/>
-      <c r="CN28" s="179"/>
-      <c r="CO28" s="179"/>
-      <c r="CP28" s="179"/>
-      <c r="CQ28" s="179"/>
-      <c r="CR28" s="179"/>
-      <c r="CS28" s="179"/>
-      <c r="CT28" s="179"/>
-      <c r="CU28" s="179"/>
-      <c r="CV28" s="179"/>
-      <c r="CW28" s="179"/>
-      <c r="CX28" s="179"/>
-      <c r="CY28" s="179"/>
-      <c r="CZ28" s="179"/>
-      <c r="DA28" s="179"/>
-      <c r="DB28" s="179"/>
-      <c r="DC28" s="179"/>
-      <c r="DD28" s="179"/>
-      <c r="DE28" s="179"/>
-      <c r="DF28" s="179"/>
-      <c r="DG28" s="179"/>
-      <c r="DH28" s="179"/>
-      <c r="DI28" s="179"/>
-      <c r="DJ28" s="179"/>
-      <c r="DK28" s="179"/>
-      <c r="DL28" s="179"/>
-      <c r="DM28" s="179"/>
-      <c r="DN28" s="179"/>
-      <c r="DO28" s="179"/>
-      <c r="DP28" s="179"/>
-      <c r="DQ28" s="179"/>
-      <c r="DR28" s="179"/>
-      <c r="DS28" s="179"/>
-      <c r="DT28" s="179"/>
-      <c r="DU28" s="179"/>
-      <c r="DV28" s="179"/>
-      <c r="DW28" s="179"/>
-      <c r="DX28" s="179"/>
-      <c r="DY28" s="179"/>
-      <c r="DZ28" s="179"/>
-      <c r="EA28" s="179"/>
-      <c r="EB28" s="179"/>
-      <c r="EC28" s="179"/>
-      <c r="ED28" s="179"/>
-      <c r="EE28" s="179"/>
-      <c r="EF28" s="179"/>
-      <c r="EG28" s="179"/>
-      <c r="EH28" s="179"/>
-      <c r="EI28" s="179"/>
-      <c r="EJ28" s="179"/>
-      <c r="EK28" s="179"/>
-      <c r="EL28" s="179"/>
-      <c r="EM28" s="179"/>
-      <c r="EN28" s="179"/>
-      <c r="EO28" s="179"/>
-      <c r="EP28" s="179"/>
-      <c r="EQ28" s="179"/>
-      <c r="ER28" s="179"/>
-      <c r="ES28" s="179"/>
-      <c r="ET28" s="179"/>
-      <c r="EU28" s="179"/>
-      <c r="EV28" s="179"/>
-      <c r="EW28" s="179"/>
-      <c r="EX28" s="179"/>
-      <c r="EY28" s="179"/>
-      <c r="EZ28" s="179"/>
-      <c r="FA28" s="179"/>
-      <c r="FB28" s="179"/>
-      <c r="FC28" s="179"/>
-      <c r="FD28" s="179"/>
-      <c r="FE28" s="179"/>
-      <c r="FF28" s="179"/>
-      <c r="FG28" s="179"/>
-      <c r="FH28" s="179"/>
-      <c r="FI28" s="179"/>
-      <c r="FJ28" s="179"/>
-      <c r="FK28" s="179"/>
-      <c r="FL28" s="179"/>
-      <c r="FM28" s="179"/>
-      <c r="FN28" s="179"/>
-      <c r="FO28" s="179"/>
-      <c r="FP28" s="179"/>
-      <c r="FQ28" s="179"/>
-      <c r="FR28" s="179"/>
-      <c r="FS28" s="179"/>
-      <c r="FT28" s="179"/>
-      <c r="FU28" s="179"/>
-      <c r="FV28" s="179"/>
-      <c r="FW28" s="179"/>
-      <c r="FX28" s="179"/>
-      <c r="FY28" s="179"/>
-      <c r="FZ28" s="179"/>
-      <c r="GA28" s="179"/>
-      <c r="GB28" s="179"/>
-      <c r="GC28" s="179"/>
-      <c r="GD28" s="179"/>
-      <c r="GE28" s="179"/>
-      <c r="GF28" s="179"/>
-      <c r="GG28" s="179"/>
-      <c r="GH28" s="179"/>
-      <c r="GI28" s="179"/>
-      <c r="GJ28" s="179"/>
-      <c r="GK28" s="179"/>
-      <c r="GL28" s="179"/>
+      <c r="B28" s="185"/>
+      <c r="C28" s="185"/>
+      <c r="D28" s="185"/>
+      <c r="E28" s="185"/>
+      <c r="F28" s="185"/>
+      <c r="G28" s="185"/>
+      <c r="H28" s="185"/>
+      <c r="I28" s="185"/>
+      <c r="J28" s="185"/>
+      <c r="K28" s="185"/>
+      <c r="L28" s="185"/>
+      <c r="M28" s="185"/>
+      <c r="N28" s="185"/>
+      <c r="O28" s="185"/>
+      <c r="P28" s="185"/>
+      <c r="Q28" s="185"/>
+      <c r="R28" s="185"/>
+      <c r="S28" s="184"/>
+      <c r="T28" s="184"/>
+      <c r="U28" s="184"/>
+      <c r="V28" s="184"/>
+      <c r="W28" s="184"/>
+      <c r="X28" s="184"/>
+      <c r="Y28" s="184"/>
+      <c r="Z28" s="184"/>
+      <c r="AA28" s="184"/>
+      <c r="AB28" s="184"/>
+      <c r="AC28" s="184"/>
+      <c r="AD28" s="184"/>
+      <c r="AE28" s="184"/>
+      <c r="AF28" s="184"/>
+      <c r="AG28" s="184"/>
+      <c r="AH28" s="184"/>
+      <c r="AI28" s="184"/>
+      <c r="AJ28" s="184"/>
+      <c r="AK28" s="184"/>
+      <c r="AL28" s="184"/>
+      <c r="AM28" s="184"/>
+      <c r="AN28" s="184"/>
+      <c r="AO28" s="184"/>
+      <c r="AP28" s="184"/>
+      <c r="AQ28" s="184"/>
+      <c r="AR28" s="184"/>
+      <c r="AS28" s="184"/>
+      <c r="AT28" s="184"/>
+      <c r="AU28" s="184"/>
+      <c r="AV28" s="184"/>
+      <c r="AW28" s="184"/>
+      <c r="AX28" s="184"/>
+      <c r="AY28" s="184"/>
+      <c r="AZ28" s="184"/>
+      <c r="BA28" s="184"/>
+      <c r="BB28" s="184"/>
+      <c r="BC28" s="184"/>
+      <c r="BD28" s="184"/>
+      <c r="BE28" s="184"/>
+      <c r="BF28" s="184"/>
+      <c r="BG28" s="184"/>
+      <c r="BH28" s="184"/>
+      <c r="BI28" s="184"/>
+      <c r="BJ28" s="184"/>
+      <c r="BK28" s="184"/>
+      <c r="BL28" s="184"/>
+      <c r="BM28" s="184"/>
+      <c r="BN28" s="184"/>
+      <c r="BO28" s="184"/>
+      <c r="BP28" s="184"/>
+      <c r="BQ28" s="184"/>
+      <c r="BR28" s="184"/>
+      <c r="BS28" s="184"/>
+      <c r="BT28" s="184"/>
+      <c r="BU28" s="184"/>
+      <c r="BV28" s="184"/>
+      <c r="BW28" s="184"/>
+      <c r="BX28" s="184"/>
+      <c r="BY28" s="184"/>
+      <c r="BZ28" s="184"/>
+      <c r="CA28" s="184"/>
+      <c r="CB28" s="184"/>
+      <c r="CC28" s="184"/>
+      <c r="CD28" s="184"/>
+      <c r="CE28" s="184"/>
+      <c r="CF28" s="184"/>
+      <c r="CG28" s="184"/>
+      <c r="CH28" s="184"/>
+      <c r="CI28" s="184"/>
+      <c r="CJ28" s="184"/>
+      <c r="CK28" s="184"/>
+      <c r="CL28" s="184"/>
+      <c r="CM28" s="184"/>
+      <c r="CN28" s="184"/>
+      <c r="CO28" s="184"/>
+      <c r="CP28" s="184"/>
+      <c r="CQ28" s="184"/>
+      <c r="CR28" s="184"/>
+      <c r="CS28" s="184"/>
+      <c r="CT28" s="184"/>
+      <c r="CU28" s="184"/>
+      <c r="CV28" s="184"/>
+      <c r="CW28" s="184"/>
+      <c r="CX28" s="184"/>
+      <c r="CY28" s="184"/>
+      <c r="CZ28" s="184"/>
+      <c r="DA28" s="184"/>
+      <c r="DB28" s="184"/>
+      <c r="DC28" s="184"/>
+      <c r="DD28" s="184"/>
+      <c r="DE28" s="184"/>
+      <c r="DF28" s="184"/>
+      <c r="DG28" s="184"/>
+      <c r="DH28" s="184"/>
+      <c r="DI28" s="184"/>
+      <c r="DJ28" s="184"/>
+      <c r="DK28" s="184"/>
+      <c r="DL28" s="184"/>
+      <c r="DM28" s="184"/>
+      <c r="DN28" s="184"/>
+      <c r="DO28" s="184"/>
+      <c r="DP28" s="184"/>
+      <c r="DQ28" s="184"/>
+      <c r="DR28" s="184"/>
+      <c r="DS28" s="184"/>
+      <c r="DT28" s="184"/>
+      <c r="DU28" s="184"/>
+      <c r="DV28" s="184"/>
+      <c r="DW28" s="184"/>
+      <c r="DX28" s="184"/>
+      <c r="DY28" s="184"/>
+      <c r="DZ28" s="184"/>
+      <c r="EA28" s="184"/>
+      <c r="EB28" s="184"/>
+      <c r="EC28" s="184"/>
+      <c r="ED28" s="184"/>
+      <c r="EE28" s="184"/>
+      <c r="EF28" s="184"/>
+      <c r="EG28" s="184"/>
+      <c r="EH28" s="184"/>
+      <c r="EI28" s="184"/>
+      <c r="EJ28" s="184"/>
+      <c r="EK28" s="184"/>
+      <c r="EL28" s="184"/>
+      <c r="EM28" s="184"/>
+      <c r="EN28" s="184"/>
+      <c r="EO28" s="184"/>
+      <c r="EP28" s="184"/>
+      <c r="EQ28" s="184"/>
+      <c r="ER28" s="184"/>
+      <c r="ES28" s="184"/>
+      <c r="ET28" s="184"/>
+      <c r="EU28" s="184"/>
+      <c r="EV28" s="184"/>
+      <c r="EW28" s="184"/>
+      <c r="EX28" s="184"/>
+      <c r="EY28" s="184"/>
+      <c r="EZ28" s="184"/>
+      <c r="FA28" s="184"/>
+      <c r="FB28" s="184"/>
+      <c r="FC28" s="184"/>
+      <c r="FD28" s="184"/>
+      <c r="FE28" s="184"/>
+      <c r="FF28" s="184"/>
+      <c r="FG28" s="184"/>
+      <c r="FH28" s="184"/>
+      <c r="FI28" s="184"/>
+      <c r="FJ28" s="184"/>
+      <c r="FK28" s="184"/>
+      <c r="FL28" s="184"/>
+      <c r="FM28" s="184"/>
+      <c r="FN28" s="184"/>
+      <c r="FO28" s="184"/>
+      <c r="FP28" s="184"/>
+      <c r="FQ28" s="184"/>
+      <c r="FR28" s="184"/>
+      <c r="FS28" s="184"/>
+      <c r="FT28" s="184"/>
+      <c r="FU28" s="184"/>
+      <c r="FV28" s="184"/>
+      <c r="FW28" s="184"/>
+      <c r="FX28" s="184"/>
+      <c r="FY28" s="184"/>
+      <c r="FZ28" s="184"/>
+      <c r="GA28" s="184"/>
+      <c r="GB28" s="184"/>
+      <c r="GC28" s="184"/>
+      <c r="GD28" s="184"/>
+      <c r="GE28" s="184"/>
+      <c r="GF28" s="184"/>
+      <c r="GG28" s="184"/>
+      <c r="GH28" s="184"/>
+      <c r="GI28" s="184"/>
+      <c r="GJ28" s="184"/>
+      <c r="GK28" s="184"/>
+      <c r="GL28" s="184"/>
       <c r="GM28" s="92"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="178"/>
-      <c r="C29" s="178"/>
-      <c r="D29" s="178"/>
-      <c r="E29" s="178"/>
-      <c r="F29" s="178"/>
-      <c r="G29" s="178"/>
-      <c r="H29" s="178"/>
-      <c r="I29" s="178"/>
-      <c r="J29" s="178"/>
-      <c r="K29" s="178"/>
-      <c r="L29" s="178"/>
-      <c r="M29" s="178"/>
-      <c r="N29" s="178"/>
-      <c r="O29" s="178"/>
-      <c r="P29" s="178"/>
-      <c r="Q29" s="178"/>
-      <c r="R29" s="178"/>
+      <c r="B29" s="183"/>
+      <c r="C29" s="183"/>
+      <c r="D29" s="183"/>
+      <c r="E29" s="183"/>
+      <c r="F29" s="183"/>
+      <c r="G29" s="183"/>
+      <c r="H29" s="183"/>
+      <c r="I29" s="183"/>
+      <c r="J29" s="183"/>
+      <c r="K29" s="183"/>
+      <c r="L29" s="183"/>
+      <c r="M29" s="183"/>
+      <c r="N29" s="183"/>
+      <c r="O29" s="183"/>
+      <c r="P29" s="183"/>
+      <c r="Q29" s="183"/>
+      <c r="R29" s="183"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="181"/>
-      <c r="B30" s="181"/>
-      <c r="C30" s="181"/>
-      <c r="D30" s="181"/>
-      <c r="E30" s="181"/>
-      <c r="F30" s="181"/>
-      <c r="G30" s="181"/>
-      <c r="H30" s="181"/>
-      <c r="I30" s="181"/>
-      <c r="J30" s="181"/>
+      <c r="A30" s="186"/>
+      <c r="B30" s="186"/>
+      <c r="C30" s="186"/>
+      <c r="D30" s="186"/>
+      <c r="E30" s="186"/>
+      <c r="F30" s="186"/>
+      <c r="G30" s="186"/>
+      <c r="H30" s="186"/>
+      <c r="I30" s="186"/>
+      <c r="J30" s="186"/>
       <c r="K30" s="93"/>
       <c r="L30" s="93"/>
       <c r="M30" s="93"/>
@@ -4701,16 +4729,16 @@
       <c r="R30" s="93"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="181"/>
-      <c r="B31" s="181"/>
-      <c r="C31" s="181"/>
-      <c r="D31" s="181"/>
-      <c r="E31" s="181"/>
-      <c r="F31" s="181"/>
-      <c r="G31" s="181"/>
-      <c r="H31" s="181"/>
-      <c r="I31" s="181"/>
-      <c r="J31" s="181"/>
+      <c r="A31" s="186"/>
+      <c r="B31" s="186"/>
+      <c r="C31" s="186"/>
+      <c r="D31" s="186"/>
+      <c r="E31" s="186"/>
+      <c r="F31" s="186"/>
+      <c r="G31" s="186"/>
+      <c r="H31" s="186"/>
+      <c r="I31" s="186"/>
+      <c r="J31" s="186"/>
       <c r="K31" s="93"/>
       <c r="L31" s="93"/>
       <c r="M31" s="93"/>
@@ -4783,14 +4811,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25">
-      <c r="B1" s="232" t="s">
+      <c r="B1" s="245" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="232"/>
-      <c r="D1" s="232"/>
-      <c r="E1" s="232"/>
-      <c r="F1" s="232"/>
-      <c r="G1" s="232"/>
+      <c r="C1" s="245"/>
+      <c r="D1" s="245"/>
+      <c r="E1" s="245"/>
+      <c r="F1" s="245"/>
+      <c r="G1" s="245"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1">
       <c r="B2" s="16"/>
@@ -4983,11 +5011,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1">
-      <c r="E27" s="233" t="s">
+      <c r="E27" s="246" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="234"/>
-      <c r="G27" s="235"/>
+      <c r="F27" s="247"/>
+      <c r="G27" s="248"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="19" t="s">
@@ -5295,7 +5323,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -5311,10 +5339,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="182" t="s">
+      <c r="A1" s="187" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="182"/>
+      <c r="B1" s="187"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -5341,8 +5369,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="182"/>
-      <c r="B2" s="182"/>
+      <c r="A2" s="187"/>
+      <c r="B2" s="187"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
@@ -5381,14 +5409,14 @@
       <c r="D4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="183" t="s">
+      <c r="E4" s="188" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="183"/>
-      <c r="G4" s="183"/>
-      <c r="H4" s="183"/>
-      <c r="I4" s="183"/>
-      <c r="J4" s="183"/>
+      <c r="F4" s="188"/>
+      <c r="G4" s="188"/>
+      <c r="H4" s="188"/>
+      <c r="I4" s="188"/>
+      <c r="J4" s="188"/>
     </row>
     <row r="5" spans="1:10" s="25" customFormat="1" ht="47.25" customHeight="1">
       <c r="A5" s="99">
@@ -5403,14 +5431,14 @@
       <c r="D5" s="103" t="s">
         <v>164</v>
       </c>
-      <c r="E5" s="184" t="s">
+      <c r="E5" s="189" t="s">
         <v>165</v>
       </c>
-      <c r="F5" s="184"/>
-      <c r="G5" s="184"/>
-      <c r="H5" s="184"/>
-      <c r="I5" s="184"/>
-      <c r="J5" s="184"/>
+      <c r="F5" s="189"/>
+      <c r="G5" s="189"/>
+      <c r="H5" s="189"/>
+      <c r="I5" s="189"/>
+      <c r="J5" s="189"/>
     </row>
     <row r="6" spans="1:10" s="25" customFormat="1" ht="12.75">
       <c r="A6" s="135">
@@ -5421,12 +5449,12 @@
       </c>
       <c r="C6" s="140"/>
       <c r="D6" s="140"/>
-      <c r="E6" s="185"/>
-      <c r="F6" s="186"/>
-      <c r="G6" s="186"/>
-      <c r="H6" s="186"/>
-      <c r="I6" s="186"/>
-      <c r="J6" s="187"/>
+      <c r="E6" s="190"/>
+      <c r="F6" s="191"/>
+      <c r="G6" s="191"/>
+      <c r="H6" s="191"/>
+      <c r="I6" s="191"/>
+      <c r="J6" s="192"/>
     </row>
     <row r="7" spans="1:10" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A7" s="136">
@@ -5437,12 +5465,12 @@
       </c>
       <c r="C7" s="140"/>
       <c r="D7" s="140"/>
-      <c r="E7" s="189"/>
-      <c r="F7" s="190"/>
-      <c r="G7" s="190"/>
-      <c r="H7" s="190"/>
-      <c r="I7" s="190"/>
-      <c r="J7" s="191"/>
+      <c r="E7" s="194"/>
+      <c r="F7" s="195"/>
+      <c r="G7" s="195"/>
+      <c r="H7" s="195"/>
+      <c r="I7" s="195"/>
+      <c r="J7" s="196"/>
     </row>
     <row r="8" spans="1:10" s="25" customFormat="1" ht="12.75">
       <c r="A8" s="134">
@@ -5453,12 +5481,12 @@
       </c>
       <c r="C8" s="142"/>
       <c r="D8" s="142"/>
-      <c r="E8" s="192"/>
-      <c r="F8" s="193"/>
-      <c r="G8" s="193"/>
-      <c r="H8" s="193"/>
-      <c r="I8" s="193"/>
-      <c r="J8" s="193"/>
+      <c r="E8" s="197"/>
+      <c r="F8" s="198"/>
+      <c r="G8" s="198"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
+      <c r="J8" s="198"/>
     </row>
     <row r="9" spans="1:10" s="131" customFormat="1" ht="12.75">
       <c r="A9" s="133">
@@ -5469,12 +5497,12 @@
       </c>
       <c r="C9" s="142"/>
       <c r="D9" s="144"/>
-      <c r="E9" s="194"/>
-      <c r="F9" s="195"/>
-      <c r="G9" s="195"/>
-      <c r="H9" s="195"/>
-      <c r="I9" s="195"/>
-      <c r="J9" s="196"/>
+      <c r="E9" s="199"/>
+      <c r="F9" s="200"/>
+      <c r="G9" s="200"/>
+      <c r="H9" s="200"/>
+      <c r="I9" s="200"/>
+      <c r="J9" s="201"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="72">
@@ -5485,12 +5513,12 @@
       </c>
       <c r="C10" s="63"/>
       <c r="D10" s="37"/>
-      <c r="E10" s="197"/>
-      <c r="F10" s="198"/>
-      <c r="G10" s="198"/>
-      <c r="H10" s="198"/>
-      <c r="I10" s="198"/>
-      <c r="J10" s="199"/>
+      <c r="E10" s="202"/>
+      <c r="F10" s="203"/>
+      <c r="G10" s="203"/>
+      <c r="H10" s="203"/>
+      <c r="I10" s="203"/>
+      <c r="J10" s="204"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="73">
@@ -5501,12 +5529,12 @@
       </c>
       <c r="C11" s="63"/>
       <c r="D11" s="37"/>
-      <c r="E11" s="197"/>
-      <c r="F11" s="198"/>
-      <c r="G11" s="198"/>
-      <c r="H11" s="198"/>
-      <c r="I11" s="198"/>
-      <c r="J11" s="199"/>
+      <c r="E11" s="202"/>
+      <c r="F11" s="203"/>
+      <c r="G11" s="203"/>
+      <c r="H11" s="203"/>
+      <c r="I11" s="203"/>
+      <c r="J11" s="204"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="74">
@@ -5517,12 +5545,12 @@
       </c>
       <c r="C12" s="63"/>
       <c r="D12" s="37"/>
-      <c r="E12" s="197"/>
-      <c r="F12" s="198"/>
-      <c r="G12" s="198"/>
-      <c r="H12" s="198"/>
-      <c r="I12" s="198"/>
-      <c r="J12" s="199"/>
+      <c r="E12" s="202"/>
+      <c r="F12" s="203"/>
+      <c r="G12" s="203"/>
+      <c r="H12" s="203"/>
+      <c r="I12" s="203"/>
+      <c r="J12" s="204"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="75">
@@ -5533,12 +5561,12 @@
       </c>
       <c r="C13" s="63"/>
       <c r="D13" s="37"/>
-      <c r="E13" s="197"/>
-      <c r="F13" s="198"/>
-      <c r="G13" s="198"/>
-      <c r="H13" s="198"/>
-      <c r="I13" s="198"/>
-      <c r="J13" s="199"/>
+      <c r="E13" s="202"/>
+      <c r="F13" s="203"/>
+      <c r="G13" s="203"/>
+      <c r="H13" s="203"/>
+      <c r="I13" s="203"/>
+      <c r="J13" s="204"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="76">
@@ -5549,12 +5577,12 @@
       </c>
       <c r="C14" s="63"/>
       <c r="D14" s="37"/>
-      <c r="E14" s="197"/>
-      <c r="F14" s="198"/>
-      <c r="G14" s="198"/>
-      <c r="H14" s="198"/>
-      <c r="I14" s="198"/>
-      <c r="J14" s="199"/>
+      <c r="E14" s="202"/>
+      <c r="F14" s="203"/>
+      <c r="G14" s="203"/>
+      <c r="H14" s="203"/>
+      <c r="I14" s="203"/>
+      <c r="J14" s="204"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="37">
@@ -5565,12 +5593,12 @@
       </c>
       <c r="C15" s="63"/>
       <c r="D15" s="37"/>
-      <c r="E15" s="188"/>
-      <c r="F15" s="188"/>
-      <c r="G15" s="188"/>
-      <c r="H15" s="188"/>
-      <c r="I15" s="188"/>
-      <c r="J15" s="188"/>
+      <c r="E15" s="193"/>
+      <c r="F15" s="193"/>
+      <c r="G15" s="193"/>
+      <c r="H15" s="193"/>
+      <c r="I15" s="193"/>
+      <c r="J15" s="193"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="68">
@@ -5581,12 +5609,12 @@
       </c>
       <c r="C16" s="63"/>
       <c r="D16" s="37"/>
-      <c r="E16" s="188"/>
-      <c r="F16" s="188"/>
-      <c r="G16" s="188"/>
-      <c r="H16" s="188"/>
-      <c r="I16" s="188"/>
-      <c r="J16" s="188"/>
+      <c r="E16" s="193"/>
+      <c r="F16" s="193"/>
+      <c r="G16" s="193"/>
+      <c r="H16" s="193"/>
+      <c r="I16" s="193"/>
+      <c r="J16" s="193"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="69">
@@ -5597,12 +5625,12 @@
       </c>
       <c r="C17" s="63"/>
       <c r="D17" s="37"/>
-      <c r="E17" s="188"/>
-      <c r="F17" s="188"/>
-      <c r="G17" s="188"/>
-      <c r="H17" s="188"/>
-      <c r="I17" s="188"/>
-      <c r="J17" s="188"/>
+      <c r="E17" s="193"/>
+      <c r="F17" s="193"/>
+      <c r="G17" s="193"/>
+      <c r="H17" s="193"/>
+      <c r="I17" s="193"/>
+      <c r="J17" s="193"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="70">
@@ -5613,12 +5641,12 @@
       </c>
       <c r="C18" s="63"/>
       <c r="D18" s="37"/>
-      <c r="E18" s="188"/>
-      <c r="F18" s="188"/>
-      <c r="G18" s="188"/>
-      <c r="H18" s="188"/>
-      <c r="I18" s="188"/>
-      <c r="J18" s="188"/>
+      <c r="E18" s="193"/>
+      <c r="F18" s="193"/>
+      <c r="G18" s="193"/>
+      <c r="H18" s="193"/>
+      <c r="I18" s="193"/>
+      <c r="J18" s="193"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="71">
@@ -5629,12 +5657,12 @@
       </c>
       <c r="C19" s="63"/>
       <c r="D19" s="37"/>
-      <c r="E19" s="188"/>
-      <c r="F19" s="188"/>
-      <c r="G19" s="188"/>
-      <c r="H19" s="188"/>
-      <c r="I19" s="188"/>
-      <c r="J19" s="188"/>
+      <c r="E19" s="193"/>
+      <c r="F19" s="193"/>
+      <c r="G19" s="193"/>
+      <c r="H19" s="193"/>
+      <c r="I19" s="193"/>
+      <c r="J19" s="193"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="72">
@@ -5645,12 +5673,12 @@
       </c>
       <c r="C20" s="63"/>
       <c r="D20" s="37"/>
-      <c r="E20" s="188"/>
-      <c r="F20" s="188"/>
-      <c r="G20" s="188"/>
-      <c r="H20" s="188"/>
-      <c r="I20" s="188"/>
-      <c r="J20" s="188"/>
+      <c r="E20" s="193"/>
+      <c r="F20" s="193"/>
+      <c r="G20" s="193"/>
+      <c r="H20" s="193"/>
+      <c r="I20" s="193"/>
+      <c r="J20" s="193"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="73">
@@ -5661,12 +5689,12 @@
       </c>
       <c r="C21" s="63"/>
       <c r="D21" s="37"/>
-      <c r="E21" s="188"/>
-      <c r="F21" s="188"/>
-      <c r="G21" s="188"/>
-      <c r="H21" s="188"/>
-      <c r="I21" s="188"/>
-      <c r="J21" s="188"/>
+      <c r="E21" s="193"/>
+      <c r="F21" s="193"/>
+      <c r="G21" s="193"/>
+      <c r="H21" s="193"/>
+      <c r="I21" s="193"/>
+      <c r="J21" s="193"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="74">
@@ -5677,12 +5705,12 @@
       </c>
       <c r="C22" s="63"/>
       <c r="D22" s="37"/>
-      <c r="E22" s="188"/>
-      <c r="F22" s="188"/>
-      <c r="G22" s="188"/>
-      <c r="H22" s="188"/>
-      <c r="I22" s="188"/>
-      <c r="J22" s="188"/>
+      <c r="E22" s="193"/>
+      <c r="F22" s="193"/>
+      <c r="G22" s="193"/>
+      <c r="H22" s="193"/>
+      <c r="I22" s="193"/>
+      <c r="J22" s="193"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="75">
@@ -5693,12 +5721,12 @@
       </c>
       <c r="C23" s="63"/>
       <c r="D23" s="37"/>
-      <c r="E23" s="188"/>
-      <c r="F23" s="188"/>
-      <c r="G23" s="188"/>
-      <c r="H23" s="188"/>
-      <c r="I23" s="188"/>
-      <c r="J23" s="188"/>
+      <c r="E23" s="193"/>
+      <c r="F23" s="193"/>
+      <c r="G23" s="193"/>
+      <c r="H23" s="193"/>
+      <c r="I23" s="193"/>
+      <c r="J23" s="193"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="76">
@@ -5709,12 +5737,12 @@
       </c>
       <c r="C24" s="63"/>
       <c r="D24" s="37"/>
-      <c r="E24" s="188"/>
-      <c r="F24" s="188"/>
-      <c r="G24" s="188"/>
-      <c r="H24" s="188"/>
-      <c r="I24" s="188"/>
-      <c r="J24" s="188"/>
+      <c r="E24" s="193"/>
+      <c r="F24" s="193"/>
+      <c r="G24" s="193"/>
+      <c r="H24" s="193"/>
+      <c r="I24" s="193"/>
+      <c r="J24" s="193"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="37">
@@ -5725,12 +5753,12 @@
       </c>
       <c r="C25" s="63"/>
       <c r="D25" s="37"/>
-      <c r="E25" s="188"/>
-      <c r="F25" s="188"/>
-      <c r="G25" s="188"/>
-      <c r="H25" s="188"/>
-      <c r="I25" s="188"/>
-      <c r="J25" s="188"/>
+      <c r="E25" s="193"/>
+      <c r="F25" s="193"/>
+      <c r="G25" s="193"/>
+      <c r="H25" s="193"/>
+      <c r="I25" s="193"/>
+      <c r="J25" s="193"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="68">
@@ -5741,12 +5769,12 @@
       </c>
       <c r="C26" s="63"/>
       <c r="D26" s="37"/>
-      <c r="E26" s="188"/>
-      <c r="F26" s="188"/>
-      <c r="G26" s="188"/>
-      <c r="H26" s="188"/>
-      <c r="I26" s="188"/>
-      <c r="J26" s="188"/>
+      <c r="E26" s="193"/>
+      <c r="F26" s="193"/>
+      <c r="G26" s="193"/>
+      <c r="H26" s="193"/>
+      <c r="I26" s="193"/>
+      <c r="J26" s="193"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="69">
@@ -5757,12 +5785,12 @@
       </c>
       <c r="C27" s="63"/>
       <c r="D27" s="37"/>
-      <c r="E27" s="188"/>
-      <c r="F27" s="188"/>
-      <c r="G27" s="188"/>
-      <c r="H27" s="188"/>
-      <c r="I27" s="188"/>
-      <c r="J27" s="188"/>
+      <c r="E27" s="193"/>
+      <c r="F27" s="193"/>
+      <c r="G27" s="193"/>
+      <c r="H27" s="193"/>
+      <c r="I27" s="193"/>
+      <c r="J27" s="193"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="70">
@@ -5773,12 +5801,12 @@
       </c>
       <c r="C28" s="63"/>
       <c r="D28" s="37"/>
-      <c r="E28" s="188"/>
-      <c r="F28" s="188"/>
-      <c r="G28" s="188"/>
-      <c r="H28" s="188"/>
-      <c r="I28" s="188"/>
-      <c r="J28" s="188"/>
+      <c r="E28" s="193"/>
+      <c r="F28" s="193"/>
+      <c r="G28" s="193"/>
+      <c r="H28" s="193"/>
+      <c r="I28" s="193"/>
+      <c r="J28" s="193"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="71">
@@ -5789,12 +5817,12 @@
       </c>
       <c r="C29" s="63"/>
       <c r="D29" s="37"/>
-      <c r="E29" s="188"/>
-      <c r="F29" s="188"/>
-      <c r="G29" s="188"/>
-      <c r="H29" s="188"/>
-      <c r="I29" s="188"/>
-      <c r="J29" s="188"/>
+      <c r="E29" s="193"/>
+      <c r="F29" s="193"/>
+      <c r="G29" s="193"/>
+      <c r="H29" s="193"/>
+      <c r="I29" s="193"/>
+      <c r="J29" s="193"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="72">
@@ -5805,12 +5833,12 @@
       </c>
       <c r="C30" s="63"/>
       <c r="D30" s="37"/>
-      <c r="E30" s="188"/>
-      <c r="F30" s="188"/>
-      <c r="G30" s="188"/>
-      <c r="H30" s="188"/>
-      <c r="I30" s="188"/>
-      <c r="J30" s="188"/>
+      <c r="E30" s="193"/>
+      <c r="F30" s="193"/>
+      <c r="G30" s="193"/>
+      <c r="H30" s="193"/>
+      <c r="I30" s="193"/>
+      <c r="J30" s="193"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="73">
@@ -5821,12 +5849,12 @@
       </c>
       <c r="C31" s="63"/>
       <c r="D31" s="37"/>
-      <c r="E31" s="188"/>
-      <c r="F31" s="188"/>
-      <c r="G31" s="188"/>
-      <c r="H31" s="188"/>
-      <c r="I31" s="188"/>
-      <c r="J31" s="188"/>
+      <c r="E31" s="193"/>
+      <c r="F31" s="193"/>
+      <c r="G31" s="193"/>
+      <c r="H31" s="193"/>
+      <c r="I31" s="193"/>
+      <c r="J31" s="193"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="74">
@@ -5837,12 +5865,12 @@
       </c>
       <c r="C32" s="63"/>
       <c r="D32" s="37"/>
-      <c r="E32" s="188"/>
-      <c r="F32" s="188"/>
-      <c r="G32" s="188"/>
-      <c r="H32" s="188"/>
-      <c r="I32" s="188"/>
-      <c r="J32" s="188"/>
+      <c r="E32" s="193"/>
+      <c r="F32" s="193"/>
+      <c r="G32" s="193"/>
+      <c r="H32" s="193"/>
+      <c r="I32" s="193"/>
+      <c r="J32" s="193"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="75">
@@ -5853,12 +5881,12 @@
       </c>
       <c r="C33" s="63"/>
       <c r="D33" s="37"/>
-      <c r="E33" s="188"/>
-      <c r="F33" s="188"/>
-      <c r="G33" s="188"/>
-      <c r="H33" s="188"/>
-      <c r="I33" s="188"/>
-      <c r="J33" s="188"/>
+      <c r="E33" s="193"/>
+      <c r="F33" s="193"/>
+      <c r="G33" s="193"/>
+      <c r="H33" s="193"/>
+      <c r="I33" s="193"/>
+      <c r="J33" s="193"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="76">
@@ -5869,12 +5897,12 @@
       </c>
       <c r="C34" s="63"/>
       <c r="D34" s="37"/>
-      <c r="E34" s="188"/>
-      <c r="F34" s="188"/>
-      <c r="G34" s="188"/>
-      <c r="H34" s="188"/>
-      <c r="I34" s="188"/>
-      <c r="J34" s="188"/>
+      <c r="E34" s="193"/>
+      <c r="F34" s="193"/>
+      <c r="G34" s="193"/>
+      <c r="H34" s="193"/>
+      <c r="I34" s="193"/>
+      <c r="J34" s="193"/>
     </row>
   </sheetData>
   <mergeCells count="32">
@@ -5954,10 +5982,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="182" t="s">
+      <c r="A1" s="187" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="182"/>
+      <c r="B1" s="187"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -5988,8 +6016,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="182"/>
-      <c r="B2" s="182"/>
+      <c r="A2" s="187"/>
+      <c r="B2" s="187"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
@@ -6020,20 +6048,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">
-      <c r="A4" s="200" t="s">
+      <c r="A4" s="205" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="202"/>
-      <c r="C4" s="202"/>
-      <c r="D4" s="202"/>
-      <c r="E4" s="202"/>
-      <c r="F4" s="202"/>
-      <c r="G4" s="202"/>
-      <c r="H4" s="201"/>
-      <c r="I4" s="200" t="s">
+      <c r="B4" s="207"/>
+      <c r="C4" s="207"/>
+      <c r="D4" s="207"/>
+      <c r="E4" s="207"/>
+      <c r="F4" s="207"/>
+      <c r="G4" s="207"/>
+      <c r="H4" s="206"/>
+      <c r="I4" s="205" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="201"/>
+      <c r="J4" s="206"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1">
       <c r="A5"/>
@@ -6044,10 +6072,10 @@
       <c r="F5" s="40"/>
       <c r="G5" s="40"/>
       <c r="H5" s="41"/>
-      <c r="I5" s="207" t="s">
+      <c r="I5" s="212" t="s">
         <v>167</v>
       </c>
-      <c r="J5" s="208"/>
+      <c r="J5" s="213"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="39"/>
@@ -6058,8 +6086,8 @@
       <c r="F6" s="40"/>
       <c r="G6" s="40"/>
       <c r="H6" s="42"/>
-      <c r="I6" s="209"/>
-      <c r="J6" s="210"/>
+      <c r="I6" s="214"/>
+      <c r="J6" s="215"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="39"/>
@@ -6070,8 +6098,8 @@
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
       <c r="H7" s="42"/>
-      <c r="I7" s="209"/>
-      <c r="J7" s="210"/>
+      <c r="I7" s="214"/>
+      <c r="J7" s="215"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="39"/>
@@ -6082,8 +6110,8 @@
       <c r="F8" s="40"/>
       <c r="G8" s="40"/>
       <c r="H8" s="42"/>
-      <c r="I8" s="209"/>
-      <c r="J8" s="210"/>
+      <c r="I8" s="214"/>
+      <c r="J8" s="215"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="39"/>
@@ -6094,8 +6122,8 @@
       <c r="F9" s="40"/>
       <c r="G9" s="40"/>
       <c r="H9" s="42"/>
-      <c r="I9" s="209"/>
-      <c r="J9" s="210"/>
+      <c r="I9" s="214"/>
+      <c r="J9" s="215"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="39"/>
@@ -6106,8 +6134,8 @@
       <c r="F10" s="40"/>
       <c r="G10" s="40"/>
       <c r="H10" s="42"/>
-      <c r="I10" s="211"/>
-      <c r="J10" s="212"/>
+      <c r="I10" s="216"/>
+      <c r="J10" s="217"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="39"/>
@@ -6118,10 +6146,10 @@
       <c r="F11" s="40"/>
       <c r="G11" s="40"/>
       <c r="H11" s="43"/>
-      <c r="I11" s="200" t="s">
+      <c r="I11" s="205" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="201"/>
+      <c r="J11" s="206"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="39"/>
@@ -6132,10 +6160,10 @@
       <c r="F12" s="40"/>
       <c r="G12" s="40"/>
       <c r="H12" s="42"/>
-      <c r="I12" s="203" t="s">
+      <c r="I12" s="208" t="s">
         <v>166</v>
       </c>
-      <c r="J12" s="204"/>
+      <c r="J12" s="209"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="39"/>
@@ -6146,8 +6174,8 @@
       <c r="F13" s="40"/>
       <c r="G13" s="40"/>
       <c r="H13" s="42"/>
-      <c r="I13" s="205"/>
-      <c r="J13" s="206"/>
+      <c r="I13" s="210"/>
+      <c r="J13" s="211"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="39"/>
@@ -6158,8 +6186,8 @@
       <c r="F14" s="40"/>
       <c r="G14" s="40"/>
       <c r="H14" s="42"/>
-      <c r="I14" s="205"/>
-      <c r="J14" s="206"/>
+      <c r="I14" s="210"/>
+      <c r="J14" s="211"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="39"/>
@@ -6170,8 +6198,8 @@
       <c r="F15" s="40"/>
       <c r="G15" s="40"/>
       <c r="H15" s="42"/>
-      <c r="I15" s="205"/>
-      <c r="J15" s="206"/>
+      <c r="I15" s="210"/>
+      <c r="J15" s="211"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="39"/>
@@ -6182,8 +6210,8 @@
       <c r="F16" s="40"/>
       <c r="G16" s="40"/>
       <c r="H16" s="42"/>
-      <c r="I16" s="205"/>
-      <c r="J16" s="206"/>
+      <c r="I16" s="210"/>
+      <c r="J16" s="211"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="39"/>
@@ -6194,8 +6222,8 @@
       <c r="F17" s="40"/>
       <c r="G17" s="40"/>
       <c r="H17" s="42"/>
-      <c r="I17" s="205"/>
-      <c r="J17" s="206"/>
+      <c r="I17" s="210"/>
+      <c r="J17" s="211"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="39"/>
@@ -6206,8 +6234,8 @@
       <c r="F18" s="40"/>
       <c r="G18" s="40"/>
       <c r="H18" s="42"/>
-      <c r="I18" s="205"/>
-      <c r="J18" s="206"/>
+      <c r="I18" s="210"/>
+      <c r="J18" s="211"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="39"/>
@@ -6218,8 +6246,8 @@
       <c r="F19" s="40"/>
       <c r="G19" s="40"/>
       <c r="H19" s="42"/>
-      <c r="I19" s="205"/>
-      <c r="J19" s="206"/>
+      <c r="I19" s="210"/>
+      <c r="J19" s="211"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="39"/>
@@ -6230,8 +6258,8 @@
       <c r="F20" s="40"/>
       <c r="G20" s="40"/>
       <c r="H20" s="42"/>
-      <c r="I20" s="205"/>
-      <c r="J20" s="206"/>
+      <c r="I20" s="210"/>
+      <c r="J20" s="211"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="39"/>
@@ -6242,8 +6270,8 @@
       <c r="F21" s="40"/>
       <c r="G21" s="40"/>
       <c r="H21" s="42"/>
-      <c r="I21" s="205"/>
-      <c r="J21" s="206"/>
+      <c r="I21" s="210"/>
+      <c r="J21" s="211"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="39"/>
@@ -6254,8 +6282,8 @@
       <c r="F22" s="40"/>
       <c r="G22" s="40"/>
       <c r="H22" s="42"/>
-      <c r="I22" s="205"/>
-      <c r="J22" s="206"/>
+      <c r="I22" s="210"/>
+      <c r="J22" s="211"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="39"/>
@@ -6266,8 +6294,8 @@
       <c r="F23" s="40"/>
       <c r="G23" s="40"/>
       <c r="H23" s="42"/>
-      <c r="I23" s="205"/>
-      <c r="J23" s="206"/>
+      <c r="I23" s="210"/>
+      <c r="J23" s="211"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="39"/>
@@ -6278,8 +6306,8 @@
       <c r="F24" s="40"/>
       <c r="G24" s="40"/>
       <c r="H24" s="42"/>
-      <c r="I24" s="205"/>
-      <c r="J24" s="206"/>
+      <c r="I24" s="210"/>
+      <c r="J24" s="211"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="39"/>
@@ -6290,8 +6318,8 @@
       <c r="F25" s="40"/>
       <c r="G25" s="40"/>
       <c r="H25" s="42"/>
-      <c r="I25" s="205"/>
-      <c r="J25" s="206"/>
+      <c r="I25" s="210"/>
+      <c r="J25" s="211"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="39"/>
@@ -6302,8 +6330,8 @@
       <c r="F26" s="40"/>
       <c r="G26" s="40"/>
       <c r="H26" s="42"/>
-      <c r="I26" s="205"/>
-      <c r="J26" s="206"/>
+      <c r="I26" s="210"/>
+      <c r="J26" s="211"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="39"/>
@@ -6314,8 +6342,8 @@
       <c r="F27" s="40"/>
       <c r="G27" s="40"/>
       <c r="H27" s="42"/>
-      <c r="I27" s="205"/>
-      <c r="J27" s="206"/>
+      <c r="I27" s="210"/>
+      <c r="J27" s="211"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="39"/>
@@ -6326,8 +6354,8 @@
       <c r="F28" s="40"/>
       <c r="G28" s="40"/>
       <c r="H28" s="42"/>
-      <c r="I28" s="205"/>
-      <c r="J28" s="206"/>
+      <c r="I28" s="210"/>
+      <c r="J28" s="211"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="39"/>
@@ -6338,8 +6366,8 @@
       <c r="F29" s="40"/>
       <c r="G29" s="40"/>
       <c r="H29" s="42"/>
-      <c r="I29" s="205"/>
-      <c r="J29" s="206"/>
+      <c r="I29" s="210"/>
+      <c r="J29" s="211"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="39"/>
@@ -6350,8 +6378,8 @@
       <c r="F30" s="40"/>
       <c r="G30" s="40"/>
       <c r="H30" s="42"/>
-      <c r="I30" s="205"/>
-      <c r="J30" s="206"/>
+      <c r="I30" s="210"/>
+      <c r="J30" s="211"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="39"/>
@@ -6362,8 +6390,8 @@
       <c r="F31" s="40"/>
       <c r="G31" s="40"/>
       <c r="H31" s="42"/>
-      <c r="I31" s="205"/>
-      <c r="J31" s="206"/>
+      <c r="I31" s="210"/>
+      <c r="J31" s="211"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="39"/>
@@ -6374,8 +6402,8 @@
       <c r="F32" s="40"/>
       <c r="G32" s="40"/>
       <c r="H32" s="42"/>
-      <c r="I32" s="205"/>
-      <c r="J32" s="206"/>
+      <c r="I32" s="210"/>
+      <c r="J32" s="211"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="39"/>
@@ -6386,8 +6414,8 @@
       <c r="F33" s="40"/>
       <c r="G33" s="40"/>
       <c r="H33" s="42"/>
-      <c r="I33" s="205"/>
-      <c r="J33" s="206"/>
+      <c r="I33" s="210"/>
+      <c r="J33" s="211"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="39"/>
@@ -6398,8 +6426,8 @@
       <c r="F34" s="40"/>
       <c r="G34" s="40"/>
       <c r="H34" s="42"/>
-      <c r="I34" s="205"/>
-      <c r="J34" s="206"/>
+      <c r="I34" s="210"/>
+      <c r="J34" s="211"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="39"/>
@@ -6410,8 +6438,8 @@
       <c r="F35" s="40"/>
       <c r="G35" s="40"/>
       <c r="H35" s="42"/>
-      <c r="I35" s="205"/>
-      <c r="J35" s="206"/>
+      <c r="I35" s="210"/>
+      <c r="J35" s="211"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="39"/>
@@ -6422,8 +6450,8 @@
       <c r="F36" s="40"/>
       <c r="G36" s="40"/>
       <c r="H36" s="42"/>
-      <c r="I36" s="205"/>
-      <c r="J36" s="206"/>
+      <c r="I36" s="210"/>
+      <c r="J36" s="211"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="39"/>
@@ -6434,8 +6462,8 @@
       <c r="F37" s="40"/>
       <c r="G37" s="40"/>
       <c r="H37" s="42"/>
-      <c r="I37" s="205"/>
-      <c r="J37" s="206"/>
+      <c r="I37" s="210"/>
+      <c r="J37" s="211"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="39"/>
@@ -6446,8 +6474,8 @@
       <c r="F38" s="40"/>
       <c r="G38" s="40"/>
       <c r="H38" s="42"/>
-      <c r="I38" s="205"/>
-      <c r="J38" s="206"/>
+      <c r="I38" s="210"/>
+      <c r="J38" s="211"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="39"/>
@@ -6458,8 +6486,8 @@
       <c r="F39" s="40"/>
       <c r="G39" s="40"/>
       <c r="H39" s="42"/>
-      <c r="I39" s="205"/>
-      <c r="J39" s="206"/>
+      <c r="I39" s="210"/>
+      <c r="J39" s="211"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="39"/>
@@ -6470,8 +6498,8 @@
       <c r="F40" s="40"/>
       <c r="G40" s="40"/>
       <c r="H40" s="42"/>
-      <c r="I40" s="205"/>
-      <c r="J40" s="206"/>
+      <c r="I40" s="210"/>
+      <c r="J40" s="211"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="39"/>
@@ -6482,8 +6510,8 @@
       <c r="F41" s="40"/>
       <c r="G41" s="40"/>
       <c r="H41" s="42"/>
-      <c r="I41" s="205"/>
-      <c r="J41" s="206"/>
+      <c r="I41" s="210"/>
+      <c r="J41" s="211"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="39"/>
@@ -6494,8 +6522,8 @@
       <c r="F42" s="40"/>
       <c r="G42" s="40"/>
       <c r="H42" s="42"/>
-      <c r="I42" s="205"/>
-      <c r="J42" s="206"/>
+      <c r="I42" s="210"/>
+      <c r="J42" s="211"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1">
       <c r="A43" s="39"/>
@@ -6506,8 +6534,8 @@
       <c r="F43" s="40"/>
       <c r="G43" s="40"/>
       <c r="H43" s="42"/>
-      <c r="I43" s="205"/>
-      <c r="J43" s="206"/>
+      <c r="I43" s="210"/>
+      <c r="J43" s="211"/>
     </row>
     <row r="44" spans="1:10" ht="12" customHeight="1">
       <c r="A44" s="39"/>
@@ -6518,8 +6546,8 @@
       <c r="F44" s="40"/>
       <c r="G44" s="40"/>
       <c r="H44" s="42"/>
-      <c r="I44" s="205"/>
-      <c r="J44" s="206"/>
+      <c r="I44" s="210"/>
+      <c r="J44" s="211"/>
     </row>
     <row r="45" spans="1:10" ht="12" customHeight="1">
       <c r="A45" s="39"/>
@@ -6530,8 +6558,8 @@
       <c r="F45" s="40"/>
       <c r="G45" s="40"/>
       <c r="H45" s="42"/>
-      <c r="I45" s="205"/>
-      <c r="J45" s="206"/>
+      <c r="I45" s="210"/>
+      <c r="J45" s="211"/>
     </row>
     <row r="46" spans="1:10" ht="12" customHeight="1">
       <c r="A46" s="39"/>
@@ -6542,8 +6570,8 @@
       <c r="F46" s="40"/>
       <c r="G46" s="40"/>
       <c r="H46" s="42"/>
-      <c r="I46" s="205"/>
-      <c r="J46" s="206"/>
+      <c r="I46" s="210"/>
+      <c r="J46" s="211"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6571,10 +6599,10 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="4" topLeftCell="N5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -6599,13 +6627,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="182" t="s">
+      <c r="A1" s="187" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="182"/>
-      <c r="C1" s="182"/>
-      <c r="D1" s="182"/>
-      <c r="E1" s="182"/>
+      <c r="B1" s="187"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
       <c r="F1" s="29" t="s">
         <v>1</v>
       </c>
@@ -6613,16 +6641,16 @@
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="H1" s="213" t="s">
+      <c r="H1" s="218" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="214"/>
-      <c r="J1" s="215" t="str">
+      <c r="I1" s="219"/>
+      <c r="J1" s="220" t="str">
         <f>'Update History'!F1</f>
         <v>CRMF2061</v>
       </c>
-      <c r="K1" s="216"/>
-      <c r="L1" s="217"/>
+      <c r="K1" s="221"/>
+      <c r="L1" s="222"/>
       <c r="M1" s="30" t="s">
         <v>5</v>
       </c>
@@ -6639,11 +6667,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="182"/>
-      <c r="B2" s="182"/>
-      <c r="C2" s="182"/>
-      <c r="D2" s="182"/>
-      <c r="E2" s="182"/>
+      <c r="A2" s="187"/>
+      <c r="B2" s="187"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
       <c r="F2" s="29" t="s">
         <v>2</v>
       </c>
@@ -6651,16 +6679,16 @@
         <f>'Update History'!D2</f>
         <v>ASOFT-CRM</v>
       </c>
-      <c r="H2" s="213" t="s">
+      <c r="H2" s="218" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="214"/>
-      <c r="J2" s="215" t="str">
+      <c r="I2" s="219"/>
+      <c r="J2" s="220" t="str">
         <f>'Update History'!F2</f>
         <v>Đánh giá hỗ trợ khách hàng</v>
       </c>
-      <c r="K2" s="216"/>
-      <c r="L2" s="217"/>
+      <c r="K2" s="221"/>
+      <c r="L2" s="222"/>
       <c r="M2" s="30" t="s">
         <v>6</v>
       </c>
@@ -6805,10 +6833,10 @@
         <v>174</v>
       </c>
       <c r="F7" s="147" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G7" s="147" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H7" s="126" t="s">
         <v>171</v>
@@ -6915,13 +6943,13 @@
         <v>178</v>
       </c>
       <c r="F10" s="126" t="s">
+        <v>193</v>
+      </c>
+      <c r="G10" s="126" t="s">
+        <v>193</v>
+      </c>
+      <c r="H10" s="147" t="s">
         <v>179</v>
-      </c>
-      <c r="G10" s="126" t="s">
-        <v>179</v>
-      </c>
-      <c r="H10" s="147" t="s">
-        <v>180</v>
       </c>
       <c r="I10" s="126" t="s">
         <v>172</v>
@@ -6949,14 +6977,14 @@
       <c r="D11" s="122">
         <v>7</v>
       </c>
-      <c r="E11" s="236" t="s">
+      <c r="E11" s="160" t="s">
+        <v>180</v>
+      </c>
+      <c r="F11" s="147" t="s">
         <v>181</v>
       </c>
-      <c r="F11" s="147" t="s">
-        <v>182</v>
-      </c>
       <c r="G11" s="147" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H11" s="147" t="s">
         <v>171</v>
@@ -6989,13 +7017,13 @@
       </c>
       <c r="E12" s="27"/>
       <c r="F12" s="147" t="s">
+        <v>182</v>
+      </c>
+      <c r="G12" s="147" t="s">
+        <v>182</v>
+      </c>
+      <c r="H12" s="147" t="s">
         <v>183</v>
-      </c>
-      <c r="G12" s="147" t="s">
-        <v>183</v>
-      </c>
-      <c r="H12" s="147" t="s">
-        <v>184</v>
       </c>
       <c r="I12" s="126" t="s">
         <v>172</v>
@@ -7024,7 +7052,7 @@
         <v>9</v>
       </c>
       <c r="E13" s="126" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F13" s="147"/>
       <c r="G13" s="147"/>
@@ -7059,13 +7087,13 @@
       </c>
       <c r="E14" s="122"/>
       <c r="F14" s="126" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G14" s="126" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H14" s="147" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I14" s="126" t="s">
         <v>172</v>
@@ -7094,14 +7122,14 @@
         <v>11</v>
       </c>
       <c r="E15" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="F15" s="147" t="s">
         <v>187</v>
-      </c>
-      <c r="F15" s="147" t="s">
-        <v>188</v>
       </c>
       <c r="G15" s="147"/>
       <c r="H15" s="147" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I15" s="147"/>
       <c r="J15" s="148"/>
@@ -7126,14 +7154,14 @@
         <v>12</v>
       </c>
       <c r="E16" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="F16" s="147" t="s">
         <v>190</v>
-      </c>
-      <c r="F16" s="147" t="s">
-        <v>191</v>
       </c>
       <c r="G16" s="147"/>
       <c r="H16" s="147" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I16" s="147"/>
       <c r="J16" s="148"/>
@@ -7667,27 +7695,27 @@
       <c r="A5" s="98">
         <v>1</v>
       </c>
-      <c r="B5" s="237">
+      <c r="B5" s="226">
         <v>92</v>
       </c>
-      <c r="C5" s="240">
+      <c r="C5" s="161">
         <v>1</v>
       </c>
       <c r="D5" s="138" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E5" s="138" t="s">
         <v>156</v>
       </c>
       <c r="F5" s="99"/>
       <c r="G5" s="100"/>
-      <c r="H5" s="218" t="s">
-        <v>188</v>
-      </c>
-      <c r="I5" s="218" t="s">
+      <c r="H5" s="223" t="s">
+        <v>187</v>
+      </c>
+      <c r="I5" s="223" t="s">
         <v>157</v>
       </c>
-      <c r="J5" s="237" t="s">
+      <c r="J5" s="226" t="s">
         <v>158</v>
       </c>
       <c r="K5" s="99"/>
@@ -7696,42 +7724,42 @@
       <c r="A6" s="123">
         <v>2</v>
       </c>
-      <c r="B6" s="238"/>
+      <c r="B6" s="227"/>
       <c r="C6" s="159">
         <v>1</v>
       </c>
       <c r="D6" s="126" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E6" s="138" t="s">
         <v>156</v>
       </c>
       <c r="F6" s="124"/>
       <c r="G6" s="127"/>
-      <c r="H6" s="219"/>
-      <c r="I6" s="219"/>
-      <c r="J6" s="238"/>
+      <c r="H6" s="224"/>
+      <c r="I6" s="224"/>
+      <c r="J6" s="227"/>
       <c r="K6" s="126"/>
     </row>
     <row r="7" spans="1:17" s="25" customFormat="1" ht="22.5">
       <c r="A7" s="98">
         <v>3</v>
       </c>
-      <c r="B7" s="239"/>
+      <c r="B7" s="228"/>
       <c r="C7" s="159">
         <v>1</v>
       </c>
       <c r="D7" s="126" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E7" s="138" t="s">
         <v>156</v>
       </c>
       <c r="F7" s="99"/>
       <c r="G7" s="100"/>
-      <c r="H7" s="220"/>
-      <c r="I7" s="220"/>
-      <c r="J7" s="239"/>
+      <c r="H7" s="225"/>
+      <c r="I7" s="225"/>
+      <c r="J7" s="228"/>
       <c r="K7" s="138"/>
     </row>
     <row r="8" spans="1:17" s="33" customFormat="1" ht="11.25">
@@ -7819,7 +7847,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="226" t="s">
+      <c r="A1" s="234" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="96"/>
@@ -7855,7 +7883,7 @@
       <c r="L1" s="47"/>
     </row>
     <row r="2" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="227"/>
+      <c r="A2" s="235"/>
       <c r="B2" s="97"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
@@ -7904,15 +7932,15 @@
       <c r="E4" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="182" t="s">
+      <c r="F4" s="187" t="s">
         <v>127</v>
       </c>
-      <c r="G4" s="182"/>
-      <c r="H4" s="182" t="s">
+      <c r="G4" s="187"/>
+      <c r="H4" s="187" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="182"/>
-      <c r="J4" s="182"/>
+      <c r="I4" s="187"/>
+      <c r="J4" s="187"/>
     </row>
     <row r="5" spans="1:12" s="33" customFormat="1" ht="11.25">
       <c r="A5" s="32">
@@ -7922,11 +7950,11 @@
       <c r="C5" s="114"/>
       <c r="D5" s="114"/>
       <c r="E5" s="31"/>
-      <c r="F5" s="221"/>
-      <c r="G5" s="222"/>
-      <c r="H5" s="223"/>
-      <c r="I5" s="224"/>
-      <c r="J5" s="225"/>
+      <c r="F5" s="229"/>
+      <c r="G5" s="230"/>
+      <c r="H5" s="231"/>
+      <c r="I5" s="232"/>
+      <c r="J5" s="233"/>
     </row>
     <row r="6" spans="1:12" s="33" customFormat="1" ht="11.25">
       <c r="A6" s="32">
@@ -7936,11 +7964,11 @@
       <c r="C6" s="114"/>
       <c r="D6" s="114"/>
       <c r="E6" s="31"/>
-      <c r="F6" s="221"/>
-      <c r="G6" s="222"/>
-      <c r="H6" s="223"/>
-      <c r="I6" s="224"/>
-      <c r="J6" s="225"/>
+      <c r="F6" s="229"/>
+      <c r="G6" s="230"/>
+      <c r="H6" s="231"/>
+      <c r="I6" s="232"/>
+      <c r="J6" s="233"/>
     </row>
     <row r="7" spans="1:12" s="33" customFormat="1" ht="11.25">
       <c r="A7" s="32">
@@ -7950,11 +7978,11 @@
       <c r="C7" s="114"/>
       <c r="D7" s="114"/>
       <c r="E7" s="31"/>
-      <c r="F7" s="221"/>
-      <c r="G7" s="222"/>
-      <c r="H7" s="223"/>
-      <c r="I7" s="224"/>
-      <c r="J7" s="225"/>
+      <c r="F7" s="229"/>
+      <c r="G7" s="230"/>
+      <c r="H7" s="231"/>
+      <c r="I7" s="232"/>
+      <c r="J7" s="233"/>
     </row>
     <row r="8" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="32">
@@ -7964,11 +7992,11 @@
       <c r="C8" s="32"/>
       <c r="D8" s="32"/>
       <c r="E8" s="31"/>
-      <c r="F8" s="221"/>
-      <c r="G8" s="222"/>
-      <c r="H8" s="223"/>
-      <c r="I8" s="224"/>
-      <c r="J8" s="225"/>
+      <c r="F8" s="229"/>
+      <c r="G8" s="230"/>
+      <c r="H8" s="231"/>
+      <c r="I8" s="232"/>
+      <c r="J8" s="233"/>
     </row>
     <row r="9" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="32">
@@ -7978,11 +8006,11 @@
       <c r="C9" s="32"/>
       <c r="D9" s="32"/>
       <c r="E9" s="31"/>
-      <c r="F9" s="221"/>
-      <c r="G9" s="222"/>
-      <c r="H9" s="223"/>
-      <c r="I9" s="224"/>
-      <c r="J9" s="225"/>
+      <c r="F9" s="229"/>
+      <c r="G9" s="230"/>
+      <c r="H9" s="231"/>
+      <c r="I9" s="232"/>
+      <c r="J9" s="233"/>
     </row>
     <row r="10" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="32">
@@ -7992,11 +8020,11 @@
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
       <c r="E10" s="31"/>
-      <c r="F10" s="221"/>
-      <c r="G10" s="222"/>
-      <c r="H10" s="223"/>
-      <c r="I10" s="224"/>
-      <c r="J10" s="225"/>
+      <c r="F10" s="229"/>
+      <c r="G10" s="230"/>
+      <c r="H10" s="231"/>
+      <c r="I10" s="232"/>
+      <c r="J10" s="233"/>
     </row>
     <row r="11" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="32">
@@ -8006,11 +8034,11 @@
       <c r="C11" s="32"/>
       <c r="D11" s="32"/>
       <c r="E11" s="31"/>
-      <c r="F11" s="221"/>
-      <c r="G11" s="222"/>
-      <c r="H11" s="223"/>
-      <c r="I11" s="224"/>
-      <c r="J11" s="225"/>
+      <c r="F11" s="229"/>
+      <c r="G11" s="230"/>
+      <c r="H11" s="231"/>
+      <c r="I11" s="232"/>
+      <c r="J11" s="233"/>
     </row>
     <row r="12" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="32">
@@ -8020,11 +8048,11 @@
       <c r="C12" s="32"/>
       <c r="D12" s="32"/>
       <c r="E12" s="31"/>
-      <c r="F12" s="221"/>
-      <c r="G12" s="222"/>
-      <c r="H12" s="223"/>
-      <c r="I12" s="224"/>
-      <c r="J12" s="225"/>
+      <c r="F12" s="229"/>
+      <c r="G12" s="230"/>
+      <c r="H12" s="231"/>
+      <c r="I12" s="232"/>
+      <c r="J12" s="233"/>
     </row>
     <row r="13" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="32">
@@ -8034,11 +8062,11 @@
       <c r="C13" s="32"/>
       <c r="D13" s="32"/>
       <c r="E13" s="31"/>
-      <c r="F13" s="221"/>
-      <c r="G13" s="222"/>
-      <c r="H13" s="223"/>
-      <c r="I13" s="224"/>
-      <c r="J13" s="225"/>
+      <c r="F13" s="229"/>
+      <c r="G13" s="230"/>
+      <c r="H13" s="231"/>
+      <c r="I13" s="232"/>
+      <c r="J13" s="233"/>
     </row>
     <row r="14" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="32">
@@ -8048,11 +8076,11 @@
       <c r="C14" s="32"/>
       <c r="D14" s="32"/>
       <c r="E14" s="31"/>
-      <c r="F14" s="221"/>
-      <c r="G14" s="222"/>
-      <c r="H14" s="223"/>
-      <c r="I14" s="224"/>
-      <c r="J14" s="225"/>
+      <c r="F14" s="229"/>
+      <c r="G14" s="230"/>
+      <c r="H14" s="231"/>
+      <c r="I14" s="232"/>
+      <c r="J14" s="233"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -8097,8 +8125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R1048244"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="93" zoomScaleSheetLayoutView="93" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:K5"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -8118,28 +8146,28 @@
     <col min="13" max="13" width="23.28515625" style="23" customWidth="1"/>
     <col min="14" max="14" width="9.85546875" style="23" customWidth="1"/>
     <col min="15" max="15" width="5.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="39.85546875" style="23" customWidth="1"/>
+    <col min="16" max="16" width="22.140625" style="23" customWidth="1"/>
     <col min="17" max="18" width="12.7109375" style="23" customWidth="1"/>
     <col min="19" max="19" width="12.7109375" style="22" customWidth="1"/>
     <col min="20" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="182" t="s">
+      <c r="A1" s="187" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="182"/>
-      <c r="C1" s="182"/>
-      <c r="D1" s="182"/>
-      <c r="E1" s="182"/>
+      <c r="B1" s="187"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
       <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="228" t="str">
+      <c r="G1" s="236" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="H1" s="228"/>
+      <c r="H1" s="236"/>
       <c r="I1" s="26" t="s">
         <v>3</v>
       </c>
@@ -8157,29 +8185,28 @@
       <c r="M1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="229" t="str">
-        <f>'Update History'!J1</f>
-        <v>Tấn Đạt</v>
-      </c>
-      <c r="O1" s="230"/>
-      <c r="P1" s="231"/>
+      <c r="N1" s="242" t="s">
+        <v>160</v>
+      </c>
+      <c r="O1" s="243"/>
+      <c r="P1" s="244"/>
       <c r="Q1" s="47"/>
       <c r="R1" s="47"/>
     </row>
     <row r="2" spans="1:18" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="182"/>
-      <c r="B2" s="182"/>
-      <c r="C2" s="182"/>
-      <c r="D2" s="182"/>
-      <c r="E2" s="182"/>
+      <c r="A2" s="187"/>
+      <c r="B2" s="187"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
       <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="228" t="str">
+      <c r="G2" s="236" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT-CRM</v>
       </c>
-      <c r="H2" s="228"/>
+      <c r="H2" s="236"/>
       <c r="I2" s="26" t="s">
         <v>49</v>
       </c>
@@ -8197,12 +8224,12 @@
       <c r="M2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="229" t="str">
+      <c r="N2" s="242" t="str">
         <f>'Update History'!J2</f>
         <v>09/02/2018</v>
       </c>
-      <c r="O2" s="230"/>
-      <c r="P2" s="231"/>
+      <c r="O2" s="243"/>
+      <c r="P2" s="244"/>
       <c r="Q2" s="47"/>
       <c r="R2" s="47"/>
     </row>
@@ -8228,12 +8255,12 @@
       <c r="G4" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="H4" s="200" t="s">
+      <c r="H4" s="205" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="202"/>
-      <c r="J4" s="202"/>
-      <c r="K4" s="201"/>
+      <c r="I4" s="207"/>
+      <c r="J4" s="207"/>
+      <c r="K4" s="206"/>
       <c r="L4" s="36" t="s">
         <v>56</v>
       </c>
@@ -8259,7 +8286,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="126" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E5" s="106" t="s">
         <v>155</v>
@@ -8268,25 +8295,29 @@
         <v>55</v>
       </c>
       <c r="G5" s="105"/>
-      <c r="H5" s="194" t="s">
+      <c r="H5" s="199" t="s">
+        <v>194</v>
+      </c>
+      <c r="I5" s="240"/>
+      <c r="J5" s="240"/>
+      <c r="K5" s="241"/>
+      <c r="L5" s="145" t="s">
+        <v>195</v>
+      </c>
+      <c r="M5" s="145" t="s">
         <v>196</v>
       </c>
-      <c r="I5" s="241"/>
-      <c r="J5" s="241"/>
-      <c r="K5" s="242"/>
-      <c r="L5" s="145" t="s">
-        <v>194</v>
-      </c>
-      <c r="M5" s="145" t="s">
-        <v>195</v>
-      </c>
-      <c r="N5" s="236"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="236"/>
+      <c r="N5" s="160" t="s">
+        <v>187</v>
+      </c>
+      <c r="O5" s="107" t="s">
+        <v>157</v>
+      </c>
+      <c r="P5" s="160"/>
       <c r="Q5" s="47"/>
       <c r="R5" s="47"/>
     </row>
-    <row r="6" spans="1:18" s="33" customFormat="1" ht="11.25">
+    <row r="6" spans="1:18" s="33" customFormat="1" ht="105" customHeight="1">
       <c r="A6" s="146"/>
       <c r="B6" s="57">
         <v>92</v>
@@ -8294,19 +8325,35 @@
       <c r="C6" s="159">
         <v>1</v>
       </c>
-      <c r="D6" s="126"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
+      <c r="D6" s="126" t="s">
+        <v>198</v>
+      </c>
+      <c r="E6" s="106" t="s">
+        <v>199</v>
+      </c>
+      <c r="F6" s="106" t="s">
+        <v>55</v>
+      </c>
       <c r="G6" s="105"/>
-      <c r="H6" s="189"/>
-      <c r="I6" s="190"/>
-      <c r="J6" s="190"/>
-      <c r="K6" s="191"/>
-      <c r="L6" s="243"/>
-      <c r="M6" s="243"/>
-      <c r="N6" s="236"/>
-      <c r="O6" s="107"/>
-      <c r="P6" s="244"/>
+      <c r="H6" s="194" t="s">
+        <v>197</v>
+      </c>
+      <c r="I6" s="195"/>
+      <c r="J6" s="195"/>
+      <c r="K6" s="196"/>
+      <c r="L6" s="162" t="s">
+        <v>200</v>
+      </c>
+      <c r="M6" s="162" t="s">
+        <v>201</v>
+      </c>
+      <c r="N6" s="160" t="s">
+        <v>202</v>
+      </c>
+      <c r="O6" s="107" t="s">
+        <v>203</v>
+      </c>
+      <c r="P6" s="163"/>
       <c r="Q6" s="56"/>
       <c r="R6" s="56"/>
     </row>
@@ -8322,15 +8369,15 @@
       <c r="E7" s="106"/>
       <c r="F7" s="106"/>
       <c r="G7" s="105"/>
-      <c r="H7" s="189"/>
-      <c r="I7" s="190"/>
-      <c r="J7" s="190"/>
-      <c r="K7" s="191"/>
-      <c r="L7" s="243"/>
-      <c r="M7" s="243"/>
-      <c r="N7" s="236"/>
+      <c r="H7" s="194"/>
+      <c r="I7" s="195"/>
+      <c r="J7" s="195"/>
+      <c r="K7" s="196"/>
+      <c r="L7" s="162"/>
+      <c r="M7" s="162"/>
+      <c r="N7" s="160"/>
       <c r="O7" s="107"/>
-      <c r="P7" s="244"/>
+      <c r="P7" s="163"/>
       <c r="Q7" s="56"/>
       <c r="R7" s="56"/>
     </row>
@@ -8346,15 +8393,15 @@
       <c r="E8" s="106"/>
       <c r="F8" s="106"/>
       <c r="G8" s="105"/>
-      <c r="H8" s="189"/>
-      <c r="I8" s="190"/>
-      <c r="J8" s="190"/>
-      <c r="K8" s="191"/>
-      <c r="L8" s="243"/>
-      <c r="M8" s="243"/>
-      <c r="N8" s="236"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="195"/>
+      <c r="J8" s="195"/>
+      <c r="K8" s="196"/>
+      <c r="L8" s="162"/>
+      <c r="M8" s="162"/>
+      <c r="N8" s="160"/>
       <c r="O8" s="107"/>
-      <c r="P8" s="244"/>
+      <c r="P8" s="163"/>
       <c r="Q8" s="56"/>
       <c r="R8" s="56"/>
     </row>
@@ -8370,15 +8417,15 @@
       <c r="E9" s="106"/>
       <c r="F9" s="106"/>
       <c r="G9" s="105"/>
-      <c r="H9" s="189"/>
-      <c r="I9" s="190"/>
-      <c r="J9" s="190"/>
-      <c r="K9" s="191"/>
-      <c r="L9" s="245"/>
-      <c r="M9" s="245"/>
-      <c r="N9" s="236"/>
+      <c r="H9" s="194"/>
+      <c r="I9" s="195"/>
+      <c r="J9" s="195"/>
+      <c r="K9" s="196"/>
+      <c r="L9" s="164"/>
+      <c r="M9" s="164"/>
+      <c r="N9" s="160"/>
       <c r="O9" s="107"/>
-      <c r="P9" s="244"/>
+      <c r="P9" s="163"/>
       <c r="Q9" s="56"/>
       <c r="R9" s="56"/>
     </row>
@@ -8394,15 +8441,15 @@
       <c r="E10" s="106"/>
       <c r="F10" s="106"/>
       <c r="G10" s="105"/>
-      <c r="H10" s="189"/>
-      <c r="I10" s="190"/>
-      <c r="J10" s="190"/>
-      <c r="K10" s="191"/>
-      <c r="L10" s="243"/>
-      <c r="M10" s="243"/>
-      <c r="N10" s="236"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="195"/>
+      <c r="J10" s="195"/>
+      <c r="K10" s="196"/>
+      <c r="L10" s="162"/>
+      <c r="M10" s="162"/>
+      <c r="N10" s="160"/>
       <c r="O10" s="107"/>
-      <c r="P10" s="244"/>
+      <c r="P10" s="163"/>
       <c r="Q10" s="56"/>
       <c r="R10" s="56"/>
     </row>
@@ -8414,15 +8461,15 @@
       <c r="E11" s="106"/>
       <c r="F11" s="106"/>
       <c r="G11" s="105"/>
-      <c r="H11" s="189"/>
-      <c r="I11" s="190"/>
-      <c r="J11" s="190"/>
-      <c r="K11" s="191"/>
-      <c r="L11" s="243"/>
-      <c r="M11" s="243"/>
-      <c r="N11" s="236"/>
+      <c r="H11" s="194"/>
+      <c r="I11" s="195"/>
+      <c r="J11" s="195"/>
+      <c r="K11" s="196"/>
+      <c r="L11" s="162"/>
+      <c r="M11" s="162"/>
+      <c r="N11" s="160"/>
       <c r="O11" s="107"/>
-      <c r="P11" s="244"/>
+      <c r="P11" s="163"/>
       <c r="Q11" s="56"/>
       <c r="R11" s="56"/>
     </row>
@@ -8434,15 +8481,15 @@
       <c r="E12" s="106"/>
       <c r="F12" s="106"/>
       <c r="G12" s="105"/>
-      <c r="H12" s="189"/>
-      <c r="I12" s="190"/>
-      <c r="J12" s="190"/>
-      <c r="K12" s="191"/>
-      <c r="L12" s="245"/>
-      <c r="M12" s="245"/>
-      <c r="N12" s="236"/>
+      <c r="H12" s="194"/>
+      <c r="I12" s="195"/>
+      <c r="J12" s="195"/>
+      <c r="K12" s="196"/>
+      <c r="L12" s="164"/>
+      <c r="M12" s="164"/>
+      <c r="N12" s="160"/>
       <c r="O12" s="107"/>
-      <c r="P12" s="244"/>
+      <c r="P12" s="163"/>
       <c r="Q12" s="56"/>
       <c r="R12" s="56"/>
     </row>
@@ -8454,15 +8501,15 @@
       <c r="E13" s="106"/>
       <c r="F13" s="106"/>
       <c r="G13" s="105"/>
-      <c r="H13" s="189"/>
-      <c r="I13" s="190"/>
-      <c r="J13" s="190"/>
-      <c r="K13" s="191"/>
-      <c r="L13" s="243"/>
-      <c r="M13" s="243"/>
-      <c r="N13" s="236"/>
+      <c r="H13" s="194"/>
+      <c r="I13" s="195"/>
+      <c r="J13" s="195"/>
+      <c r="K13" s="196"/>
+      <c r="L13" s="162"/>
+      <c r="M13" s="162"/>
+      <c r="N13" s="160"/>
       <c r="O13" s="107"/>
-      <c r="P13" s="244"/>
+      <c r="P13" s="163"/>
       <c r="Q13" s="56"/>
       <c r="R13" s="56"/>
     </row>
@@ -8474,15 +8521,15 @@
       <c r="E14" s="106"/>
       <c r="F14" s="106"/>
       <c r="G14" s="105"/>
-      <c r="H14" s="189"/>
-      <c r="I14" s="190"/>
-      <c r="J14" s="190"/>
-      <c r="K14" s="191"/>
-      <c r="L14" s="245"/>
-      <c r="M14" s="245"/>
-      <c r="N14" s="236"/>
+      <c r="H14" s="194"/>
+      <c r="I14" s="195"/>
+      <c r="J14" s="195"/>
+      <c r="K14" s="196"/>
+      <c r="L14" s="164"/>
+      <c r="M14" s="164"/>
+      <c r="N14" s="160"/>
       <c r="O14" s="107"/>
-      <c r="P14" s="244"/>
+      <c r="P14" s="163"/>
       <c r="Q14" s="56"/>
       <c r="R14" s="56"/>
     </row>
@@ -8494,15 +8541,15 @@
       <c r="E15" s="106"/>
       <c r="F15" s="106"/>
       <c r="G15" s="105"/>
-      <c r="H15" s="246"/>
-      <c r="I15" s="247"/>
-      <c r="J15" s="247"/>
-      <c r="K15" s="248"/>
-      <c r="L15" s="245"/>
-      <c r="M15" s="245"/>
-      <c r="N15" s="244"/>
+      <c r="H15" s="237"/>
+      <c r="I15" s="238"/>
+      <c r="J15" s="238"/>
+      <c r="K15" s="239"/>
+      <c r="L15" s="164"/>
+      <c r="M15" s="164"/>
+      <c r="N15" s="163"/>
       <c r="O15" s="113"/>
-      <c r="P15" s="244"/>
+      <c r="P15" s="163"/>
       <c r="Q15" s="56"/>
       <c r="R15" s="56"/>
     </row>
@@ -8514,15 +8561,15 @@
       <c r="E16" s="106"/>
       <c r="F16" s="106"/>
       <c r="G16" s="105"/>
-      <c r="H16" s="189"/>
-      <c r="I16" s="190"/>
-      <c r="J16" s="190"/>
-      <c r="K16" s="191"/>
-      <c r="L16" s="243"/>
-      <c r="M16" s="243"/>
-      <c r="N16" s="236"/>
+      <c r="H16" s="194"/>
+      <c r="I16" s="195"/>
+      <c r="J16" s="195"/>
+      <c r="K16" s="196"/>
+      <c r="L16" s="162"/>
+      <c r="M16" s="162"/>
+      <c r="N16" s="160"/>
       <c r="O16" s="107"/>
-      <c r="P16" s="236"/>
+      <c r="P16" s="160"/>
       <c r="Q16" s="47"/>
       <c r="R16" s="47"/>
     </row>
@@ -8534,15 +8581,15 @@
       <c r="E17" s="106"/>
       <c r="F17" s="106"/>
       <c r="G17" s="105"/>
-      <c r="H17" s="194"/>
-      <c r="I17" s="241"/>
-      <c r="J17" s="241"/>
-      <c r="K17" s="242"/>
+      <c r="H17" s="199"/>
+      <c r="I17" s="240"/>
+      <c r="J17" s="240"/>
+      <c r="K17" s="241"/>
       <c r="L17" s="145"/>
       <c r="M17" s="145"/>
-      <c r="N17" s="236"/>
+      <c r="N17" s="160"/>
       <c r="O17" s="107"/>
-      <c r="P17" s="236"/>
+      <c r="P17" s="160"/>
       <c r="Q17" s="125"/>
       <c r="R17" s="125"/>
     </row>
@@ -8554,15 +8601,15 @@
       <c r="E18" s="106"/>
       <c r="F18" s="106"/>
       <c r="G18" s="105"/>
-      <c r="H18" s="194"/>
-      <c r="I18" s="241"/>
-      <c r="J18" s="241"/>
-      <c r="K18" s="242"/>
+      <c r="H18" s="199"/>
+      <c r="I18" s="240"/>
+      <c r="J18" s="240"/>
+      <c r="K18" s="241"/>
       <c r="L18" s="145"/>
       <c r="M18" s="145"/>
-      <c r="N18" s="236"/>
+      <c r="N18" s="160"/>
       <c r="O18" s="107"/>
-      <c r="P18" s="236"/>
+      <c r="P18" s="160"/>
       <c r="Q18" s="125"/>
       <c r="R18" s="125"/>
     </row>
@@ -8574,15 +8621,15 @@
       <c r="E19" s="106"/>
       <c r="F19" s="106"/>
       <c r="G19" s="105"/>
-      <c r="H19" s="194"/>
-      <c r="I19" s="241"/>
-      <c r="J19" s="241"/>
-      <c r="K19" s="242"/>
+      <c r="H19" s="199"/>
+      <c r="I19" s="240"/>
+      <c r="J19" s="240"/>
+      <c r="K19" s="241"/>
       <c r="L19" s="145"/>
       <c r="M19" s="145"/>
-      <c r="N19" s="236"/>
+      <c r="N19" s="160"/>
       <c r="O19" s="107"/>
-      <c r="P19" s="236"/>
+      <c r="P19" s="160"/>
       <c r="Q19" s="132"/>
       <c r="R19" s="132"/>
     </row>
@@ -8594,10 +8641,10 @@
       <c r="E20" s="106"/>
       <c r="F20" s="106"/>
       <c r="G20" s="105"/>
-      <c r="H20" s="189"/>
-      <c r="I20" s="190"/>
-      <c r="J20" s="190"/>
-      <c r="K20" s="191"/>
+      <c r="H20" s="194"/>
+      <c r="I20" s="195"/>
+      <c r="J20" s="195"/>
+      <c r="K20" s="196"/>
       <c r="L20" s="108"/>
       <c r="M20" s="108"/>
       <c r="N20" s="65"/>
@@ -8679,10 +8726,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="12" customHeight="1">
-      <c r="A1" s="182" t="s">
+      <c r="A1" s="187" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="182"/>
+      <c r="B1" s="187"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -8713,8 +8760,8 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="12" customHeight="1">
-      <c r="A2" s="182"/>
-      <c r="B2" s="182"/>
+      <c r="A2" s="187"/>
+      <c r="B2" s="187"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
@@ -10223,10 +10270,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="182" t="s">
+      <c r="A1" s="187" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="182"/>
+      <c r="B1" s="187"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -10257,8 +10304,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="182"/>
-      <c r="B2" s="182"/>
+      <c r="A2" s="187"/>
+      <c r="B2" s="187"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>

--- a/2018/CRM/03_DetailDesign/CRMF2061_Đánh giá hỗ trợ khách hàng.xlsx
+++ b/2018/CRM/03_DetailDesign/CRMF2061_Đánh giá hỗ trợ khách hàng.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -45,7 +45,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Coverpage!$A$1:$J$31</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Data Definition'!$A$1:$J$14</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'Data Input'!$A$1:$P$20</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">'Form Func Spec'!$A$1:$T$64</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'Form Func Spec'!$A$1:$T$86</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'Func Spec'!$A$1:$J$21</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">Help!$A$1:$K$62</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Input Check'!$A$1:$J$9</definedName>
@@ -1363,7 +1363,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="208">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2089,6 +2089,18 @@
   </si>
   <si>
     <t>Load</t>
+  </si>
+  <si>
+    <t>SQL001</t>
+  </si>
+  <si>
+    <t>SQL002</t>
+  </si>
+  <si>
+    <t>Thực thi SQL002 load form</t>
+  </si>
+  <si>
+    <t>Customizeindex: 92</t>
   </si>
 </sst>
 </file>
@@ -3030,9 +3042,27 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3078,23 +3108,41 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3114,42 +3162,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3222,25 +3234,34 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3260,15 +3281,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3418,6 +3430,2800 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>197689</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>62901</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381244</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76838</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Group 1"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="853656" y="3729127"/>
+          <a:ext cx="5808696" cy="930494"/>
+          <a:chOff x="438150" y="3962400"/>
+          <a:chExt cx="5701163" cy="928300"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="Rectangle 3"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="507779" y="4415700"/>
+            <a:ext cx="1243732" cy="394773"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="700">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Click</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="700" baseline="0">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="vi-VN" sz="700">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>btn</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="700">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>SendEmail</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="700" baseline="0">
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="700" baseline="0">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Form CRMF2082</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="700">
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="5" idx="3"/>
+            <a:endCxn id="25" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="1751511" y="4612194"/>
+            <a:ext cx="706304" cy="892"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="Rectangle 3"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5164103" y="4397066"/>
+            <a:ext cx="975210" cy="422254"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="700">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Load Form</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="700" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> CRMF2061</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="700">
+              <a:effectLst/>
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="TextBox 10"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="438150" y="3962400"/>
+            <a:ext cx="4498168" cy="239182"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="700" b="1">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Luồng 1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="700">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>:   Load</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="700" baseline="0">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> form</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="700">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="13" name="Straight Arrow Connector 12"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="20" idx="4"/>
+            <a:endCxn id="10" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="4724428" y="4608193"/>
+            <a:ext cx="439675" cy="4265"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="Flowchart: Direct Access Storage 19"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3507688" y="4334215"/>
+            <a:ext cx="1216740" cy="556485"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartMagneticDrum">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="700">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Thực</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="700" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> thi</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="700">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="700">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>@SQL002</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>682924</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>125805</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>290651</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>44634</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Rectangle 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2516037" y="4097550"/>
+          <a:ext cx="784873" cy="529867"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="700">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Truyền biến @RequestID và</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="700" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="700">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Gọi</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="700" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> tới màn hình CRMF2061</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="700">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>290651</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>85220</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>970831</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>103457</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="25" idx="3"/>
+          <a:endCxn id="20" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3300910" y="4362484"/>
+          <a:ext cx="680180" cy="18237"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152759</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>62901</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>138803</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>58858</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="39" name="Group 38"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="808726" y="4951203"/>
+          <a:ext cx="7300525" cy="1829070"/>
+          <a:chOff x="438150" y="3962400"/>
+          <a:chExt cx="7165382" cy="1824757"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="42" name="Rectangle 3"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="507779" y="4415700"/>
+            <a:ext cx="1243732" cy="394773"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="700">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Click</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="700" baseline="0">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="vi-VN" sz="700">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>btn</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="700">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Send</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="700" baseline="0">
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="700" baseline="0">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Form CRMF2061</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="700">
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="43" name="Straight Arrow Connector 42"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="42" idx="3"/>
+            <a:endCxn id="51" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="1751511" y="4608601"/>
+            <a:ext cx="132043" cy="4486"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="48" name="TextBox 47"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="438150" y="3962400"/>
+            <a:ext cx="4498168" cy="239182"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="700" b="1">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Luồng 2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="700">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>:   Sự kiện click btnSend</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="50" name="Straight Arrow Connector 49"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="63" idx="3"/>
+            <a:endCxn id="58" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="6199834" y="4608453"/>
+            <a:ext cx="633356" cy="3736"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="51" name="Flowchart: Decision 50"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1883554" y="4299063"/>
+            <a:ext cx="1226669" cy="619075"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartDecision">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="700">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Check input require</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="52" name="Rectangle 51"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1952607" y="5258539"/>
+            <a:ext cx="1096164" cy="528618"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="700">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Form </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="700" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>CRMF2061</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="700">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Text Messege </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="700" strike="sngStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="700" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>00ML000039 </a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="53" name="Straight Arrow Connector 52"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="51" idx="2"/>
+            <a:endCxn id="52" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2496889" y="4918138"/>
+            <a:ext cx="3800" cy="340401"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="54" name="Straight Arrow Connector 53"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="51" idx="3"/>
+            <a:endCxn id="57" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3110223" y="4608601"/>
+            <a:ext cx="397466" cy="3857"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="55" name="TextBox 54"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2527590" y="4982704"/>
+            <a:ext cx="350981" cy="118923"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="700">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Có</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="56" name="TextBox 55"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2913388" y="4743755"/>
+            <a:ext cx="466155" cy="175549"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="700">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>không</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="57" name="Flowchart: Direct Access Storage 56"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3507689" y="4334215"/>
+            <a:ext cx="1203121" cy="556485"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartMagneticDrum">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="700">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Insert</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="700">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>@SQL001</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="58" name="Rectangle 57"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6833189" y="4344144"/>
+            <a:ext cx="770343" cy="528618"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="700" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Đóng Form CRMF2061</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1392806</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>143773</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>397970</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>62603</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="Rectangle 62"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5562240" y="5337594"/>
+          <a:ext cx="1116838" cy="529867"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="700">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Form </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="700" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>CRMF2061</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="700">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Text Messege </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="700" strike="sngStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="700" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>CRMFML000018</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>992537</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>103188</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1392806</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>103457</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="Straight Arrow Connector 64"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="57" idx="4"/>
+          <a:endCxn id="63" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5161971" y="5602528"/>
+          <a:ext cx="400269" cy="269"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152760</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>17972</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>758829</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>13929</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="81" name="Group 80"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="808727" y="6892147"/>
+          <a:ext cx="8765220" cy="1829070"/>
+          <a:chOff x="438150" y="3962400"/>
+          <a:chExt cx="8602963" cy="1824757"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="82" name="Rectangle 3"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="507779" y="4415700"/>
+            <a:ext cx="1243732" cy="394773"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="700">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Click</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="700" baseline="0">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="vi-VN" sz="700">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>btn</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="700">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Cancel</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="700" baseline="0">
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="700" baseline="0">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Form CRMF2061</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="700">
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="83" name="Straight Arrow Connector 82"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="82" idx="3"/>
+            <a:endCxn id="86" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="1751511" y="4608601"/>
+            <a:ext cx="132043" cy="4486"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="84" name="TextBox 83"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="438150" y="3962400"/>
+            <a:ext cx="4498168" cy="239182"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="700" b="1">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Luồng 3</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="700">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>:   Sự kiện click btnCancel</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="85" name="Straight Arrow Connector 84"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="94" idx="3"/>
+            <a:endCxn id="93" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7963734" y="4603222"/>
+            <a:ext cx="307036" cy="23160"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="86" name="Flowchart: Decision 85"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1883554" y="4299063"/>
+            <a:ext cx="1226669" cy="619075"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartDecision">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="700">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Popup</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="700">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Messege  </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="700">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>00ML000016</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="87" name="Rectangle 86"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1952607" y="5258539"/>
+            <a:ext cx="1096164" cy="528618"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="700">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Đóng</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="700" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="700">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Form </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="700" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>CRMF2061</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="88" name="Straight Arrow Connector 87"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="86" idx="2"/>
+            <a:endCxn id="87" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2496889" y="4918138"/>
+            <a:ext cx="3800" cy="340401"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="89" name="Straight Arrow Connector 88"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="86" idx="3"/>
+            <a:endCxn id="99" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="3110223" y="4603627"/>
+            <a:ext cx="450033" cy="4973"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="90" name="TextBox 89"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2527590" y="4982704"/>
+            <a:ext cx="547592" cy="145101"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="700">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Không</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="91" name="TextBox 90"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3142695" y="4689966"/>
+            <a:ext cx="466155" cy="175549"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="700">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Có</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="92" name="Flowchart: Direct Access Storage 91"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5262770" y="4325251"/>
+            <a:ext cx="1203121" cy="556485"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartMagneticDrum">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="700">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Insert</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="700">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>@SQL001</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="93" name="Rectangle 92"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8270770" y="4362073"/>
+            <a:ext cx="770343" cy="528618"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="700" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Đóng Form CRMF2061</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>233632</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>89857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>505800</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>8686</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="Rectangle 93"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7359410" y="7269550"/>
+          <a:ext cx="1116838" cy="529867"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="700">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Form </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="700" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>CRMF2061</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="700">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Text Messege </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="700" strike="sngStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="700" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>CRMFML000018</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>669047</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>49272</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>233632</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>49544</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="96" name="Straight Arrow Connector 95"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="92" idx="4"/>
+          <a:endCxn id="94" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6950155" y="7534484"/>
+          <a:ext cx="409255" cy="272"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>979459</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>44928</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1070089</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="Flowchart: Decision 98"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3989718" y="7224621"/>
+          <a:ext cx="1249805" cy="620538"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="700">
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Check input require</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1070089</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>49544</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1554908</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>49678</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="101" name="Straight Arrow Connector 100"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="99" idx="3"/>
+          <a:endCxn id="92" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5239523" y="7534756"/>
+          <a:ext cx="484819" cy="134"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1069314</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>44929</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1026977</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>116517</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="104" name="Rectangle 103"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4079573" y="8293938"/>
+          <a:ext cx="1116838" cy="529867"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="700">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Form </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="700" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>CRMF2061</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="700">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Text Messege </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="700" strike="sngStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="700" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>00ML000039 </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>445187</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>468558</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>44929</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="105" name="Straight Arrow Connector 104"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="99" idx="2"/>
+          <a:endCxn id="104" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4614621" y="7845159"/>
+          <a:ext cx="23371" cy="448779"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>593066</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1068013</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>23205</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="108" name="TextBox 107"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4762500" y="7943491"/>
+          <a:ext cx="474947" cy="175964"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="700">
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Có</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>979457</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>26957</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1537377</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>19642</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="TextBox 108"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5148891" y="7664929"/>
+          <a:ext cx="557920" cy="145444"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="700">
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Không</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4212,65 +7018,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="170"/>
-      <c r="B1" s="170"/>
-      <c r="C1" s="172" t="s">
+      <c r="A1" s="176"/>
+      <c r="B1" s="176"/>
+      <c r="C1" s="178" t="s">
         <v>151</v>
       </c>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="171" t="s">
+      <c r="D1" s="179"/>
+      <c r="E1" s="179"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="177" t="s">
         <v>147</v>
       </c>
-      <c r="H1" s="171"/>
-      <c r="I1" s="171" t="s">
+      <c r="H1" s="177"/>
+      <c r="I1" s="177" t="s">
         <v>148</v>
       </c>
-      <c r="J1" s="171"/>
+      <c r="J1" s="177"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="170"/>
-      <c r="B2" s="170"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="171" t="s">
+      <c r="A2" s="176"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="177" t="s">
         <v>149</v>
       </c>
-      <c r="H2" s="171"/>
-      <c r="I2" s="171"/>
-      <c r="J2" s="171"/>
+      <c r="H2" s="177"/>
+      <c r="I2" s="177"/>
+      <c r="J2" s="177"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="170"/>
-      <c r="B3" s="170"/>
-      <c r="C3" s="178"/>
-      <c r="D3" s="179"/>
-      <c r="E3" s="179"/>
-      <c r="F3" s="180"/>
-      <c r="G3" s="167" t="s">
+      <c r="A3" s="176"/>
+      <c r="B3" s="176"/>
+      <c r="C3" s="184"/>
+      <c r="D3" s="185"/>
+      <c r="E3" s="185"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="173" t="s">
         <v>150</v>
       </c>
-      <c r="H3" s="168"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="168"/>
+      <c r="H3" s="174"/>
+      <c r="I3" s="173"/>
+      <c r="J3" s="174"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="89"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="169"/>
-      <c r="B13" s="169"/>
-      <c r="C13" s="169"/>
-      <c r="D13" s="169"/>
-      <c r="E13" s="169"/>
-      <c r="F13" s="169"/>
-      <c r="G13" s="169"/>
-      <c r="H13" s="169"/>
-      <c r="I13" s="169"/>
-      <c r="J13" s="169"/>
+      <c r="A13" s="175"/>
+      <c r="B13" s="175"/>
+      <c r="C13" s="175"/>
+      <c r="D13" s="175"/>
+      <c r="E13" s="175"/>
+      <c r="F13" s="175"/>
+      <c r="G13" s="175"/>
+      <c r="H13" s="175"/>
+      <c r="I13" s="175"/>
+      <c r="J13" s="175"/>
       <c r="K13" s="90"/>
       <c r="L13" s="90"/>
       <c r="M13" s="90"/>
@@ -4281,56 +7087,56 @@
       <c r="R13" s="90"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="165"/>
-      <c r="C14" s="165"/>
-      <c r="D14" s="165"/>
-      <c r="E14" s="165"/>
-      <c r="F14" s="165"/>
-      <c r="G14" s="165"/>
-      <c r="H14" s="165"/>
-      <c r="I14" s="165"/>
-      <c r="J14" s="165"/>
-      <c r="K14" s="165"/>
-      <c r="L14" s="165"/>
-      <c r="M14" s="165"/>
-      <c r="N14" s="165"/>
-      <c r="O14" s="165"/>
-      <c r="P14" s="165"/>
-      <c r="Q14" s="165"/>
-      <c r="R14" s="165"/>
+      <c r="B14" s="169"/>
+      <c r="C14" s="169"/>
+      <c r="D14" s="169"/>
+      <c r="E14" s="169"/>
+      <c r="F14" s="169"/>
+      <c r="G14" s="169"/>
+      <c r="H14" s="169"/>
+      <c r="I14" s="169"/>
+      <c r="J14" s="169"/>
+      <c r="K14" s="169"/>
+      <c r="L14" s="169"/>
+      <c r="M14" s="169"/>
+      <c r="N14" s="169"/>
+      <c r="O14" s="169"/>
+      <c r="P14" s="169"/>
+      <c r="Q14" s="169"/>
+      <c r="R14" s="169"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="165"/>
-      <c r="C15" s="165"/>
-      <c r="D15" s="165"/>
-      <c r="E15" s="165"/>
-      <c r="F15" s="165"/>
-      <c r="G15" s="165"/>
-      <c r="H15" s="165"/>
-      <c r="I15" s="165"/>
-      <c r="J15" s="165"/>
-      <c r="K15" s="165"/>
-      <c r="L15" s="165"/>
-      <c r="M15" s="165"/>
-      <c r="N15" s="165"/>
-      <c r="O15" s="165"/>
-      <c r="P15" s="165"/>
-      <c r="Q15" s="165"/>
-      <c r="R15" s="165"/>
+      <c r="B15" s="169"/>
+      <c r="C15" s="169"/>
+      <c r="D15" s="169"/>
+      <c r="E15" s="169"/>
+      <c r="F15" s="169"/>
+      <c r="G15" s="169"/>
+      <c r="H15" s="169"/>
+      <c r="I15" s="169"/>
+      <c r="J15" s="169"/>
+      <c r="K15" s="169"/>
+      <c r="L15" s="169"/>
+      <c r="M15" s="169"/>
+      <c r="N15" s="169"/>
+      <c r="O15" s="169"/>
+      <c r="P15" s="169"/>
+      <c r="Q15" s="169"/>
+      <c r="R15" s="169"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="166" t="s">
+      <c r="A16" s="172" t="s">
         <v>151</v>
       </c>
-      <c r="B16" s="166"/>
-      <c r="C16" s="166"/>
-      <c r="D16" s="166"/>
-      <c r="E16" s="166"/>
-      <c r="F16" s="166"/>
-      <c r="G16" s="166"/>
-      <c r="H16" s="166"/>
-      <c r="I16" s="166"/>
-      <c r="J16" s="166"/>
+      <c r="B16" s="172"/>
+      <c r="C16" s="172"/>
+      <c r="D16" s="172"/>
+      <c r="E16" s="172"/>
+      <c r="F16" s="172"/>
+      <c r="G16" s="172"/>
+      <c r="H16" s="172"/>
+      <c r="I16" s="172"/>
+      <c r="J16" s="172"/>
       <c r="K16" s="91"/>
       <c r="L16" s="91"/>
       <c r="M16" s="91"/>
@@ -4341,384 +7147,384 @@
       <c r="R16" s="91"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="165"/>
-      <c r="C17" s="165"/>
-      <c r="D17" s="165"/>
-      <c r="E17" s="165"/>
-      <c r="F17" s="165"/>
-      <c r="G17" s="165"/>
-      <c r="H17" s="165"/>
-      <c r="I17" s="165"/>
-      <c r="J17" s="165"/>
-      <c r="K17" s="165"/>
-      <c r="L17" s="165"/>
-      <c r="M17" s="165"/>
-      <c r="N17" s="165"/>
-      <c r="O17" s="165"/>
-      <c r="P17" s="165"/>
-      <c r="Q17" s="165"/>
-      <c r="R17" s="165"/>
+      <c r="B17" s="169"/>
+      <c r="C17" s="169"/>
+      <c r="D17" s="169"/>
+      <c r="E17" s="169"/>
+      <c r="F17" s="169"/>
+      <c r="G17" s="169"/>
+      <c r="H17" s="169"/>
+      <c r="I17" s="169"/>
+      <c r="J17" s="169"/>
+      <c r="K17" s="169"/>
+      <c r="L17" s="169"/>
+      <c r="M17" s="169"/>
+      <c r="N17" s="169"/>
+      <c r="O17" s="169"/>
+      <c r="P17" s="169"/>
+      <c r="Q17" s="169"/>
+      <c r="R17" s="169"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="165"/>
-      <c r="C18" s="165"/>
-      <c r="D18" s="165"/>
-      <c r="E18" s="165"/>
-      <c r="F18" s="165"/>
-      <c r="G18" s="165"/>
-      <c r="H18" s="165"/>
-      <c r="I18" s="165"/>
-      <c r="J18" s="165"/>
-      <c r="K18" s="165"/>
-      <c r="L18" s="165"/>
-      <c r="M18" s="165"/>
-      <c r="N18" s="165"/>
-      <c r="O18" s="165"/>
-      <c r="P18" s="165"/>
-      <c r="Q18" s="165"/>
-      <c r="R18" s="165"/>
+      <c r="B18" s="169"/>
+      <c r="C18" s="169"/>
+      <c r="D18" s="169"/>
+      <c r="E18" s="169"/>
+      <c r="F18" s="169"/>
+      <c r="G18" s="169"/>
+      <c r="H18" s="169"/>
+      <c r="I18" s="169"/>
+      <c r="J18" s="169"/>
+      <c r="K18" s="169"/>
+      <c r="L18" s="169"/>
+      <c r="M18" s="169"/>
+      <c r="N18" s="169"/>
+      <c r="O18" s="169"/>
+      <c r="P18" s="169"/>
+      <c r="Q18" s="169"/>
+      <c r="R18" s="169"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="182"/>
-      <c r="C19" s="182"/>
-      <c r="D19" s="182"/>
-      <c r="E19" s="182"/>
-      <c r="F19" s="182"/>
-      <c r="G19" s="182"/>
-      <c r="H19" s="182"/>
-      <c r="I19" s="182"/>
-      <c r="J19" s="182"/>
-      <c r="K19" s="182"/>
-      <c r="L19" s="182"/>
-      <c r="M19" s="182"/>
-      <c r="N19" s="182"/>
-      <c r="O19" s="182"/>
-      <c r="P19" s="182"/>
-      <c r="Q19" s="182"/>
-      <c r="R19" s="182"/>
+      <c r="B19" s="171"/>
+      <c r="C19" s="171"/>
+      <c r="D19" s="171"/>
+      <c r="E19" s="171"/>
+      <c r="F19" s="171"/>
+      <c r="G19" s="171"/>
+      <c r="H19" s="171"/>
+      <c r="I19" s="171"/>
+      <c r="J19" s="171"/>
+      <c r="K19" s="171"/>
+      <c r="L19" s="171"/>
+      <c r="M19" s="171"/>
+      <c r="N19" s="171"/>
+      <c r="O19" s="171"/>
+      <c r="P19" s="171"/>
+      <c r="Q19" s="171"/>
+      <c r="R19" s="171"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="165"/>
-      <c r="C20" s="165"/>
-      <c r="D20" s="165"/>
-      <c r="E20" s="165"/>
-      <c r="F20" s="165"/>
-      <c r="G20" s="165"/>
-      <c r="H20" s="165"/>
-      <c r="I20" s="165"/>
-      <c r="J20" s="165"/>
-      <c r="K20" s="165"/>
-      <c r="L20" s="165"/>
-      <c r="M20" s="165"/>
-      <c r="N20" s="165"/>
-      <c r="O20" s="165"/>
-      <c r="P20" s="165"/>
-      <c r="Q20" s="165"/>
-      <c r="R20" s="165"/>
+      <c r="B20" s="169"/>
+      <c r="C20" s="169"/>
+      <c r="D20" s="169"/>
+      <c r="E20" s="169"/>
+      <c r="F20" s="169"/>
+      <c r="G20" s="169"/>
+      <c r="H20" s="169"/>
+      <c r="I20" s="169"/>
+      <c r="J20" s="169"/>
+      <c r="K20" s="169"/>
+      <c r="L20" s="169"/>
+      <c r="M20" s="169"/>
+      <c r="N20" s="169"/>
+      <c r="O20" s="169"/>
+      <c r="P20" s="169"/>
+      <c r="Q20" s="169"/>
+      <c r="R20" s="169"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="165"/>
-      <c r="C21" s="165"/>
-      <c r="D21" s="165"/>
-      <c r="E21" s="165"/>
-      <c r="F21" s="165"/>
-      <c r="G21" s="165"/>
-      <c r="H21" s="165"/>
-      <c r="I21" s="165"/>
-      <c r="J21" s="165"/>
-      <c r="K21" s="165"/>
-      <c r="L21" s="165"/>
-      <c r="M21" s="165"/>
-      <c r="N21" s="165"/>
-      <c r="O21" s="165"/>
-      <c r="P21" s="165"/>
-      <c r="Q21" s="165"/>
-      <c r="R21" s="165"/>
+      <c r="B21" s="169"/>
+      <c r="C21" s="169"/>
+      <c r="D21" s="169"/>
+      <c r="E21" s="169"/>
+      <c r="F21" s="169"/>
+      <c r="G21" s="169"/>
+      <c r="H21" s="169"/>
+      <c r="I21" s="169"/>
+      <c r="J21" s="169"/>
+      <c r="K21" s="169"/>
+      <c r="L21" s="169"/>
+      <c r="M21" s="169"/>
+      <c r="N21" s="169"/>
+      <c r="O21" s="169"/>
+      <c r="P21" s="169"/>
+      <c r="Q21" s="169"/>
+      <c r="R21" s="169"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="181"/>
-      <c r="C22" s="181"/>
-      <c r="D22" s="181"/>
-      <c r="E22" s="181"/>
-      <c r="F22" s="181"/>
-      <c r="G22" s="181"/>
-      <c r="H22" s="181"/>
-      <c r="I22" s="181"/>
-      <c r="J22" s="181"/>
-      <c r="K22" s="181"/>
-      <c r="L22" s="181"/>
-      <c r="M22" s="181"/>
-      <c r="N22" s="181"/>
-      <c r="O22" s="181"/>
-      <c r="P22" s="181"/>
-      <c r="Q22" s="181"/>
-      <c r="R22" s="181"/>
+      <c r="B22" s="170"/>
+      <c r="C22" s="170"/>
+      <c r="D22" s="170"/>
+      <c r="E22" s="170"/>
+      <c r="F22" s="170"/>
+      <c r="G22" s="170"/>
+      <c r="H22" s="170"/>
+      <c r="I22" s="170"/>
+      <c r="J22" s="170"/>
+      <c r="K22" s="170"/>
+      <c r="L22" s="170"/>
+      <c r="M22" s="170"/>
+      <c r="N22" s="170"/>
+      <c r="O22" s="170"/>
+      <c r="P22" s="170"/>
+      <c r="Q22" s="170"/>
+      <c r="R22" s="170"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="181"/>
-      <c r="C23" s="181"/>
-      <c r="D23" s="181"/>
-      <c r="E23" s="181"/>
-      <c r="F23" s="181"/>
-      <c r="G23" s="181"/>
-      <c r="H23" s="181"/>
-      <c r="I23" s="181"/>
-      <c r="J23" s="181"/>
-      <c r="K23" s="181"/>
-      <c r="L23" s="181"/>
-      <c r="M23" s="181"/>
-      <c r="N23" s="181"/>
-      <c r="O23" s="181"/>
-      <c r="P23" s="181"/>
-      <c r="Q23" s="181"/>
-      <c r="R23" s="181"/>
+      <c r="B23" s="170"/>
+      <c r="C23" s="170"/>
+      <c r="D23" s="170"/>
+      <c r="E23" s="170"/>
+      <c r="F23" s="170"/>
+      <c r="G23" s="170"/>
+      <c r="H23" s="170"/>
+      <c r="I23" s="170"/>
+      <c r="J23" s="170"/>
+      <c r="K23" s="170"/>
+      <c r="L23" s="170"/>
+      <c r="M23" s="170"/>
+      <c r="N23" s="170"/>
+      <c r="O23" s="170"/>
+      <c r="P23" s="170"/>
+      <c r="Q23" s="170"/>
+      <c r="R23" s="170"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="183"/>
-      <c r="C26" s="183"/>
-      <c r="D26" s="183"/>
-      <c r="E26" s="183"/>
-      <c r="F26" s="183"/>
-      <c r="G26" s="183"/>
-      <c r="H26" s="183"/>
-      <c r="I26" s="183"/>
-      <c r="J26" s="183"/>
-      <c r="K26" s="183"/>
-      <c r="L26" s="183"/>
-      <c r="M26" s="183"/>
-      <c r="N26" s="183"/>
-      <c r="O26" s="183"/>
-      <c r="P26" s="183"/>
-      <c r="Q26" s="183"/>
-      <c r="R26" s="183"/>
+      <c r="B26" s="167"/>
+      <c r="C26" s="167"/>
+      <c r="D26" s="167"/>
+      <c r="E26" s="167"/>
+      <c r="F26" s="167"/>
+      <c r="G26" s="167"/>
+      <c r="H26" s="167"/>
+      <c r="I26" s="167"/>
+      <c r="J26" s="167"/>
+      <c r="K26" s="167"/>
+      <c r="L26" s="167"/>
+      <c r="M26" s="167"/>
+      <c r="N26" s="167"/>
+      <c r="O26" s="167"/>
+      <c r="P26" s="167"/>
+      <c r="Q26" s="167"/>
+      <c r="R26" s="167"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="185"/>
-      <c r="C28" s="185"/>
-      <c r="D28" s="185"/>
-      <c r="E28" s="185"/>
-      <c r="F28" s="185"/>
-      <c r="G28" s="185"/>
-      <c r="H28" s="185"/>
-      <c r="I28" s="185"/>
-      <c r="J28" s="185"/>
-      <c r="K28" s="185"/>
-      <c r="L28" s="185"/>
-      <c r="M28" s="185"/>
-      <c r="N28" s="185"/>
-      <c r="O28" s="185"/>
-      <c r="P28" s="185"/>
-      <c r="Q28" s="185"/>
-      <c r="R28" s="185"/>
-      <c r="S28" s="184"/>
-      <c r="T28" s="184"/>
-      <c r="U28" s="184"/>
-      <c r="V28" s="184"/>
-      <c r="W28" s="184"/>
-      <c r="X28" s="184"/>
-      <c r="Y28" s="184"/>
-      <c r="Z28" s="184"/>
-      <c r="AA28" s="184"/>
-      <c r="AB28" s="184"/>
-      <c r="AC28" s="184"/>
-      <c r="AD28" s="184"/>
-      <c r="AE28" s="184"/>
-      <c r="AF28" s="184"/>
-      <c r="AG28" s="184"/>
-      <c r="AH28" s="184"/>
-      <c r="AI28" s="184"/>
-      <c r="AJ28" s="184"/>
-      <c r="AK28" s="184"/>
-      <c r="AL28" s="184"/>
-      <c r="AM28" s="184"/>
-      <c r="AN28" s="184"/>
-      <c r="AO28" s="184"/>
-      <c r="AP28" s="184"/>
-      <c r="AQ28" s="184"/>
-      <c r="AR28" s="184"/>
-      <c r="AS28" s="184"/>
-      <c r="AT28" s="184"/>
-      <c r="AU28" s="184"/>
-      <c r="AV28" s="184"/>
-      <c r="AW28" s="184"/>
-      <c r="AX28" s="184"/>
-      <c r="AY28" s="184"/>
-      <c r="AZ28" s="184"/>
-      <c r="BA28" s="184"/>
-      <c r="BB28" s="184"/>
-      <c r="BC28" s="184"/>
-      <c r="BD28" s="184"/>
-      <c r="BE28" s="184"/>
-      <c r="BF28" s="184"/>
-      <c r="BG28" s="184"/>
-      <c r="BH28" s="184"/>
-      <c r="BI28" s="184"/>
-      <c r="BJ28" s="184"/>
-      <c r="BK28" s="184"/>
-      <c r="BL28" s="184"/>
-      <c r="BM28" s="184"/>
-      <c r="BN28" s="184"/>
-      <c r="BO28" s="184"/>
-      <c r="BP28" s="184"/>
-      <c r="BQ28" s="184"/>
-      <c r="BR28" s="184"/>
-      <c r="BS28" s="184"/>
-      <c r="BT28" s="184"/>
-      <c r="BU28" s="184"/>
-      <c r="BV28" s="184"/>
-      <c r="BW28" s="184"/>
-      <c r="BX28" s="184"/>
-      <c r="BY28" s="184"/>
-      <c r="BZ28" s="184"/>
-      <c r="CA28" s="184"/>
-      <c r="CB28" s="184"/>
-      <c r="CC28" s="184"/>
-      <c r="CD28" s="184"/>
-      <c r="CE28" s="184"/>
-      <c r="CF28" s="184"/>
-      <c r="CG28" s="184"/>
-      <c r="CH28" s="184"/>
-      <c r="CI28" s="184"/>
-      <c r="CJ28" s="184"/>
-      <c r="CK28" s="184"/>
-      <c r="CL28" s="184"/>
-      <c r="CM28" s="184"/>
-      <c r="CN28" s="184"/>
-      <c r="CO28" s="184"/>
-      <c r="CP28" s="184"/>
-      <c r="CQ28" s="184"/>
-      <c r="CR28" s="184"/>
-      <c r="CS28" s="184"/>
-      <c r="CT28" s="184"/>
-      <c r="CU28" s="184"/>
-      <c r="CV28" s="184"/>
-      <c r="CW28" s="184"/>
-      <c r="CX28" s="184"/>
-      <c r="CY28" s="184"/>
-      <c r="CZ28" s="184"/>
-      <c r="DA28" s="184"/>
-      <c r="DB28" s="184"/>
-      <c r="DC28" s="184"/>
-      <c r="DD28" s="184"/>
-      <c r="DE28" s="184"/>
-      <c r="DF28" s="184"/>
-      <c r="DG28" s="184"/>
-      <c r="DH28" s="184"/>
-      <c r="DI28" s="184"/>
-      <c r="DJ28" s="184"/>
-      <c r="DK28" s="184"/>
-      <c r="DL28" s="184"/>
-      <c r="DM28" s="184"/>
-      <c r="DN28" s="184"/>
-      <c r="DO28" s="184"/>
-      <c r="DP28" s="184"/>
-      <c r="DQ28" s="184"/>
-      <c r="DR28" s="184"/>
-      <c r="DS28" s="184"/>
-      <c r="DT28" s="184"/>
-      <c r="DU28" s="184"/>
-      <c r="DV28" s="184"/>
-      <c r="DW28" s="184"/>
-      <c r="DX28" s="184"/>
-      <c r="DY28" s="184"/>
-      <c r="DZ28" s="184"/>
-      <c r="EA28" s="184"/>
-      <c r="EB28" s="184"/>
-      <c r="EC28" s="184"/>
-      <c r="ED28" s="184"/>
-      <c r="EE28" s="184"/>
-      <c r="EF28" s="184"/>
-      <c r="EG28" s="184"/>
-      <c r="EH28" s="184"/>
-      <c r="EI28" s="184"/>
-      <c r="EJ28" s="184"/>
-      <c r="EK28" s="184"/>
-      <c r="EL28" s="184"/>
-      <c r="EM28" s="184"/>
-      <c r="EN28" s="184"/>
-      <c r="EO28" s="184"/>
-      <c r="EP28" s="184"/>
-      <c r="EQ28" s="184"/>
-      <c r="ER28" s="184"/>
-      <c r="ES28" s="184"/>
-      <c r="ET28" s="184"/>
-      <c r="EU28" s="184"/>
-      <c r="EV28" s="184"/>
-      <c r="EW28" s="184"/>
-      <c r="EX28" s="184"/>
-      <c r="EY28" s="184"/>
-      <c r="EZ28" s="184"/>
-      <c r="FA28" s="184"/>
-      <c r="FB28" s="184"/>
-      <c r="FC28" s="184"/>
-      <c r="FD28" s="184"/>
-      <c r="FE28" s="184"/>
-      <c r="FF28" s="184"/>
-      <c r="FG28" s="184"/>
-      <c r="FH28" s="184"/>
-      <c r="FI28" s="184"/>
-      <c r="FJ28" s="184"/>
-      <c r="FK28" s="184"/>
-      <c r="FL28" s="184"/>
-      <c r="FM28" s="184"/>
-      <c r="FN28" s="184"/>
-      <c r="FO28" s="184"/>
-      <c r="FP28" s="184"/>
-      <c r="FQ28" s="184"/>
-      <c r="FR28" s="184"/>
-      <c r="FS28" s="184"/>
-      <c r="FT28" s="184"/>
-      <c r="FU28" s="184"/>
-      <c r="FV28" s="184"/>
-      <c r="FW28" s="184"/>
-      <c r="FX28" s="184"/>
-      <c r="FY28" s="184"/>
-      <c r="FZ28" s="184"/>
-      <c r="GA28" s="184"/>
-      <c r="GB28" s="184"/>
-      <c r="GC28" s="184"/>
-      <c r="GD28" s="184"/>
-      <c r="GE28" s="184"/>
-      <c r="GF28" s="184"/>
-      <c r="GG28" s="184"/>
-      <c r="GH28" s="184"/>
-      <c r="GI28" s="184"/>
-      <c r="GJ28" s="184"/>
-      <c r="GK28" s="184"/>
-      <c r="GL28" s="184"/>
+      <c r="B28" s="168"/>
+      <c r="C28" s="168"/>
+      <c r="D28" s="168"/>
+      <c r="E28" s="168"/>
+      <c r="F28" s="168"/>
+      <c r="G28" s="168"/>
+      <c r="H28" s="168"/>
+      <c r="I28" s="168"/>
+      <c r="J28" s="168"/>
+      <c r="K28" s="168"/>
+      <c r="L28" s="168"/>
+      <c r="M28" s="168"/>
+      <c r="N28" s="168"/>
+      <c r="O28" s="168"/>
+      <c r="P28" s="168"/>
+      <c r="Q28" s="168"/>
+      <c r="R28" s="168"/>
+      <c r="S28" s="166"/>
+      <c r="T28" s="166"/>
+      <c r="U28" s="166"/>
+      <c r="V28" s="166"/>
+      <c r="W28" s="166"/>
+      <c r="X28" s="166"/>
+      <c r="Y28" s="166"/>
+      <c r="Z28" s="166"/>
+      <c r="AA28" s="166"/>
+      <c r="AB28" s="166"/>
+      <c r="AC28" s="166"/>
+      <c r="AD28" s="166"/>
+      <c r="AE28" s="166"/>
+      <c r="AF28" s="166"/>
+      <c r="AG28" s="166"/>
+      <c r="AH28" s="166"/>
+      <c r="AI28" s="166"/>
+      <c r="AJ28" s="166"/>
+      <c r="AK28" s="166"/>
+      <c r="AL28" s="166"/>
+      <c r="AM28" s="166"/>
+      <c r="AN28" s="166"/>
+      <c r="AO28" s="166"/>
+      <c r="AP28" s="166"/>
+      <c r="AQ28" s="166"/>
+      <c r="AR28" s="166"/>
+      <c r="AS28" s="166"/>
+      <c r="AT28" s="166"/>
+      <c r="AU28" s="166"/>
+      <c r="AV28" s="166"/>
+      <c r="AW28" s="166"/>
+      <c r="AX28" s="166"/>
+      <c r="AY28" s="166"/>
+      <c r="AZ28" s="166"/>
+      <c r="BA28" s="166"/>
+      <c r="BB28" s="166"/>
+      <c r="BC28" s="166"/>
+      <c r="BD28" s="166"/>
+      <c r="BE28" s="166"/>
+      <c r="BF28" s="166"/>
+      <c r="BG28" s="166"/>
+      <c r="BH28" s="166"/>
+      <c r="BI28" s="166"/>
+      <c r="BJ28" s="166"/>
+      <c r="BK28" s="166"/>
+      <c r="BL28" s="166"/>
+      <c r="BM28" s="166"/>
+      <c r="BN28" s="166"/>
+      <c r="BO28" s="166"/>
+      <c r="BP28" s="166"/>
+      <c r="BQ28" s="166"/>
+      <c r="BR28" s="166"/>
+      <c r="BS28" s="166"/>
+      <c r="BT28" s="166"/>
+      <c r="BU28" s="166"/>
+      <c r="BV28" s="166"/>
+      <c r="BW28" s="166"/>
+      <c r="BX28" s="166"/>
+      <c r="BY28" s="166"/>
+      <c r="BZ28" s="166"/>
+      <c r="CA28" s="166"/>
+      <c r="CB28" s="166"/>
+      <c r="CC28" s="166"/>
+      <c r="CD28" s="166"/>
+      <c r="CE28" s="166"/>
+      <c r="CF28" s="166"/>
+      <c r="CG28" s="166"/>
+      <c r="CH28" s="166"/>
+      <c r="CI28" s="166"/>
+      <c r="CJ28" s="166"/>
+      <c r="CK28" s="166"/>
+      <c r="CL28" s="166"/>
+      <c r="CM28" s="166"/>
+      <c r="CN28" s="166"/>
+      <c r="CO28" s="166"/>
+      <c r="CP28" s="166"/>
+      <c r="CQ28" s="166"/>
+      <c r="CR28" s="166"/>
+      <c r="CS28" s="166"/>
+      <c r="CT28" s="166"/>
+      <c r="CU28" s="166"/>
+      <c r="CV28" s="166"/>
+      <c r="CW28" s="166"/>
+      <c r="CX28" s="166"/>
+      <c r="CY28" s="166"/>
+      <c r="CZ28" s="166"/>
+      <c r="DA28" s="166"/>
+      <c r="DB28" s="166"/>
+      <c r="DC28" s="166"/>
+      <c r="DD28" s="166"/>
+      <c r="DE28" s="166"/>
+      <c r="DF28" s="166"/>
+      <c r="DG28" s="166"/>
+      <c r="DH28" s="166"/>
+      <c r="DI28" s="166"/>
+      <c r="DJ28" s="166"/>
+      <c r="DK28" s="166"/>
+      <c r="DL28" s="166"/>
+      <c r="DM28" s="166"/>
+      <c r="DN28" s="166"/>
+      <c r="DO28" s="166"/>
+      <c r="DP28" s="166"/>
+      <c r="DQ28" s="166"/>
+      <c r="DR28" s="166"/>
+      <c r="DS28" s="166"/>
+      <c r="DT28" s="166"/>
+      <c r="DU28" s="166"/>
+      <c r="DV28" s="166"/>
+      <c r="DW28" s="166"/>
+      <c r="DX28" s="166"/>
+      <c r="DY28" s="166"/>
+      <c r="DZ28" s="166"/>
+      <c r="EA28" s="166"/>
+      <c r="EB28" s="166"/>
+      <c r="EC28" s="166"/>
+      <c r="ED28" s="166"/>
+      <c r="EE28" s="166"/>
+      <c r="EF28" s="166"/>
+      <c r="EG28" s="166"/>
+      <c r="EH28" s="166"/>
+      <c r="EI28" s="166"/>
+      <c r="EJ28" s="166"/>
+      <c r="EK28" s="166"/>
+      <c r="EL28" s="166"/>
+      <c r="EM28" s="166"/>
+      <c r="EN28" s="166"/>
+      <c r="EO28" s="166"/>
+      <c r="EP28" s="166"/>
+      <c r="EQ28" s="166"/>
+      <c r="ER28" s="166"/>
+      <c r="ES28" s="166"/>
+      <c r="ET28" s="166"/>
+      <c r="EU28" s="166"/>
+      <c r="EV28" s="166"/>
+      <c r="EW28" s="166"/>
+      <c r="EX28" s="166"/>
+      <c r="EY28" s="166"/>
+      <c r="EZ28" s="166"/>
+      <c r="FA28" s="166"/>
+      <c r="FB28" s="166"/>
+      <c r="FC28" s="166"/>
+      <c r="FD28" s="166"/>
+      <c r="FE28" s="166"/>
+      <c r="FF28" s="166"/>
+      <c r="FG28" s="166"/>
+      <c r="FH28" s="166"/>
+      <c r="FI28" s="166"/>
+      <c r="FJ28" s="166"/>
+      <c r="FK28" s="166"/>
+      <c r="FL28" s="166"/>
+      <c r="FM28" s="166"/>
+      <c r="FN28" s="166"/>
+      <c r="FO28" s="166"/>
+      <c r="FP28" s="166"/>
+      <c r="FQ28" s="166"/>
+      <c r="FR28" s="166"/>
+      <c r="FS28" s="166"/>
+      <c r="FT28" s="166"/>
+      <c r="FU28" s="166"/>
+      <c r="FV28" s="166"/>
+      <c r="FW28" s="166"/>
+      <c r="FX28" s="166"/>
+      <c r="FY28" s="166"/>
+      <c r="FZ28" s="166"/>
+      <c r="GA28" s="166"/>
+      <c r="GB28" s="166"/>
+      <c r="GC28" s="166"/>
+      <c r="GD28" s="166"/>
+      <c r="GE28" s="166"/>
+      <c r="GF28" s="166"/>
+      <c r="GG28" s="166"/>
+      <c r="GH28" s="166"/>
+      <c r="GI28" s="166"/>
+      <c r="GJ28" s="166"/>
+      <c r="GK28" s="166"/>
+      <c r="GL28" s="166"/>
       <c r="GM28" s="92"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="183"/>
-      <c r="C29" s="183"/>
-      <c r="D29" s="183"/>
-      <c r="E29" s="183"/>
-      <c r="F29" s="183"/>
-      <c r="G29" s="183"/>
-      <c r="H29" s="183"/>
-      <c r="I29" s="183"/>
-      <c r="J29" s="183"/>
-      <c r="K29" s="183"/>
-      <c r="L29" s="183"/>
-      <c r="M29" s="183"/>
-      <c r="N29" s="183"/>
-      <c r="O29" s="183"/>
-      <c r="P29" s="183"/>
-      <c r="Q29" s="183"/>
-      <c r="R29" s="183"/>
+      <c r="B29" s="167"/>
+      <c r="C29" s="167"/>
+      <c r="D29" s="167"/>
+      <c r="E29" s="167"/>
+      <c r="F29" s="167"/>
+      <c r="G29" s="167"/>
+      <c r="H29" s="167"/>
+      <c r="I29" s="167"/>
+      <c r="J29" s="167"/>
+      <c r="K29" s="167"/>
+      <c r="L29" s="167"/>
+      <c r="M29" s="167"/>
+      <c r="N29" s="167"/>
+      <c r="O29" s="167"/>
+      <c r="P29" s="167"/>
+      <c r="Q29" s="167"/>
+      <c r="R29" s="167"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="186"/>
-      <c r="B30" s="186"/>
-      <c r="C30" s="186"/>
-      <c r="D30" s="186"/>
-      <c r="E30" s="186"/>
-      <c r="F30" s="186"/>
-      <c r="G30" s="186"/>
-      <c r="H30" s="186"/>
-      <c r="I30" s="186"/>
-      <c r="J30" s="186"/>
+      <c r="A30" s="165"/>
+      <c r="B30" s="165"/>
+      <c r="C30" s="165"/>
+      <c r="D30" s="165"/>
+      <c r="E30" s="165"/>
+      <c r="F30" s="165"/>
+      <c r="G30" s="165"/>
+      <c r="H30" s="165"/>
+      <c r="I30" s="165"/>
+      <c r="J30" s="165"/>
       <c r="K30" s="93"/>
       <c r="L30" s="93"/>
       <c r="M30" s="93"/>
@@ -4729,16 +7535,16 @@
       <c r="R30" s="93"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="186"/>
-      <c r="B31" s="186"/>
-      <c r="C31" s="186"/>
-      <c r="D31" s="186"/>
-      <c r="E31" s="186"/>
-      <c r="F31" s="186"/>
-      <c r="G31" s="186"/>
-      <c r="H31" s="186"/>
-      <c r="I31" s="186"/>
-      <c r="J31" s="186"/>
+      <c r="A31" s="165"/>
+      <c r="B31" s="165"/>
+      <c r="C31" s="165"/>
+      <c r="D31" s="165"/>
+      <c r="E31" s="165"/>
+      <c r="F31" s="165"/>
+      <c r="G31" s="165"/>
+      <c r="H31" s="165"/>
+      <c r="I31" s="165"/>
+      <c r="J31" s="165"/>
       <c r="K31" s="93"/>
       <c r="L31" s="93"/>
       <c r="M31" s="93"/>
@@ -4750,28 +7556,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -4785,6 +7569,28 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -5339,10 +8145,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="199" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="187"/>
+      <c r="B1" s="199"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -5369,8 +8175,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="187"/>
-      <c r="B2" s="187"/>
+      <c r="A2" s="199"/>
+      <c r="B2" s="199"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
@@ -5409,14 +8215,14 @@
       <c r="D4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="188" t="s">
+      <c r="E4" s="200" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="188"/>
-      <c r="G4" s="188"/>
-      <c r="H4" s="188"/>
-      <c r="I4" s="188"/>
-      <c r="J4" s="188"/>
+      <c r="F4" s="200"/>
+      <c r="G4" s="200"/>
+      <c r="H4" s="200"/>
+      <c r="I4" s="200"/>
+      <c r="J4" s="200"/>
     </row>
     <row r="5" spans="1:10" s="25" customFormat="1" ht="47.25" customHeight="1">
       <c r="A5" s="99">
@@ -5431,14 +8237,14 @@
       <c r="D5" s="103" t="s">
         <v>164</v>
       </c>
-      <c r="E5" s="189" t="s">
+      <c r="E5" s="201" t="s">
         <v>165</v>
       </c>
-      <c r="F5" s="189"/>
-      <c r="G5" s="189"/>
-      <c r="H5" s="189"/>
-      <c r="I5" s="189"/>
-      <c r="J5" s="189"/>
+      <c r="F5" s="201"/>
+      <c r="G5" s="201"/>
+      <c r="H5" s="201"/>
+      <c r="I5" s="201"/>
+      <c r="J5" s="201"/>
     </row>
     <row r="6" spans="1:10" s="25" customFormat="1" ht="12.75">
       <c r="A6" s="135">
@@ -5449,12 +8255,12 @@
       </c>
       <c r="C6" s="140"/>
       <c r="D6" s="140"/>
-      <c r="E6" s="190"/>
-      <c r="F6" s="191"/>
-      <c r="G6" s="191"/>
-      <c r="H6" s="191"/>
-      <c r="I6" s="191"/>
-      <c r="J6" s="192"/>
+      <c r="E6" s="202"/>
+      <c r="F6" s="203"/>
+      <c r="G6" s="203"/>
+      <c r="H6" s="203"/>
+      <c r="I6" s="203"/>
+      <c r="J6" s="204"/>
     </row>
     <row r="7" spans="1:10" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A7" s="136">
@@ -5465,12 +8271,12 @@
       </c>
       <c r="C7" s="140"/>
       <c r="D7" s="140"/>
-      <c r="E7" s="194"/>
-      <c r="F7" s="195"/>
-      <c r="G7" s="195"/>
-      <c r="H7" s="195"/>
-      <c r="I7" s="195"/>
-      <c r="J7" s="196"/>
+      <c r="E7" s="191"/>
+      <c r="F7" s="192"/>
+      <c r="G7" s="192"/>
+      <c r="H7" s="192"/>
+      <c r="I7" s="192"/>
+      <c r="J7" s="193"/>
     </row>
     <row r="8" spans="1:10" s="25" customFormat="1" ht="12.75">
       <c r="A8" s="134">
@@ -5481,12 +8287,12 @@
       </c>
       <c r="C8" s="142"/>
       <c r="D8" s="142"/>
-      <c r="E8" s="197"/>
-      <c r="F8" s="198"/>
-      <c r="G8" s="198"/>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
-      <c r="J8" s="198"/>
+      <c r="E8" s="194"/>
+      <c r="F8" s="195"/>
+      <c r="G8" s="195"/>
+      <c r="H8" s="195"/>
+      <c r="I8" s="195"/>
+      <c r="J8" s="195"/>
     </row>
     <row r="9" spans="1:10" s="131" customFormat="1" ht="12.75">
       <c r="A9" s="133">
@@ -5497,12 +8303,12 @@
       </c>
       <c r="C9" s="142"/>
       <c r="D9" s="144"/>
-      <c r="E9" s="199"/>
-      <c r="F9" s="200"/>
-      <c r="G9" s="200"/>
-      <c r="H9" s="200"/>
-      <c r="I9" s="200"/>
-      <c r="J9" s="201"/>
+      <c r="E9" s="196"/>
+      <c r="F9" s="197"/>
+      <c r="G9" s="197"/>
+      <c r="H9" s="197"/>
+      <c r="I9" s="197"/>
+      <c r="J9" s="198"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="72">
@@ -5513,12 +8319,12 @@
       </c>
       <c r="C10" s="63"/>
       <c r="D10" s="37"/>
-      <c r="E10" s="202"/>
-      <c r="F10" s="203"/>
-      <c r="G10" s="203"/>
-      <c r="H10" s="203"/>
-      <c r="I10" s="203"/>
-      <c r="J10" s="204"/>
+      <c r="E10" s="188"/>
+      <c r="F10" s="189"/>
+      <c r="G10" s="189"/>
+      <c r="H10" s="189"/>
+      <c r="I10" s="189"/>
+      <c r="J10" s="190"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="73">
@@ -5529,12 +8335,12 @@
       </c>
       <c r="C11" s="63"/>
       <c r="D11" s="37"/>
-      <c r="E11" s="202"/>
-      <c r="F11" s="203"/>
-      <c r="G11" s="203"/>
-      <c r="H11" s="203"/>
-      <c r="I11" s="203"/>
-      <c r="J11" s="204"/>
+      <c r="E11" s="188"/>
+      <c r="F11" s="189"/>
+      <c r="G11" s="189"/>
+      <c r="H11" s="189"/>
+      <c r="I11" s="189"/>
+      <c r="J11" s="190"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="74">
@@ -5545,12 +8351,12 @@
       </c>
       <c r="C12" s="63"/>
       <c r="D12" s="37"/>
-      <c r="E12" s="202"/>
-      <c r="F12" s="203"/>
-      <c r="G12" s="203"/>
-      <c r="H12" s="203"/>
-      <c r="I12" s="203"/>
-      <c r="J12" s="204"/>
+      <c r="E12" s="188"/>
+      <c r="F12" s="189"/>
+      <c r="G12" s="189"/>
+      <c r="H12" s="189"/>
+      <c r="I12" s="189"/>
+      <c r="J12" s="190"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="75">
@@ -5561,12 +8367,12 @@
       </c>
       <c r="C13" s="63"/>
       <c r="D13" s="37"/>
-      <c r="E13" s="202"/>
-      <c r="F13" s="203"/>
-      <c r="G13" s="203"/>
-      <c r="H13" s="203"/>
-      <c r="I13" s="203"/>
-      <c r="J13" s="204"/>
+      <c r="E13" s="188"/>
+      <c r="F13" s="189"/>
+      <c r="G13" s="189"/>
+      <c r="H13" s="189"/>
+      <c r="I13" s="189"/>
+      <c r="J13" s="190"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="76">
@@ -5577,12 +8383,12 @@
       </c>
       <c r="C14" s="63"/>
       <c r="D14" s="37"/>
-      <c r="E14" s="202"/>
-      <c r="F14" s="203"/>
-      <c r="G14" s="203"/>
-      <c r="H14" s="203"/>
-      <c r="I14" s="203"/>
-      <c r="J14" s="204"/>
+      <c r="E14" s="188"/>
+      <c r="F14" s="189"/>
+      <c r="G14" s="189"/>
+      <c r="H14" s="189"/>
+      <c r="I14" s="189"/>
+      <c r="J14" s="190"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="37">
@@ -5593,12 +8399,12 @@
       </c>
       <c r="C15" s="63"/>
       <c r="D15" s="37"/>
-      <c r="E15" s="193"/>
-      <c r="F15" s="193"/>
-      <c r="G15" s="193"/>
-      <c r="H15" s="193"/>
-      <c r="I15" s="193"/>
-      <c r="J15" s="193"/>
+      <c r="E15" s="187"/>
+      <c r="F15" s="187"/>
+      <c r="G15" s="187"/>
+      <c r="H15" s="187"/>
+      <c r="I15" s="187"/>
+      <c r="J15" s="187"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="68">
@@ -5609,12 +8415,12 @@
       </c>
       <c r="C16" s="63"/>
       <c r="D16" s="37"/>
-      <c r="E16" s="193"/>
-      <c r="F16" s="193"/>
-      <c r="G16" s="193"/>
-      <c r="H16" s="193"/>
-      <c r="I16" s="193"/>
-      <c r="J16" s="193"/>
+      <c r="E16" s="187"/>
+      <c r="F16" s="187"/>
+      <c r="G16" s="187"/>
+      <c r="H16" s="187"/>
+      <c r="I16" s="187"/>
+      <c r="J16" s="187"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="69">
@@ -5625,12 +8431,12 @@
       </c>
       <c r="C17" s="63"/>
       <c r="D17" s="37"/>
-      <c r="E17" s="193"/>
-      <c r="F17" s="193"/>
-      <c r="G17" s="193"/>
-      <c r="H17" s="193"/>
-      <c r="I17" s="193"/>
-      <c r="J17" s="193"/>
+      <c r="E17" s="187"/>
+      <c r="F17" s="187"/>
+      <c r="G17" s="187"/>
+      <c r="H17" s="187"/>
+      <c r="I17" s="187"/>
+      <c r="J17" s="187"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="70">
@@ -5641,12 +8447,12 @@
       </c>
       <c r="C18" s="63"/>
       <c r="D18" s="37"/>
-      <c r="E18" s="193"/>
-      <c r="F18" s="193"/>
-      <c r="G18" s="193"/>
-      <c r="H18" s="193"/>
-      <c r="I18" s="193"/>
-      <c r="J18" s="193"/>
+      <c r="E18" s="187"/>
+      <c r="F18" s="187"/>
+      <c r="G18" s="187"/>
+      <c r="H18" s="187"/>
+      <c r="I18" s="187"/>
+      <c r="J18" s="187"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="71">
@@ -5657,12 +8463,12 @@
       </c>
       <c r="C19" s="63"/>
       <c r="D19" s="37"/>
-      <c r="E19" s="193"/>
-      <c r="F19" s="193"/>
-      <c r="G19" s="193"/>
-      <c r="H19" s="193"/>
-      <c r="I19" s="193"/>
-      <c r="J19" s="193"/>
+      <c r="E19" s="187"/>
+      <c r="F19" s="187"/>
+      <c r="G19" s="187"/>
+      <c r="H19" s="187"/>
+      <c r="I19" s="187"/>
+      <c r="J19" s="187"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="72">
@@ -5673,12 +8479,12 @@
       </c>
       <c r="C20" s="63"/>
       <c r="D20" s="37"/>
-      <c r="E20" s="193"/>
-      <c r="F20" s="193"/>
-      <c r="G20" s="193"/>
-      <c r="H20" s="193"/>
-      <c r="I20" s="193"/>
-      <c r="J20" s="193"/>
+      <c r="E20" s="187"/>
+      <c r="F20" s="187"/>
+      <c r="G20" s="187"/>
+      <c r="H20" s="187"/>
+      <c r="I20" s="187"/>
+      <c r="J20" s="187"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="73">
@@ -5689,12 +8495,12 @@
       </c>
       <c r="C21" s="63"/>
       <c r="D21" s="37"/>
-      <c r="E21" s="193"/>
-      <c r="F21" s="193"/>
-      <c r="G21" s="193"/>
-      <c r="H21" s="193"/>
-      <c r="I21" s="193"/>
-      <c r="J21" s="193"/>
+      <c r="E21" s="187"/>
+      <c r="F21" s="187"/>
+      <c r="G21" s="187"/>
+      <c r="H21" s="187"/>
+      <c r="I21" s="187"/>
+      <c r="J21" s="187"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="74">
@@ -5705,12 +8511,12 @@
       </c>
       <c r="C22" s="63"/>
       <c r="D22" s="37"/>
-      <c r="E22" s="193"/>
-      <c r="F22" s="193"/>
-      <c r="G22" s="193"/>
-      <c r="H22" s="193"/>
-      <c r="I22" s="193"/>
-      <c r="J22" s="193"/>
+      <c r="E22" s="187"/>
+      <c r="F22" s="187"/>
+      <c r="G22" s="187"/>
+      <c r="H22" s="187"/>
+      <c r="I22" s="187"/>
+      <c r="J22" s="187"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="75">
@@ -5721,12 +8527,12 @@
       </c>
       <c r="C23" s="63"/>
       <c r="D23" s="37"/>
-      <c r="E23" s="193"/>
-      <c r="F23" s="193"/>
-      <c r="G23" s="193"/>
-      <c r="H23" s="193"/>
-      <c r="I23" s="193"/>
-      <c r="J23" s="193"/>
+      <c r="E23" s="187"/>
+      <c r="F23" s="187"/>
+      <c r="G23" s="187"/>
+      <c r="H23" s="187"/>
+      <c r="I23" s="187"/>
+      <c r="J23" s="187"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="76">
@@ -5737,12 +8543,12 @@
       </c>
       <c r="C24" s="63"/>
       <c r="D24" s="37"/>
-      <c r="E24" s="193"/>
-      <c r="F24" s="193"/>
-      <c r="G24" s="193"/>
-      <c r="H24" s="193"/>
-      <c r="I24" s="193"/>
-      <c r="J24" s="193"/>
+      <c r="E24" s="187"/>
+      <c r="F24" s="187"/>
+      <c r="G24" s="187"/>
+      <c r="H24" s="187"/>
+      <c r="I24" s="187"/>
+      <c r="J24" s="187"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="37">
@@ -5753,12 +8559,12 @@
       </c>
       <c r="C25" s="63"/>
       <c r="D25" s="37"/>
-      <c r="E25" s="193"/>
-      <c r="F25" s="193"/>
-      <c r="G25" s="193"/>
-      <c r="H25" s="193"/>
-      <c r="I25" s="193"/>
-      <c r="J25" s="193"/>
+      <c r="E25" s="187"/>
+      <c r="F25" s="187"/>
+      <c r="G25" s="187"/>
+      <c r="H25" s="187"/>
+      <c r="I25" s="187"/>
+      <c r="J25" s="187"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="68">
@@ -5769,12 +8575,12 @@
       </c>
       <c r="C26" s="63"/>
       <c r="D26" s="37"/>
-      <c r="E26" s="193"/>
-      <c r="F26" s="193"/>
-      <c r="G26" s="193"/>
-      <c r="H26" s="193"/>
-      <c r="I26" s="193"/>
-      <c r="J26" s="193"/>
+      <c r="E26" s="187"/>
+      <c r="F26" s="187"/>
+      <c r="G26" s="187"/>
+      <c r="H26" s="187"/>
+      <c r="I26" s="187"/>
+      <c r="J26" s="187"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="69">
@@ -5785,12 +8591,12 @@
       </c>
       <c r="C27" s="63"/>
       <c r="D27" s="37"/>
-      <c r="E27" s="193"/>
-      <c r="F27" s="193"/>
-      <c r="G27" s="193"/>
-      <c r="H27" s="193"/>
-      <c r="I27" s="193"/>
-      <c r="J27" s="193"/>
+      <c r="E27" s="187"/>
+      <c r="F27" s="187"/>
+      <c r="G27" s="187"/>
+      <c r="H27" s="187"/>
+      <c r="I27" s="187"/>
+      <c r="J27" s="187"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="70">
@@ -5801,12 +8607,12 @@
       </c>
       <c r="C28" s="63"/>
       <c r="D28" s="37"/>
-      <c r="E28" s="193"/>
-      <c r="F28" s="193"/>
-      <c r="G28" s="193"/>
-      <c r="H28" s="193"/>
-      <c r="I28" s="193"/>
-      <c r="J28" s="193"/>
+      <c r="E28" s="187"/>
+      <c r="F28" s="187"/>
+      <c r="G28" s="187"/>
+      <c r="H28" s="187"/>
+      <c r="I28" s="187"/>
+      <c r="J28" s="187"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="71">
@@ -5817,12 +8623,12 @@
       </c>
       <c r="C29" s="63"/>
       <c r="D29" s="37"/>
-      <c r="E29" s="193"/>
-      <c r="F29" s="193"/>
-      <c r="G29" s="193"/>
-      <c r="H29" s="193"/>
-      <c r="I29" s="193"/>
-      <c r="J29" s="193"/>
+      <c r="E29" s="187"/>
+      <c r="F29" s="187"/>
+      <c r="G29" s="187"/>
+      <c r="H29" s="187"/>
+      <c r="I29" s="187"/>
+      <c r="J29" s="187"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="72">
@@ -5833,12 +8639,12 @@
       </c>
       <c r="C30" s="63"/>
       <c r="D30" s="37"/>
-      <c r="E30" s="193"/>
-      <c r="F30" s="193"/>
-      <c r="G30" s="193"/>
-      <c r="H30" s="193"/>
-      <c r="I30" s="193"/>
-      <c r="J30" s="193"/>
+      <c r="E30" s="187"/>
+      <c r="F30" s="187"/>
+      <c r="G30" s="187"/>
+      <c r="H30" s="187"/>
+      <c r="I30" s="187"/>
+      <c r="J30" s="187"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="73">
@@ -5849,12 +8655,12 @@
       </c>
       <c r="C31" s="63"/>
       <c r="D31" s="37"/>
-      <c r="E31" s="193"/>
-      <c r="F31" s="193"/>
-      <c r="G31" s="193"/>
-      <c r="H31" s="193"/>
-      <c r="I31" s="193"/>
-      <c r="J31" s="193"/>
+      <c r="E31" s="187"/>
+      <c r="F31" s="187"/>
+      <c r="G31" s="187"/>
+      <c r="H31" s="187"/>
+      <c r="I31" s="187"/>
+      <c r="J31" s="187"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="74">
@@ -5865,12 +8671,12 @@
       </c>
       <c r="C32" s="63"/>
       <c r="D32" s="37"/>
-      <c r="E32" s="193"/>
-      <c r="F32" s="193"/>
-      <c r="G32" s="193"/>
-      <c r="H32" s="193"/>
-      <c r="I32" s="193"/>
-      <c r="J32" s="193"/>
+      <c r="E32" s="187"/>
+      <c r="F32" s="187"/>
+      <c r="G32" s="187"/>
+      <c r="H32" s="187"/>
+      <c r="I32" s="187"/>
+      <c r="J32" s="187"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="75">
@@ -5881,12 +8687,12 @@
       </c>
       <c r="C33" s="63"/>
       <c r="D33" s="37"/>
-      <c r="E33" s="193"/>
-      <c r="F33" s="193"/>
-      <c r="G33" s="193"/>
-      <c r="H33" s="193"/>
-      <c r="I33" s="193"/>
-      <c r="J33" s="193"/>
+      <c r="E33" s="187"/>
+      <c r="F33" s="187"/>
+      <c r="G33" s="187"/>
+      <c r="H33" s="187"/>
+      <c r="I33" s="187"/>
+      <c r="J33" s="187"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="76">
@@ -5897,20 +8703,26 @@
       </c>
       <c r="C34" s="63"/>
       <c r="D34" s="37"/>
-      <c r="E34" s="193"/>
-      <c r="F34" s="193"/>
-      <c r="G34" s="193"/>
-      <c r="H34" s="193"/>
-      <c r="I34" s="193"/>
-      <c r="J34" s="193"/>
+      <c r="E34" s="187"/>
+      <c r="F34" s="187"/>
+      <c r="G34" s="187"/>
+      <c r="H34" s="187"/>
+      <c r="I34" s="187"/>
+      <c r="J34" s="187"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
     <mergeCell ref="E31:J31"/>
     <mergeCell ref="E32:J32"/>
     <mergeCell ref="E33:J33"/>
@@ -5927,17 +8739,11 @@
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="E13:J13"/>
     <mergeCell ref="E21:J21"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -5962,7 +8768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="I12" sqref="I12:J46"/>
     </sheetView>
   </sheetViews>
@@ -5982,10 +8788,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="199" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="187"/>
+      <c r="B1" s="199"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -6016,8 +8822,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="187"/>
-      <c r="B2" s="187"/>
+      <c r="A2" s="199"/>
+      <c r="B2" s="199"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
@@ -6602,7 +9408,7 @@
       <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -6627,13 +9433,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="199" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
+      <c r="B1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
       <c r="F1" s="29" t="s">
         <v>1</v>
       </c>
@@ -6667,11 +9473,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="187"/>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
+      <c r="A2" s="199"/>
+      <c r="B2" s="199"/>
+      <c r="C2" s="199"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="199"/>
       <c r="F2" s="29" t="s">
         <v>2</v>
       </c>
@@ -7847,7 +10653,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="234" t="s">
+      <c r="A1" s="229" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="96"/>
@@ -7883,7 +10689,7 @@
       <c r="L1" s="47"/>
     </row>
     <row r="2" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="235"/>
+      <c r="A2" s="230"/>
       <c r="B2" s="97"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
@@ -7932,15 +10738,15 @@
       <c r="E4" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="187" t="s">
+      <c r="F4" s="199" t="s">
         <v>127</v>
       </c>
-      <c r="G4" s="187"/>
-      <c r="H4" s="187" t="s">
+      <c r="G4" s="199"/>
+      <c r="H4" s="199" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="187"/>
-      <c r="J4" s="187"/>
+      <c r="I4" s="199"/>
+      <c r="J4" s="199"/>
     </row>
     <row r="5" spans="1:12" s="33" customFormat="1" ht="11.25">
       <c r="A5" s="32">
@@ -7950,8 +10756,8 @@
       <c r="C5" s="114"/>
       <c r="D5" s="114"/>
       <c r="E5" s="31"/>
-      <c r="F5" s="229"/>
-      <c r="G5" s="230"/>
+      <c r="F5" s="234"/>
+      <c r="G5" s="235"/>
       <c r="H5" s="231"/>
       <c r="I5" s="232"/>
       <c r="J5" s="233"/>
@@ -7964,8 +10770,8 @@
       <c r="C6" s="114"/>
       <c r="D6" s="114"/>
       <c r="E6" s="31"/>
-      <c r="F6" s="229"/>
-      <c r="G6" s="230"/>
+      <c r="F6" s="234"/>
+      <c r="G6" s="235"/>
       <c r="H6" s="231"/>
       <c r="I6" s="232"/>
       <c r="J6" s="233"/>
@@ -7978,8 +10784,8 @@
       <c r="C7" s="114"/>
       <c r="D7" s="114"/>
       <c r="E7" s="31"/>
-      <c r="F7" s="229"/>
-      <c r="G7" s="230"/>
+      <c r="F7" s="234"/>
+      <c r="G7" s="235"/>
       <c r="H7" s="231"/>
       <c r="I7" s="232"/>
       <c r="J7" s="233"/>
@@ -7992,8 +10798,8 @@
       <c r="C8" s="32"/>
       <c r="D8" s="32"/>
       <c r="E8" s="31"/>
-      <c r="F8" s="229"/>
-      <c r="G8" s="230"/>
+      <c r="F8" s="234"/>
+      <c r="G8" s="235"/>
       <c r="H8" s="231"/>
       <c r="I8" s="232"/>
       <c r="J8" s="233"/>
@@ -8006,8 +10812,8 @@
       <c r="C9" s="32"/>
       <c r="D9" s="32"/>
       <c r="E9" s="31"/>
-      <c r="F9" s="229"/>
-      <c r="G9" s="230"/>
+      <c r="F9" s="234"/>
+      <c r="G9" s="235"/>
       <c r="H9" s="231"/>
       <c r="I9" s="232"/>
       <c r="J9" s="233"/>
@@ -8020,8 +10826,8 @@
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
       <c r="E10" s="31"/>
-      <c r="F10" s="229"/>
-      <c r="G10" s="230"/>
+      <c r="F10" s="234"/>
+      <c r="G10" s="235"/>
       <c r="H10" s="231"/>
       <c r="I10" s="232"/>
       <c r="J10" s="233"/>
@@ -8034,8 +10840,8 @@
       <c r="C11" s="32"/>
       <c r="D11" s="32"/>
       <c r="E11" s="31"/>
-      <c r="F11" s="229"/>
-      <c r="G11" s="230"/>
+      <c r="F11" s="234"/>
+      <c r="G11" s="235"/>
       <c r="H11" s="231"/>
       <c r="I11" s="232"/>
       <c r="J11" s="233"/>
@@ -8048,8 +10854,8 @@
       <c r="C12" s="32"/>
       <c r="D12" s="32"/>
       <c r="E12" s="31"/>
-      <c r="F12" s="229"/>
-      <c r="G12" s="230"/>
+      <c r="F12" s="234"/>
+      <c r="G12" s="235"/>
       <c r="H12" s="231"/>
       <c r="I12" s="232"/>
       <c r="J12" s="233"/>
@@ -8062,8 +10868,8 @@
       <c r="C13" s="32"/>
       <c r="D13" s="32"/>
       <c r="E13" s="31"/>
-      <c r="F13" s="229"/>
-      <c r="G13" s="230"/>
+      <c r="F13" s="234"/>
+      <c r="G13" s="235"/>
       <c r="H13" s="231"/>
       <c r="I13" s="232"/>
       <c r="J13" s="233"/>
@@ -8076,8 +10882,8 @@
       <c r="C14" s="32"/>
       <c r="D14" s="32"/>
       <c r="E14" s="31"/>
-      <c r="F14" s="229"/>
-      <c r="G14" s="230"/>
+      <c r="F14" s="234"/>
+      <c r="G14" s="235"/>
       <c r="H14" s="231"/>
       <c r="I14" s="232"/>
       <c r="J14" s="233"/>
@@ -8085,12 +10891,11 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="23">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="F12:G12"/>
     <mergeCell ref="H11:J11"/>
     <mergeCell ref="H12:J12"/>
     <mergeCell ref="F10:G10"/>
@@ -8103,11 +10908,12 @@
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="H10:J10"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:J5"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E14">
@@ -8125,8 +10931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R1048244"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -8153,21 +10959,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="199" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
+      <c r="B1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
       <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="236" t="str">
+      <c r="G1" s="239" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="H1" s="236"/>
+      <c r="H1" s="239"/>
       <c r="I1" s="26" t="s">
         <v>3</v>
       </c>
@@ -8185,28 +10991,28 @@
       <c r="M1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="242" t="s">
+      <c r="N1" s="236" t="s">
         <v>160</v>
       </c>
-      <c r="O1" s="243"/>
-      <c r="P1" s="244"/>
+      <c r="O1" s="237"/>
+      <c r="P1" s="238"/>
       <c r="Q1" s="47"/>
       <c r="R1" s="47"/>
     </row>
     <row r="2" spans="1:18" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="187"/>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
+      <c r="A2" s="199"/>
+      <c r="B2" s="199"/>
+      <c r="C2" s="199"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="199"/>
       <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="236" t="str">
+      <c r="G2" s="239" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT-CRM</v>
       </c>
-      <c r="H2" s="236"/>
+      <c r="H2" s="239"/>
       <c r="I2" s="26" t="s">
         <v>49</v>
       </c>
@@ -8224,12 +11030,12 @@
       <c r="M2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="242" t="str">
+      <c r="N2" s="236" t="str">
         <f>'Update History'!J2</f>
         <v>09/02/2018</v>
       </c>
-      <c r="O2" s="243"/>
-      <c r="P2" s="244"/>
+      <c r="O2" s="237"/>
+      <c r="P2" s="238"/>
       <c r="Q2" s="47"/>
       <c r="R2" s="47"/>
     </row>
@@ -8294,13 +11100,15 @@
       <c r="F5" s="106" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="105"/>
-      <c r="H5" s="199" t="s">
+      <c r="G5" s="105" t="s">
+        <v>204</v>
+      </c>
+      <c r="H5" s="196" t="s">
         <v>194</v>
       </c>
-      <c r="I5" s="240"/>
-      <c r="J5" s="240"/>
-      <c r="K5" s="241"/>
+      <c r="I5" s="243"/>
+      <c r="J5" s="243"/>
+      <c r="K5" s="244"/>
       <c r="L5" s="145" t="s">
         <v>195</v>
       </c>
@@ -8334,13 +11142,15 @@
       <c r="F6" s="106" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="105"/>
-      <c r="H6" s="194" t="s">
+      <c r="G6" s="105" t="s">
+        <v>205</v>
+      </c>
+      <c r="H6" s="191" t="s">
         <v>197</v>
       </c>
-      <c r="I6" s="195"/>
-      <c r="J6" s="195"/>
-      <c r="K6" s="196"/>
+      <c r="I6" s="192"/>
+      <c r="J6" s="192"/>
+      <c r="K6" s="193"/>
       <c r="L6" s="162" t="s">
         <v>200</v>
       </c>
@@ -8359,20 +11169,16 @@
     </row>
     <row r="7" spans="1:18" s="33" customFormat="1" ht="11.25">
       <c r="A7" s="123"/>
-      <c r="B7" s="123">
-        <v>92</v>
-      </c>
-      <c r="C7" s="159">
-        <v>1</v>
-      </c>
+      <c r="B7" s="123"/>
+      <c r="C7" s="159"/>
       <c r="D7" s="126"/>
       <c r="E7" s="106"/>
       <c r="F7" s="106"/>
       <c r="G7" s="105"/>
-      <c r="H7" s="194"/>
-      <c r="I7" s="195"/>
-      <c r="J7" s="195"/>
-      <c r="K7" s="196"/>
+      <c r="H7" s="191"/>
+      <c r="I7" s="192"/>
+      <c r="J7" s="192"/>
+      <c r="K7" s="193"/>
       <c r="L7" s="162"/>
       <c r="M7" s="162"/>
       <c r="N7" s="160"/>
@@ -8383,20 +11189,16 @@
     </row>
     <row r="8" spans="1:18" s="33" customFormat="1" ht="11.25">
       <c r="A8" s="146"/>
-      <c r="B8" s="146">
-        <v>92</v>
-      </c>
-      <c r="C8" s="159">
-        <v>1</v>
-      </c>
+      <c r="B8" s="146"/>
+      <c r="C8" s="159"/>
       <c r="D8" s="126"/>
       <c r="E8" s="106"/>
       <c r="F8" s="106"/>
       <c r="G8" s="105"/>
-      <c r="H8" s="194"/>
-      <c r="I8" s="195"/>
-      <c r="J8" s="195"/>
-      <c r="K8" s="196"/>
+      <c r="H8" s="191"/>
+      <c r="I8" s="192"/>
+      <c r="J8" s="192"/>
+      <c r="K8" s="193"/>
       <c r="L8" s="162"/>
       <c r="M8" s="162"/>
       <c r="N8" s="160"/>
@@ -8407,20 +11209,16 @@
     </row>
     <row r="9" spans="1:18" s="33" customFormat="1" ht="11.25">
       <c r="A9" s="123"/>
-      <c r="B9" s="57">
-        <v>92</v>
-      </c>
-      <c r="C9" s="159">
-        <v>1</v>
-      </c>
+      <c r="B9" s="57"/>
+      <c r="C9" s="159"/>
       <c r="D9" s="126"/>
       <c r="E9" s="106"/>
       <c r="F9" s="106"/>
       <c r="G9" s="105"/>
-      <c r="H9" s="194"/>
-      <c r="I9" s="195"/>
-      <c r="J9" s="195"/>
-      <c r="K9" s="196"/>
+      <c r="H9" s="191"/>
+      <c r="I9" s="192"/>
+      <c r="J9" s="192"/>
+      <c r="K9" s="193"/>
       <c r="L9" s="164"/>
       <c r="M9" s="164"/>
       <c r="N9" s="160"/>
@@ -8431,20 +11229,16 @@
     </row>
     <row r="10" spans="1:18" s="33" customFormat="1" ht="11.25">
       <c r="A10" s="146"/>
-      <c r="B10" s="146">
-        <v>92</v>
-      </c>
-      <c r="C10" s="159">
-        <v>1</v>
-      </c>
+      <c r="B10" s="146"/>
+      <c r="C10" s="159"/>
       <c r="D10" s="126"/>
       <c r="E10" s="106"/>
       <c r="F10" s="106"/>
       <c r="G10" s="105"/>
-      <c r="H10" s="194"/>
-      <c r="I10" s="195"/>
-      <c r="J10" s="195"/>
-      <c r="K10" s="196"/>
+      <c r="H10" s="191"/>
+      <c r="I10" s="192"/>
+      <c r="J10" s="192"/>
+      <c r="K10" s="193"/>
       <c r="L10" s="162"/>
       <c r="M10" s="162"/>
       <c r="N10" s="160"/>
@@ -8461,10 +11255,10 @@
       <c r="E11" s="106"/>
       <c r="F11" s="106"/>
       <c r="G11" s="105"/>
-      <c r="H11" s="194"/>
-      <c r="I11" s="195"/>
-      <c r="J11" s="195"/>
-      <c r="K11" s="196"/>
+      <c r="H11" s="191"/>
+      <c r="I11" s="192"/>
+      <c r="J11" s="192"/>
+      <c r="K11" s="193"/>
       <c r="L11" s="162"/>
       <c r="M11" s="162"/>
       <c r="N11" s="160"/>
@@ -8481,10 +11275,10 @@
       <c r="E12" s="106"/>
       <c r="F12" s="106"/>
       <c r="G12" s="105"/>
-      <c r="H12" s="194"/>
-      <c r="I12" s="195"/>
-      <c r="J12" s="195"/>
-      <c r="K12" s="196"/>
+      <c r="H12" s="191"/>
+      <c r="I12" s="192"/>
+      <c r="J12" s="192"/>
+      <c r="K12" s="193"/>
       <c r="L12" s="164"/>
       <c r="M12" s="164"/>
       <c r="N12" s="160"/>
@@ -8501,10 +11295,10 @@
       <c r="E13" s="106"/>
       <c r="F13" s="106"/>
       <c r="G13" s="105"/>
-      <c r="H13" s="194"/>
-      <c r="I13" s="195"/>
-      <c r="J13" s="195"/>
-      <c r="K13" s="196"/>
+      <c r="H13" s="191"/>
+      <c r="I13" s="192"/>
+      <c r="J13" s="192"/>
+      <c r="K13" s="193"/>
       <c r="L13" s="162"/>
       <c r="M13" s="162"/>
       <c r="N13" s="160"/>
@@ -8521,10 +11315,10 @@
       <c r="E14" s="106"/>
       <c r="F14" s="106"/>
       <c r="G14" s="105"/>
-      <c r="H14" s="194"/>
-      <c r="I14" s="195"/>
-      <c r="J14" s="195"/>
-      <c r="K14" s="196"/>
+      <c r="H14" s="191"/>
+      <c r="I14" s="192"/>
+      <c r="J14" s="192"/>
+      <c r="K14" s="193"/>
       <c r="L14" s="164"/>
       <c r="M14" s="164"/>
       <c r="N14" s="160"/>
@@ -8541,10 +11335,10 @@
       <c r="E15" s="106"/>
       <c r="F15" s="106"/>
       <c r="G15" s="105"/>
-      <c r="H15" s="237"/>
-      <c r="I15" s="238"/>
-      <c r="J15" s="238"/>
-      <c r="K15" s="239"/>
+      <c r="H15" s="240"/>
+      <c r="I15" s="241"/>
+      <c r="J15" s="241"/>
+      <c r="K15" s="242"/>
       <c r="L15" s="164"/>
       <c r="M15" s="164"/>
       <c r="N15" s="163"/>
@@ -8561,10 +11355,10 @@
       <c r="E16" s="106"/>
       <c r="F16" s="106"/>
       <c r="G16" s="105"/>
-      <c r="H16" s="194"/>
-      <c r="I16" s="195"/>
-      <c r="J16" s="195"/>
-      <c r="K16" s="196"/>
+      <c r="H16" s="191"/>
+      <c r="I16" s="192"/>
+      <c r="J16" s="192"/>
+      <c r="K16" s="193"/>
       <c r="L16" s="162"/>
       <c r="M16" s="162"/>
       <c r="N16" s="160"/>
@@ -8581,10 +11375,10 @@
       <c r="E17" s="106"/>
       <c r="F17" s="106"/>
       <c r="G17" s="105"/>
-      <c r="H17" s="199"/>
-      <c r="I17" s="240"/>
-      <c r="J17" s="240"/>
-      <c r="K17" s="241"/>
+      <c r="H17" s="196"/>
+      <c r="I17" s="243"/>
+      <c r="J17" s="243"/>
+      <c r="K17" s="244"/>
       <c r="L17" s="145"/>
       <c r="M17" s="145"/>
       <c r="N17" s="160"/>
@@ -8601,10 +11395,10 @@
       <c r="E18" s="106"/>
       <c r="F18" s="106"/>
       <c r="G18" s="105"/>
-      <c r="H18" s="199"/>
-      <c r="I18" s="240"/>
-      <c r="J18" s="240"/>
-      <c r="K18" s="241"/>
+      <c r="H18" s="196"/>
+      <c r="I18" s="243"/>
+      <c r="J18" s="243"/>
+      <c r="K18" s="244"/>
       <c r="L18" s="145"/>
       <c r="M18" s="145"/>
       <c r="N18" s="160"/>
@@ -8621,10 +11415,10 @@
       <c r="E19" s="106"/>
       <c r="F19" s="106"/>
       <c r="G19" s="105"/>
-      <c r="H19" s="199"/>
-      <c r="I19" s="240"/>
-      <c r="J19" s="240"/>
-      <c r="K19" s="241"/>
+      <c r="H19" s="196"/>
+      <c r="I19" s="243"/>
+      <c r="J19" s="243"/>
+      <c r="K19" s="244"/>
       <c r="L19" s="145"/>
       <c r="M19" s="145"/>
       <c r="N19" s="160"/>
@@ -8641,10 +11435,10 @@
       <c r="E20" s="106"/>
       <c r="F20" s="106"/>
       <c r="G20" s="105"/>
-      <c r="H20" s="194"/>
-      <c r="I20" s="195"/>
-      <c r="J20" s="195"/>
-      <c r="K20" s="196"/>
+      <c r="H20" s="191"/>
+      <c r="I20" s="192"/>
+      <c r="J20" s="192"/>
+      <c r="K20" s="193"/>
       <c r="L20" s="108"/>
       <c r="M20" s="108"/>
       <c r="N20" s="65"/>
@@ -8659,12 +11453,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="22">
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H10:K10"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G2:H2"/>
@@ -8681,6 +11469,12 @@
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="H18:K18"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H10:K10"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="N1048244:N1048576 N5 N17:N19"/>
@@ -8707,10 +11501,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M99"/>
+  <dimension ref="A1:M121"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="106" zoomScaleSheetLayoutView="106" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScale="106" zoomScaleSheetLayoutView="106" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -8726,10 +11520,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="12" customHeight="1">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="199" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="187"/>
+      <c r="B1" s="199"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -8760,8 +11554,8 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="12" customHeight="1">
-      <c r="A2" s="187"/>
-      <c r="B2" s="187"/>
+      <c r="A2" s="199"/>
+      <c r="B2" s="199"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
@@ -9007,7 +11801,12 @@
       <c r="M17" s="40"/>
     </row>
     <row r="18" spans="1:13" ht="12" customHeight="1">
-      <c r="B18" s="40"/>
+      <c r="A18" s="223" t="s">
+        <v>207</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>206</v>
+      </c>
       <c r="C18" s="40"/>
       <c r="D18" s="40"/>
       <c r="E18" s="40"/>
@@ -9021,6 +11820,7 @@
       <c r="M18" s="40"/>
     </row>
     <row r="19" spans="1:13" ht="12" customHeight="1">
+      <c r="A19" s="225"/>
       <c r="B19" s="40"/>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
@@ -9127,7 +11927,9 @@
       <c r="M25" s="40"/>
     </row>
     <row r="26" spans="1:13" ht="12" customHeight="1">
-      <c r="A26" s="60"/>
+      <c r="A26" s="223" t="s">
+        <v>207</v>
+      </c>
       <c r="B26" s="40"/>
       <c r="C26" s="40"/>
       <c r="D26" s="40"/>
@@ -9142,7 +11944,7 @@
       <c r="M26" s="40"/>
     </row>
     <row r="27" spans="1:13" ht="12" customHeight="1">
-      <c r="A27" s="60"/>
+      <c r="A27" s="224"/>
       <c r="B27" s="40"/>
       <c r="C27" s="40"/>
       <c r="D27" s="40"/>
@@ -9157,7 +11959,7 @@
       <c r="M27" s="40"/>
     </row>
     <row r="28" spans="1:13" ht="12" customHeight="1">
-      <c r="A28" s="60"/>
+      <c r="A28" s="224"/>
       <c r="B28" s="40"/>
       <c r="C28" s="40"/>
       <c r="D28" s="40"/>
@@ -9172,7 +11974,7 @@
       <c r="M28" s="40"/>
     </row>
     <row r="29" spans="1:13" ht="12" customHeight="1">
-      <c r="A29" s="60"/>
+      <c r="A29" s="224"/>
       <c r="B29" s="40"/>
       <c r="C29" s="40"/>
       <c r="D29" s="40"/>
@@ -9187,7 +11989,7 @@
       <c r="M29" s="40"/>
     </row>
     <row r="30" spans="1:13" ht="12" customHeight="1">
-      <c r="A30" s="60"/>
+      <c r="A30" s="224"/>
       <c r="B30" s="40"/>
       <c r="C30" s="40"/>
       <c r="D30" s="40"/>
@@ -9202,7 +12004,7 @@
       <c r="M30" s="40"/>
     </row>
     <row r="31" spans="1:13" ht="12" customHeight="1">
-      <c r="A31" s="60"/>
+      <c r="A31" s="224"/>
       <c r="B31" s="40"/>
       <c r="C31" s="40"/>
       <c r="D31" s="40"/>
@@ -9217,7 +12019,7 @@
       <c r="M31" s="40"/>
     </row>
     <row r="32" spans="1:13" ht="12" customHeight="1">
-      <c r="A32" s="60"/>
+      <c r="A32" s="224"/>
       <c r="B32" s="40"/>
       <c r="C32" s="40"/>
       <c r="D32" s="40"/>
@@ -9232,7 +12034,7 @@
       <c r="M32" s="40"/>
     </row>
     <row r="33" spans="1:13" ht="12" customHeight="1">
-      <c r="A33" s="60"/>
+      <c r="A33" s="224"/>
       <c r="B33" s="40"/>
       <c r="C33" s="40"/>
       <c r="D33" s="40"/>
@@ -9247,7 +12049,7 @@
       <c r="M33" s="40"/>
     </row>
     <row r="34" spans="1:13" ht="12" customHeight="1">
-      <c r="A34" s="60"/>
+      <c r="A34" s="224"/>
       <c r="B34" s="40"/>
       <c r="C34" s="40"/>
       <c r="D34" s="40"/>
@@ -9262,7 +12064,7 @@
       <c r="M34" s="40"/>
     </row>
     <row r="35" spans="1:13" ht="12" customHeight="1">
-      <c r="A35" s="60"/>
+      <c r="A35" s="224"/>
       <c r="B35" s="40"/>
       <c r="C35" s="40"/>
       <c r="D35" s="40"/>
@@ -9277,7 +12079,7 @@
       <c r="M35" s="40"/>
     </row>
     <row r="36" spans="1:13" ht="12" customHeight="1">
-      <c r="A36" s="60"/>
+      <c r="A36" s="224"/>
       <c r="B36" s="40"/>
       <c r="C36" s="40"/>
       <c r="D36" s="40"/>
@@ -9292,7 +12094,7 @@
       <c r="M36" s="40"/>
     </row>
     <row r="37" spans="1:13" ht="12" customHeight="1">
-      <c r="A37" s="60"/>
+      <c r="A37" s="224"/>
       <c r="B37" s="40"/>
       <c r="C37" s="40"/>
       <c r="D37" s="40"/>
@@ -9307,7 +12109,7 @@
       <c r="M37" s="40"/>
     </row>
     <row r="38" spans="1:13" ht="12" customHeight="1">
-      <c r="A38" s="60"/>
+      <c r="A38" s="224"/>
       <c r="B38" s="40"/>
       <c r="C38" s="40"/>
       <c r="D38" s="40"/>
@@ -9322,7 +12124,7 @@
       <c r="M38" s="40"/>
     </row>
     <row r="39" spans="1:13" ht="12" customHeight="1">
-      <c r="A39" s="60"/>
+      <c r="A39" s="224"/>
       <c r="B39" s="40"/>
       <c r="C39" s="40"/>
       <c r="D39" s="40"/>
@@ -9337,11 +12139,9 @@
       <c r="M39" s="40"/>
     </row>
     <row r="40" spans="1:13" ht="12" customHeight="1">
-      <c r="A40" s="60" t="s">
-        <v>119</v>
-      </c>
+      <c r="A40" s="224"/>
       <c r="B40" s="40"/>
-      <c r="C40" s="67"/>
+      <c r="C40" s="40"/>
       <c r="D40" s="40"/>
       <c r="E40" s="40"/>
       <c r="F40" s="40"/>
@@ -9354,10 +12154,9 @@
       <c r="M40" s="40"/>
     </row>
     <row r="41" spans="1:13" ht="12" customHeight="1">
-      <c r="B41" s="64" t="s">
-        <v>117</v>
-      </c>
-      <c r="C41" s="67"/>
+      <c r="A41" s="224"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
       <c r="D41" s="40"/>
       <c r="E41" s="40"/>
       <c r="F41" s="40"/>
@@ -9370,8 +12169,9 @@
       <c r="M41" s="40"/>
     </row>
     <row r="42" spans="1:13" ht="12" customHeight="1">
+      <c r="A42" s="224"/>
       <c r="B42" s="40"/>
-      <c r="C42" s="67"/>
+      <c r="C42" s="40"/>
       <c r="D42" s="40"/>
       <c r="E42" s="40"/>
       <c r="F42" s="40"/>
@@ -9384,8 +12184,9 @@
       <c r="M42" s="40"/>
     </row>
     <row r="43" spans="1:13" ht="12" customHeight="1">
+      <c r="A43" s="224"/>
       <c r="B43" s="40"/>
-      <c r="C43" s="67"/>
+      <c r="C43" s="40"/>
       <c r="D43" s="40"/>
       <c r="E43" s="40"/>
       <c r="F43" s="40"/>
@@ -9398,9 +12199,8 @@
       <c r="M43" s="40"/>
     </row>
     <row r="44" spans="1:13" ht="12" customHeight="1">
-      <c r="B44" s="64" t="s">
-        <v>118</v>
-      </c>
+      <c r="A44" s="224"/>
+      <c r="B44" s="40"/>
       <c r="C44" s="40"/>
       <c r="D44" s="40"/>
       <c r="E44" s="40"/>
@@ -9414,8 +12214,9 @@
       <c r="M44" s="40"/>
     </row>
     <row r="45" spans="1:13" ht="12" customHeight="1">
-      <c r="B45" s="64"/>
-      <c r="C45" s="67"/>
+      <c r="A45" s="224"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="40"/>
       <c r="D45" s="40"/>
       <c r="E45" s="40"/>
       <c r="F45" s="40"/>
@@ -9428,7 +12229,7 @@
       <c r="M45" s="40"/>
     </row>
     <row r="46" spans="1:13" ht="12" customHeight="1">
-      <c r="A46" s="39"/>
+      <c r="A46" s="224"/>
       <c r="B46" s="40"/>
       <c r="C46" s="40"/>
       <c r="D46" s="40"/>
@@ -9443,11 +12244,9 @@
       <c r="M46" s="40"/>
     </row>
     <row r="47" spans="1:13" ht="12" customHeight="1">
-      <c r="A47" s="60" t="s">
-        <v>120</v>
-      </c>
+      <c r="A47" s="224"/>
       <c r="B47" s="40"/>
-      <c r="C47" s="67"/>
+      <c r="C47" s="40"/>
       <c r="D47" s="40"/>
       <c r="E47" s="40"/>
       <c r="F47" s="40"/>
@@ -9460,10 +12259,9 @@
       <c r="M47" s="40"/>
     </row>
     <row r="48" spans="1:13" ht="12" customHeight="1">
-      <c r="B48" s="64" t="s">
-        <v>117</v>
-      </c>
-      <c r="C48" s="67"/>
+      <c r="A48" s="224"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="40"/>
       <c r="D48" s="40"/>
       <c r="E48" s="40"/>
       <c r="F48" s="40"/>
@@ -9476,8 +12274,9 @@
       <c r="M48" s="40"/>
     </row>
     <row r="49" spans="1:13" ht="12" customHeight="1">
+      <c r="A49" s="224"/>
       <c r="B49" s="40"/>
-      <c r="C49" s="67"/>
+      <c r="C49" s="40"/>
       <c r="D49" s="40"/>
       <c r="E49" s="40"/>
       <c r="F49" s="40"/>
@@ -9490,8 +12289,9 @@
       <c r="M49" s="40"/>
     </row>
     <row r="50" spans="1:13" ht="12" customHeight="1">
+      <c r="A50" s="224"/>
       <c r="B50" s="40"/>
-      <c r="C50" s="67"/>
+      <c r="C50" s="40"/>
       <c r="D50" s="40"/>
       <c r="E50" s="40"/>
       <c r="F50" s="40"/>
@@ -9504,9 +12304,8 @@
       <c r="M50" s="40"/>
     </row>
     <row r="51" spans="1:13" ht="12" customHeight="1">
-      <c r="B51" s="64" t="s">
-        <v>118</v>
-      </c>
+      <c r="A51" s="224"/>
+      <c r="B51" s="40"/>
       <c r="C51" s="40"/>
       <c r="D51" s="40"/>
       <c r="E51" s="40"/>
@@ -9520,8 +12319,9 @@
       <c r="M51" s="40"/>
     </row>
     <row r="52" spans="1:13" ht="12" customHeight="1">
-      <c r="B52" s="64"/>
-      <c r="C52" s="67"/>
+      <c r="A52" s="224"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="40"/>
       <c r="D52" s="40"/>
       <c r="E52" s="40"/>
       <c r="F52" s="40"/>
@@ -9534,8 +12334,8 @@
       <c r="M52" s="40"/>
     </row>
     <row r="53" spans="1:13" ht="12" customHeight="1">
-      <c r="A53" s="39"/>
-      <c r="B53" s="67"/>
+      <c r="A53" s="224"/>
+      <c r="B53" s="40"/>
       <c r="C53" s="40"/>
       <c r="D53" s="40"/>
       <c r="E53" s="40"/>
@@ -9549,11 +12349,9 @@
       <c r="M53" s="40"/>
     </row>
     <row r="54" spans="1:13" ht="12" customHeight="1">
-      <c r="A54" s="60" t="s">
-        <v>121</v>
-      </c>
+      <c r="A54" s="224"/>
       <c r="B54" s="40"/>
-      <c r="C54" s="67"/>
+      <c r="C54" s="40"/>
       <c r="D54" s="40"/>
       <c r="E54" s="40"/>
       <c r="F54" s="40"/>
@@ -9566,10 +12364,9 @@
       <c r="M54" s="40"/>
     </row>
     <row r="55" spans="1:13" ht="12" customHeight="1">
-      <c r="B55" s="64" t="s">
-        <v>122</v>
-      </c>
-      <c r="C55" s="67"/>
+      <c r="A55" s="224"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="40"/>
       <c r="D55" s="40"/>
       <c r="E55" s="40"/>
       <c r="F55" s="40"/>
@@ -9582,8 +12379,9 @@
       <c r="M55" s="40"/>
     </row>
     <row r="56" spans="1:13" ht="12" customHeight="1">
-      <c r="B56" s="64"/>
-      <c r="C56" s="67"/>
+      <c r="A56" s="224"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="40"/>
       <c r="D56" s="40"/>
       <c r="E56" s="40"/>
       <c r="F56" s="40"/>
@@ -9596,8 +12394,9 @@
       <c r="M56" s="40"/>
     </row>
     <row r="57" spans="1:13" ht="12" customHeight="1">
+      <c r="A57" s="224"/>
       <c r="B57" s="40"/>
-      <c r="C57" s="67"/>
+      <c r="C57" s="40"/>
       <c r="D57" s="40"/>
       <c r="E57" s="40"/>
       <c r="F57" s="40"/>
@@ -9610,9 +12409,8 @@
       <c r="M57" s="40"/>
     </row>
     <row r="58" spans="1:13" ht="12" customHeight="1">
-      <c r="B58" s="64" t="s">
-        <v>123</v>
-      </c>
+      <c r="A58" s="225"/>
+      <c r="B58" s="40"/>
       <c r="C58" s="40"/>
       <c r="D58" s="40"/>
       <c r="E58" s="40"/>
@@ -9626,7 +12424,8 @@
       <c r="M58" s="40"/>
     </row>
     <row r="59" spans="1:13" ht="12" customHeight="1">
-      <c r="B59" s="64"/>
+      <c r="A59" s="60"/>
+      <c r="B59" s="40"/>
       <c r="C59" s="40"/>
       <c r="D59" s="40"/>
       <c r="E59" s="40"/>
@@ -9640,11 +12439,9 @@
       <c r="M59" s="40"/>
     </row>
     <row r="60" spans="1:13" ht="12" customHeight="1">
-      <c r="A60" s="60" t="s">
-        <v>124</v>
-      </c>
+      <c r="A60" s="60"/>
       <c r="B60" s="40"/>
-      <c r="C60" s="67"/>
+      <c r="C60" s="40"/>
       <c r="D60" s="40"/>
       <c r="E60" s="40"/>
       <c r="F60" s="40"/>
@@ -9657,8 +12454,9 @@
       <c r="M60" s="40"/>
     </row>
     <row r="61" spans="1:13" ht="12" customHeight="1">
-      <c r="B61" s="64"/>
-      <c r="C61" s="67"/>
+      <c r="A61" s="60"/>
+      <c r="B61" s="40"/>
+      <c r="C61" s="40"/>
       <c r="D61" s="40"/>
       <c r="E61" s="40"/>
       <c r="F61" s="40"/>
@@ -9671,6 +12469,9 @@
       <c r="M61" s="40"/>
     </row>
     <row r="62" spans="1:13" ht="12" customHeight="1">
+      <c r="A62" s="60" t="s">
+        <v>119</v>
+      </c>
       <c r="B62" s="40"/>
       <c r="C62" s="67"/>
       <c r="D62" s="40"/>
@@ -9685,8 +12486,10 @@
       <c r="M62" s="40"/>
     </row>
     <row r="63" spans="1:13" ht="12" customHeight="1">
-      <c r="B63" s="64"/>
-      <c r="C63" s="40"/>
+      <c r="B63" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="C63" s="67"/>
       <c r="D63" s="40"/>
       <c r="E63" s="40"/>
       <c r="F63" s="40"/>
@@ -9699,8 +12502,8 @@
       <c r="M63" s="40"/>
     </row>
     <row r="64" spans="1:13" ht="12" customHeight="1">
-      <c r="B64" s="64"/>
-      <c r="C64" s="40"/>
+      <c r="B64" s="40"/>
+      <c r="C64" s="67"/>
       <c r="D64" s="40"/>
       <c r="E64" s="40"/>
       <c r="F64" s="40"/>
@@ -9714,7 +12517,7 @@
     </row>
     <row r="65" spans="1:13" ht="12" customHeight="1">
       <c r="B65" s="40"/>
-      <c r="C65" s="40"/>
+      <c r="C65" s="67"/>
       <c r="D65" s="40"/>
       <c r="E65" s="40"/>
       <c r="F65" s="40"/>
@@ -9727,7 +12530,9 @@
       <c r="M65" s="40"/>
     </row>
     <row r="66" spans="1:13" ht="12" customHeight="1">
-      <c r="B66" s="40"/>
+      <c r="B66" s="64" t="s">
+        <v>118</v>
+      </c>
       <c r="C66" s="40"/>
       <c r="D66" s="40"/>
       <c r="E66" s="40"/>
@@ -9742,7 +12547,7 @@
     </row>
     <row r="67" spans="1:13" ht="12" customHeight="1">
       <c r="B67" s="64"/>
-      <c r="C67" s="40"/>
+      <c r="C67" s="67"/>
       <c r="D67" s="40"/>
       <c r="E67" s="40"/>
       <c r="F67" s="40"/>
@@ -9757,7 +12562,7 @@
     <row r="68" spans="1:13" ht="12" customHeight="1">
       <c r="A68" s="39"/>
       <c r="B68" s="40"/>
-      <c r="C68" s="67"/>
+      <c r="C68" s="40"/>
       <c r="D68" s="40"/>
       <c r="E68" s="40"/>
       <c r="F68" s="40"/>
@@ -9770,7 +12575,9 @@
       <c r="M68" s="40"/>
     </row>
     <row r="69" spans="1:13" ht="12" customHeight="1">
-      <c r="A69" s="39"/>
+      <c r="A69" s="60" t="s">
+        <v>120</v>
+      </c>
       <c r="B69" s="40"/>
       <c r="C69" s="67"/>
       <c r="D69" s="40"/>
@@ -9785,8 +12592,9 @@
       <c r="M69" s="40"/>
     </row>
     <row r="70" spans="1:13" ht="12" customHeight="1">
-      <c r="A70" s="39"/>
-      <c r="B70" s="40"/>
+      <c r="B70" s="64" t="s">
+        <v>117</v>
+      </c>
       <c r="C70" s="67"/>
       <c r="D70" s="40"/>
       <c r="E70" s="40"/>
@@ -9800,9 +12608,8 @@
       <c r="M70" s="40"/>
     </row>
     <row r="71" spans="1:13" ht="12" customHeight="1">
-      <c r="A71" s="60"/>
       <c r="B71" s="40"/>
-      <c r="C71" s="40"/>
+      <c r="C71" s="67"/>
       <c r="D71" s="40"/>
       <c r="E71" s="40"/>
       <c r="F71" s="40"/>
@@ -9815,8 +12622,8 @@
       <c r="M71" s="40"/>
     </row>
     <row r="72" spans="1:13" ht="12" customHeight="1">
-      <c r="B72" s="64"/>
-      <c r="C72" s="40"/>
+      <c r="B72" s="40"/>
+      <c r="C72" s="67"/>
       <c r="D72" s="40"/>
       <c r="E72" s="40"/>
       <c r="F72" s="40"/>
@@ -9829,7 +12636,9 @@
       <c r="M72" s="40"/>
     </row>
     <row r="73" spans="1:13" ht="12" customHeight="1">
-      <c r="B73" s="40"/>
+      <c r="B73" s="64" t="s">
+        <v>118</v>
+      </c>
       <c r="C73" s="40"/>
       <c r="D73" s="40"/>
       <c r="E73" s="40"/>
@@ -9844,7 +12653,7 @@
     </row>
     <row r="74" spans="1:13" ht="12" customHeight="1">
       <c r="B74" s="64"/>
-      <c r="C74" s="40"/>
+      <c r="C74" s="67"/>
       <c r="D74" s="40"/>
       <c r="E74" s="40"/>
       <c r="F74" s="40"/>
@@ -9858,7 +12667,7 @@
     </row>
     <row r="75" spans="1:13" ht="12" customHeight="1">
       <c r="A75" s="39"/>
-      <c r="B75" s="40"/>
+      <c r="B75" s="67"/>
       <c r="C75" s="40"/>
       <c r="D75" s="40"/>
       <c r="E75" s="40"/>
@@ -9872,9 +12681,11 @@
       <c r="M75" s="40"/>
     </row>
     <row r="76" spans="1:13" ht="12" customHeight="1">
-      <c r="A76" s="60"/>
+      <c r="A76" s="60" t="s">
+        <v>121</v>
+      </c>
       <c r="B76" s="40"/>
-      <c r="C76" s="40"/>
+      <c r="C76" s="67"/>
       <c r="D76" s="40"/>
       <c r="E76" s="40"/>
       <c r="F76" s="40"/>
@@ -9887,9 +12698,10 @@
       <c r="M76" s="40"/>
     </row>
     <row r="77" spans="1:13" ht="12" customHeight="1">
-      <c r="A77" s="39"/>
-      <c r="B77" s="40"/>
-      <c r="C77" s="40"/>
+      <c r="B77" s="64" t="s">
+        <v>122</v>
+      </c>
+      <c r="C77" s="67"/>
       <c r="D77" s="40"/>
       <c r="E77" s="40"/>
       <c r="F77" s="40"/>
@@ -9902,9 +12714,8 @@
       <c r="M77" s="40"/>
     </row>
     <row r="78" spans="1:13" ht="12" customHeight="1">
-      <c r="A78" s="39"/>
-      <c r="B78" s="40"/>
-      <c r="C78" s="40"/>
+      <c r="B78" s="64"/>
+      <c r="C78" s="67"/>
       <c r="D78" s="40"/>
       <c r="E78" s="40"/>
       <c r="F78" s="40"/>
@@ -9917,9 +12728,8 @@
       <c r="M78" s="40"/>
     </row>
     <row r="79" spans="1:13" ht="12" customHeight="1">
-      <c r="A79" s="39"/>
       <c r="B79" s="40"/>
-      <c r="C79" s="40"/>
+      <c r="C79" s="67"/>
       <c r="D79" s="40"/>
       <c r="E79" s="40"/>
       <c r="F79" s="40"/>
@@ -9932,8 +12742,9 @@
       <c r="M79" s="40"/>
     </row>
     <row r="80" spans="1:13" ht="12" customHeight="1">
-      <c r="A80" s="39"/>
-      <c r="B80" s="40"/>
+      <c r="B80" s="64" t="s">
+        <v>123</v>
+      </c>
       <c r="C80" s="40"/>
       <c r="D80" s="40"/>
       <c r="E80" s="40"/>
@@ -9947,8 +12758,7 @@
       <c r="M80" s="40"/>
     </row>
     <row r="81" spans="1:13" ht="12" customHeight="1">
-      <c r="A81" s="39"/>
-      <c r="B81" s="40"/>
+      <c r="B81" s="64"/>
       <c r="C81" s="40"/>
       <c r="D81" s="40"/>
       <c r="E81" s="40"/>
@@ -9962,9 +12772,11 @@
       <c r="M81" s="40"/>
     </row>
     <row r="82" spans="1:13" ht="12" customHeight="1">
-      <c r="A82" s="39"/>
+      <c r="A82" s="60" t="s">
+        <v>124</v>
+      </c>
       <c r="B82" s="40"/>
-      <c r="C82" s="40"/>
+      <c r="C82" s="67"/>
       <c r="D82" s="40"/>
       <c r="E82" s="40"/>
       <c r="F82" s="40"/>
@@ -9977,9 +12789,8 @@
       <c r="M82" s="40"/>
     </row>
     <row r="83" spans="1:13" ht="12" customHeight="1">
-      <c r="A83" s="39"/>
-      <c r="B83" s="40"/>
-      <c r="C83" s="40"/>
+      <c r="B83" s="64"/>
+      <c r="C83" s="67"/>
       <c r="D83" s="40"/>
       <c r="E83" s="40"/>
       <c r="F83" s="40"/>
@@ -9992,9 +12803,8 @@
       <c r="M83" s="40"/>
     </row>
     <row r="84" spans="1:13" ht="12" customHeight="1">
-      <c r="A84" s="39"/>
       <c r="B84" s="40"/>
-      <c r="C84" s="40"/>
+      <c r="C84" s="67"/>
       <c r="D84" s="40"/>
       <c r="E84" s="40"/>
       <c r="F84" s="40"/>
@@ -10007,8 +12817,7 @@
       <c r="M84" s="40"/>
     </row>
     <row r="85" spans="1:13" ht="12" customHeight="1">
-      <c r="A85" s="39"/>
-      <c r="B85" s="40"/>
+      <c r="B85" s="64"/>
       <c r="C85" s="40"/>
       <c r="D85" s="40"/>
       <c r="E85" s="40"/>
@@ -10022,8 +12831,7 @@
       <c r="M85" s="40"/>
     </row>
     <row r="86" spans="1:13" ht="12" customHeight="1">
-      <c r="A86" s="39"/>
-      <c r="B86" s="40"/>
+      <c r="B86" s="64"/>
       <c r="C86" s="40"/>
       <c r="D86" s="40"/>
       <c r="E86" s="40"/>
@@ -10037,7 +12845,6 @@
       <c r="M86" s="40"/>
     </row>
     <row r="87" spans="1:13" ht="12" customHeight="1">
-      <c r="A87" s="39"/>
       <c r="B87" s="40"/>
       <c r="C87" s="40"/>
       <c r="D87" s="40"/>
@@ -10052,7 +12859,6 @@
       <c r="M87" s="40"/>
     </row>
     <row r="88" spans="1:13" ht="12" customHeight="1">
-      <c r="A88" s="39"/>
       <c r="B88" s="40"/>
       <c r="C88" s="40"/>
       <c r="D88" s="40"/>
@@ -10067,8 +12873,7 @@
       <c r="M88" s="40"/>
     </row>
     <row r="89" spans="1:13" ht="12" customHeight="1">
-      <c r="A89" s="39"/>
-      <c r="B89" s="40"/>
+      <c r="B89" s="64"/>
       <c r="C89" s="40"/>
       <c r="D89" s="40"/>
       <c r="E89" s="40"/>
@@ -10084,7 +12889,7 @@
     <row r="90" spans="1:13" ht="12" customHeight="1">
       <c r="A90" s="39"/>
       <c r="B90" s="40"/>
-      <c r="C90" s="40"/>
+      <c r="C90" s="67"/>
       <c r="D90" s="40"/>
       <c r="E90" s="40"/>
       <c r="F90" s="40"/>
@@ -10099,7 +12904,7 @@
     <row r="91" spans="1:13" ht="12" customHeight="1">
       <c r="A91" s="39"/>
       <c r="B91" s="40"/>
-      <c r="C91" s="40"/>
+      <c r="C91" s="67"/>
       <c r="D91" s="40"/>
       <c r="E91" s="40"/>
       <c r="F91" s="40"/>
@@ -10114,7 +12919,7 @@
     <row r="92" spans="1:13" ht="12" customHeight="1">
       <c r="A92" s="39"/>
       <c r="B92" s="40"/>
-      <c r="C92" s="40"/>
+      <c r="C92" s="67"/>
       <c r="D92" s="40"/>
       <c r="E92" s="40"/>
       <c r="F92" s="40"/>
@@ -10127,7 +12932,7 @@
       <c r="M92" s="40"/>
     </row>
     <row r="93" spans="1:13" ht="12" customHeight="1">
-      <c r="A93" s="39"/>
+      <c r="A93" s="60"/>
       <c r="B93" s="40"/>
       <c r="C93" s="40"/>
       <c r="D93" s="40"/>
@@ -10142,8 +12947,7 @@
       <c r="M93" s="40"/>
     </row>
     <row r="94" spans="1:13" ht="12" customHeight="1">
-      <c r="A94" s="39"/>
-      <c r="B94" s="40"/>
+      <c r="B94" s="64"/>
       <c r="C94" s="40"/>
       <c r="D94" s="40"/>
       <c r="E94" s="40"/>
@@ -10157,7 +12961,6 @@
       <c r="M94" s="40"/>
     </row>
     <row r="95" spans="1:13" ht="12" customHeight="1">
-      <c r="A95" s="39"/>
       <c r="B95" s="40"/>
       <c r="C95" s="40"/>
       <c r="D95" s="40"/>
@@ -10172,8 +12975,7 @@
       <c r="M95" s="40"/>
     </row>
     <row r="96" spans="1:13" ht="12" customHeight="1">
-      <c r="A96" s="39"/>
-      <c r="B96" s="40"/>
+      <c r="B96" s="64"/>
       <c r="C96" s="40"/>
       <c r="D96" s="40"/>
       <c r="E96" s="40"/>
@@ -10202,7 +13004,7 @@
       <c r="M97" s="40"/>
     </row>
     <row r="98" spans="1:13" ht="12" customHeight="1">
-      <c r="A98" s="39"/>
+      <c r="A98" s="60"/>
       <c r="B98" s="40"/>
       <c r="C98" s="40"/>
       <c r="D98" s="40"/>
@@ -10217,23 +13019,355 @@
       <c r="M98" s="40"/>
     </row>
     <row r="99" spans="1:13" ht="12" customHeight="1">
-      <c r="A99" s="44"/>
-      <c r="B99" s="45"/>
-      <c r="C99" s="45"/>
-      <c r="D99" s="45"/>
-      <c r="E99" s="45"/>
-      <c r="F99" s="45"/>
-      <c r="G99" s="45"/>
-      <c r="H99" s="45"/>
-      <c r="I99" s="45"/>
+      <c r="A99" s="39"/>
+      <c r="B99" s="40"/>
+      <c r="C99" s="40"/>
+      <c r="D99" s="40"/>
+      <c r="E99" s="40"/>
+      <c r="F99" s="40"/>
+      <c r="G99" s="40"/>
+      <c r="H99" s="40"/>
+      <c r="I99" s="40"/>
       <c r="J99" s="40"/>
       <c r="K99" s="40"/>
       <c r="L99" s="40"/>
       <c r="M99" s="40"/>
     </row>
+    <row r="100" spans="1:13" ht="12" customHeight="1">
+      <c r="A100" s="39"/>
+      <c r="B100" s="40"/>
+      <c r="C100" s="40"/>
+      <c r="D100" s="40"/>
+      <c r="E100" s="40"/>
+      <c r="F100" s="40"/>
+      <c r="G100" s="40"/>
+      <c r="H100" s="40"/>
+      <c r="I100" s="40"/>
+      <c r="J100" s="40"/>
+      <c r="K100" s="40"/>
+      <c r="L100" s="40"/>
+      <c r="M100" s="40"/>
+    </row>
+    <row r="101" spans="1:13" ht="12" customHeight="1">
+      <c r="A101" s="39"/>
+      <c r="B101" s="40"/>
+      <c r="C101" s="40"/>
+      <c r="D101" s="40"/>
+      <c r="E101" s="40"/>
+      <c r="F101" s="40"/>
+      <c r="G101" s="40"/>
+      <c r="H101" s="40"/>
+      <c r="I101" s="40"/>
+      <c r="J101" s="40"/>
+      <c r="K101" s="40"/>
+      <c r="L101" s="40"/>
+      <c r="M101" s="40"/>
+    </row>
+    <row r="102" spans="1:13" ht="12" customHeight="1">
+      <c r="A102" s="39"/>
+      <c r="B102" s="40"/>
+      <c r="C102" s="40"/>
+      <c r="D102" s="40"/>
+      <c r="E102" s="40"/>
+      <c r="F102" s="40"/>
+      <c r="G102" s="40"/>
+      <c r="H102" s="40"/>
+      <c r="I102" s="40"/>
+      <c r="J102" s="40"/>
+      <c r="K102" s="40"/>
+      <c r="L102" s="40"/>
+      <c r="M102" s="40"/>
+    </row>
+    <row r="103" spans="1:13" ht="12" customHeight="1">
+      <c r="A103" s="39"/>
+      <c r="B103" s="40"/>
+      <c r="C103" s="40"/>
+      <c r="D103" s="40"/>
+      <c r="E103" s="40"/>
+      <c r="F103" s="40"/>
+      <c r="G103" s="40"/>
+      <c r="H103" s="40"/>
+      <c r="I103" s="40"/>
+      <c r="J103" s="40"/>
+      <c r="K103" s="40"/>
+      <c r="L103" s="40"/>
+      <c r="M103" s="40"/>
+    </row>
+    <row r="104" spans="1:13" ht="12" customHeight="1">
+      <c r="A104" s="39"/>
+      <c r="B104" s="40"/>
+      <c r="C104" s="40"/>
+      <c r="D104" s="40"/>
+      <c r="E104" s="40"/>
+      <c r="F104" s="40"/>
+      <c r="G104" s="40"/>
+      <c r="H104" s="40"/>
+      <c r="I104" s="40"/>
+      <c r="J104" s="40"/>
+      <c r="K104" s="40"/>
+      <c r="L104" s="40"/>
+      <c r="M104" s="40"/>
+    </row>
+    <row r="105" spans="1:13" ht="12" customHeight="1">
+      <c r="A105" s="39"/>
+      <c r="B105" s="40"/>
+      <c r="C105" s="40"/>
+      <c r="D105" s="40"/>
+      <c r="E105" s="40"/>
+      <c r="F105" s="40"/>
+      <c r="G105" s="40"/>
+      <c r="H105" s="40"/>
+      <c r="I105" s="40"/>
+      <c r="J105" s="40"/>
+      <c r="K105" s="40"/>
+      <c r="L105" s="40"/>
+      <c r="M105" s="40"/>
+    </row>
+    <row r="106" spans="1:13" ht="12" customHeight="1">
+      <c r="A106" s="39"/>
+      <c r="B106" s="40"/>
+      <c r="C106" s="40"/>
+      <c r="D106" s="40"/>
+      <c r="E106" s="40"/>
+      <c r="F106" s="40"/>
+      <c r="G106" s="40"/>
+      <c r="H106" s="40"/>
+      <c r="I106" s="40"/>
+      <c r="J106" s="40"/>
+      <c r="K106" s="40"/>
+      <c r="L106" s="40"/>
+      <c r="M106" s="40"/>
+    </row>
+    <row r="107" spans="1:13" ht="12" customHeight="1">
+      <c r="A107" s="39"/>
+      <c r="B107" s="40"/>
+      <c r="C107" s="40"/>
+      <c r="D107" s="40"/>
+      <c r="E107" s="40"/>
+      <c r="F107" s="40"/>
+      <c r="G107" s="40"/>
+      <c r="H107" s="40"/>
+      <c r="I107" s="40"/>
+      <c r="J107" s="40"/>
+      <c r="K107" s="40"/>
+      <c r="L107" s="40"/>
+      <c r="M107" s="40"/>
+    </row>
+    <row r="108" spans="1:13" ht="12" customHeight="1">
+      <c r="A108" s="39"/>
+      <c r="B108" s="40"/>
+      <c r="C108" s="40"/>
+      <c r="D108" s="40"/>
+      <c r="E108" s="40"/>
+      <c r="F108" s="40"/>
+      <c r="G108" s="40"/>
+      <c r="H108" s="40"/>
+      <c r="I108" s="40"/>
+      <c r="J108" s="40"/>
+      <c r="K108" s="40"/>
+      <c r="L108" s="40"/>
+      <c r="M108" s="40"/>
+    </row>
+    <row r="109" spans="1:13" ht="12" customHeight="1">
+      <c r="A109" s="39"/>
+      <c r="B109" s="40"/>
+      <c r="C109" s="40"/>
+      <c r="D109" s="40"/>
+      <c r="E109" s="40"/>
+      <c r="F109" s="40"/>
+      <c r="G109" s="40"/>
+      <c r="H109" s="40"/>
+      <c r="I109" s="40"/>
+      <c r="J109" s="40"/>
+      <c r="K109" s="40"/>
+      <c r="L109" s="40"/>
+      <c r="M109" s="40"/>
+    </row>
+    <row r="110" spans="1:13" ht="12" customHeight="1">
+      <c r="A110" s="39"/>
+      <c r="B110" s="40"/>
+      <c r="C110" s="40"/>
+      <c r="D110" s="40"/>
+      <c r="E110" s="40"/>
+      <c r="F110" s="40"/>
+      <c r="G110" s="40"/>
+      <c r="H110" s="40"/>
+      <c r="I110" s="40"/>
+      <c r="J110" s="40"/>
+      <c r="K110" s="40"/>
+      <c r="L110" s="40"/>
+      <c r="M110" s="40"/>
+    </row>
+    <row r="111" spans="1:13" ht="12" customHeight="1">
+      <c r="A111" s="39"/>
+      <c r="B111" s="40"/>
+      <c r="C111" s="40"/>
+      <c r="D111" s="40"/>
+      <c r="E111" s="40"/>
+      <c r="F111" s="40"/>
+      <c r="G111" s="40"/>
+      <c r="H111" s="40"/>
+      <c r="I111" s="40"/>
+      <c r="J111" s="40"/>
+      <c r="K111" s="40"/>
+      <c r="L111" s="40"/>
+      <c r="M111" s="40"/>
+    </row>
+    <row r="112" spans="1:13" ht="12" customHeight="1">
+      <c r="A112" s="39"/>
+      <c r="B112" s="40"/>
+      <c r="C112" s="40"/>
+      <c r="D112" s="40"/>
+      <c r="E112" s="40"/>
+      <c r="F112" s="40"/>
+      <c r="G112" s="40"/>
+      <c r="H112" s="40"/>
+      <c r="I112" s="40"/>
+      <c r="J112" s="40"/>
+      <c r="K112" s="40"/>
+      <c r="L112" s="40"/>
+      <c r="M112" s="40"/>
+    </row>
+    <row r="113" spans="1:13" ht="12" customHeight="1">
+      <c r="A113" s="39"/>
+      <c r="B113" s="40"/>
+      <c r="C113" s="40"/>
+      <c r="D113" s="40"/>
+      <c r="E113" s="40"/>
+      <c r="F113" s="40"/>
+      <c r="G113" s="40"/>
+      <c r="H113" s="40"/>
+      <c r="I113" s="40"/>
+      <c r="J113" s="40"/>
+      <c r="K113" s="40"/>
+      <c r="L113" s="40"/>
+      <c r="M113" s="40"/>
+    </row>
+    <row r="114" spans="1:13" ht="12" customHeight="1">
+      <c r="A114" s="39"/>
+      <c r="B114" s="40"/>
+      <c r="C114" s="40"/>
+      <c r="D114" s="40"/>
+      <c r="E114" s="40"/>
+      <c r="F114" s="40"/>
+      <c r="G114" s="40"/>
+      <c r="H114" s="40"/>
+      <c r="I114" s="40"/>
+      <c r="J114" s="40"/>
+      <c r="K114" s="40"/>
+      <c r="L114" s="40"/>
+      <c r="M114" s="40"/>
+    </row>
+    <row r="115" spans="1:13" ht="12" customHeight="1">
+      <c r="A115" s="39"/>
+      <c r="B115" s="40"/>
+      <c r="C115" s="40"/>
+      <c r="D115" s="40"/>
+      <c r="E115" s="40"/>
+      <c r="F115" s="40"/>
+      <c r="G115" s="40"/>
+      <c r="H115" s="40"/>
+      <c r="I115" s="40"/>
+      <c r="J115" s="40"/>
+      <c r="K115" s="40"/>
+      <c r="L115" s="40"/>
+      <c r="M115" s="40"/>
+    </row>
+    <row r="116" spans="1:13" ht="12" customHeight="1">
+      <c r="A116" s="39"/>
+      <c r="B116" s="40"/>
+      <c r="C116" s="40"/>
+      <c r="D116" s="40"/>
+      <c r="E116" s="40"/>
+      <c r="F116" s="40"/>
+      <c r="G116" s="40"/>
+      <c r="H116" s="40"/>
+      <c r="I116" s="40"/>
+      <c r="J116" s="40"/>
+      <c r="K116" s="40"/>
+      <c r="L116" s="40"/>
+      <c r="M116" s="40"/>
+    </row>
+    <row r="117" spans="1:13" ht="12" customHeight="1">
+      <c r="A117" s="39"/>
+      <c r="B117" s="40"/>
+      <c r="C117" s="40"/>
+      <c r="D117" s="40"/>
+      <c r="E117" s="40"/>
+      <c r="F117" s="40"/>
+      <c r="G117" s="40"/>
+      <c r="H117" s="40"/>
+      <c r="I117" s="40"/>
+      <c r="J117" s="40"/>
+      <c r="K117" s="40"/>
+      <c r="L117" s="40"/>
+      <c r="M117" s="40"/>
+    </row>
+    <row r="118" spans="1:13" ht="12" customHeight="1">
+      <c r="A118" s="39"/>
+      <c r="B118" s="40"/>
+      <c r="C118" s="40"/>
+      <c r="D118" s="40"/>
+      <c r="E118" s="40"/>
+      <c r="F118" s="40"/>
+      <c r="G118" s="40"/>
+      <c r="H118" s="40"/>
+      <c r="I118" s="40"/>
+      <c r="J118" s="40"/>
+      <c r="K118" s="40"/>
+      <c r="L118" s="40"/>
+      <c r="M118" s="40"/>
+    </row>
+    <row r="119" spans="1:13" ht="12" customHeight="1">
+      <c r="A119" s="39"/>
+      <c r="B119" s="40"/>
+      <c r="C119" s="40"/>
+      <c r="D119" s="40"/>
+      <c r="E119" s="40"/>
+      <c r="F119" s="40"/>
+      <c r="G119" s="40"/>
+      <c r="H119" s="40"/>
+      <c r="I119" s="40"/>
+      <c r="J119" s="40"/>
+      <c r="K119" s="40"/>
+      <c r="L119" s="40"/>
+      <c r="M119" s="40"/>
+    </row>
+    <row r="120" spans="1:13" ht="12" customHeight="1">
+      <c r="A120" s="39"/>
+      <c r="B120" s="40"/>
+      <c r="C120" s="40"/>
+      <c r="D120" s="40"/>
+      <c r="E120" s="40"/>
+      <c r="F120" s="40"/>
+      <c r="G120" s="40"/>
+      <c r="H120" s="40"/>
+      <c r="I120" s="40"/>
+      <c r="J120" s="40"/>
+      <c r="K120" s="40"/>
+      <c r="L120" s="40"/>
+      <c r="M120" s="40"/>
+    </row>
+    <row r="121" spans="1:13" ht="12" customHeight="1">
+      <c r="A121" s="44"/>
+      <c r="B121" s="45"/>
+      <c r="C121" s="45"/>
+      <c r="D121" s="45"/>
+      <c r="E121" s="45"/>
+      <c r="F121" s="45"/>
+      <c r="G121" s="45"/>
+      <c r="H121" s="45"/>
+      <c r="I121" s="45"/>
+      <c r="J121" s="40"/>
+      <c r="K121" s="40"/>
+      <c r="L121" s="40"/>
+      <c r="M121" s="40"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A26:A58"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.3" top="0.6" bottom="0.3" header="0.1" footer="0.1"/>
   <pageSetup paperSize="9" scale="27" orientation="landscape" r:id="rId1"/>
@@ -10242,10 +13376,11 @@
     <oddFooter>&amp;L&amp;"Ta,Regular"&amp;10CONFIDENTIAL&amp;C&amp;"Tahoma,Regular"&amp;10&amp;P&amp;R&amp;"Tahoma,Regular"&amp;10© 2010 ASOFT JSC. All rights reserved.</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="77" max="9" man="1"/>
+    <brk id="99" max="9" man="1"/>
   </rowBreaks>
-  <legacyDrawing r:id="rId2"/>
-  <legacyDrawingHF r:id="rId3"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <legacyDrawingHF r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -10270,10 +13405,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="199" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="187"/>
+      <c r="B1" s="199"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -10304,8 +13439,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="187"/>
-      <c r="B2" s="187"/>
+      <c r="A2" s="199"/>
+      <c r="B2" s="199"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>

--- a/2018/CRM/03_DetailDesign/CRMF2061_Đánh giá hỗ trợ khách hàng.xlsx
+++ b/2018/CRM/03_DetailDesign/CRMF2061_Đánh giá hỗ trợ khách hàng.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <definedName name="OLE_LINK1" localSheetId="10">'Code Standar'!$B$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Coverpage!$A$1:$J$31</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Data Definition'!$A$1:$J$14</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'Data Input'!$A$1:$P$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'Data Input'!$A$1:$P$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Form Func Spec'!$A$1:$T$86</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'Func Spec'!$A$1:$J$21</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">Help!$A$1:$K$62</definedName>
@@ -1363,7 +1363,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="207">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2036,35 +2036,6 @@
     <t>btnCancel</t>
   </si>
   <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Thêm dữ liệu</t>
-  </si>
-  <si>
-    <t>LevelAppreciate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insert Into CRMT20801 
-(APK, DivisionID, , CreateDate, CreateUserID, LastModifyDate, LastModifyUserID
-, LevelAppreciate, EmployeeID,  RealTime, ReviewDescription, FeedbackDescription)
-Values 
-(@APK, @DivisionID,  @CreateDate, @CreateUserID, @LastModifyDate, @LastModifyUserID, @ LevelAppreciate, @EmployeeID, @RealTime, @ReviewDescription, @FeedbackDescription)
-</t>
-  </si>
-  <si>
-    <t>@APK, @DivisionID,  @CreateDate, @CreateUserID, @LastModifyDate, @LastModifyUserID, 
-@ LevelAppreciate, @EmployeeID, 
-@RealTime, @ReviewDescription, @FeedbackDescription</t>
-  </si>
-  <si>
-    <t>@APK, 
-Biến môi trường
-@CreateDate, @CreateUserID, @LastModifyDate, @LastModifyUserID, 
-@ LevelAppreciate, @EmployeeID, 
-@RealTime, @ReviewDescription, @FeedbackDescription</t>
-  </si>
-  <si>
     <t>Select RequestID, Fullname As EmployeeName, realtime  
 from CRMT20801 C
 left join AT1103 A on C.AssignedToUserID = A.EmployeeID
@@ -2101,6 +2072,37 @@
   </si>
   <si>
     <t>Customizeindex: 92</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Thêm dữ liệu vào bảng chính</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insert Into CRMT2061 
+(APK, DivisionID, , CreateDate, CreateUserID, LastModifyDate, LastModifyUserID
+, Status, EmployeeID,  RealTime, ReviewDescription, FeedbackDescription, RelatedToTypeID, RelatedToID)
+Values 
+(@APK, @DivisionID,  @CreateDate, @CreateUserID, @LastModifyDate, @LastModifyUserID, @Status, @EmployeeID, @RealTime, @ReviewDescription, @FeedbackDescription, @RelatedToTypeID, @RelatedToID)
+</t>
+  </si>
+  <si>
+    <t>@APK, @DivisionID,  @CreateDate, @CreateUserID, @LastModifyDate, @LastModifyUserID, 
+@Status, 
+@EmployeeID, 
+@RealTime, @ReviewDescription, @FeedbackDescription,
+@RelatedToTypeID, @RelatedToID</t>
+  </si>
+  <si>
+    <t>@APK, 
+Biến môi trường
+@CreateDate, @CreateUserID, @LastModifyDate, @LastModifyUserID, 
+@Status, 
+@EmployeeID, 
+@RealTime, @ReviewDescription, @FeedbackDescription,
+20, 
+@RequestID</t>
   </si>
 </sst>
 </file>
@@ -9408,7 +9410,7 @@
       <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E38" sqref="E38"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -9749,10 +9751,10 @@
         <v>178</v>
       </c>
       <c r="F10" s="126" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G10" s="126" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="H10" s="147" t="s">
         <v>179</v>
@@ -10367,7 +10369,7 @@
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:H7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -10507,8 +10509,8 @@
       <c r="C5" s="161">
         <v>1</v>
       </c>
-      <c r="D5" s="138" t="s">
-        <v>191</v>
+      <c r="D5" s="126" t="s">
+        <v>202</v>
       </c>
       <c r="E5" s="138" t="s">
         <v>156</v>
@@ -10929,10 +10931,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R1048244"/>
+  <dimension ref="A1:R1048243"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -11083,7 +11085,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="25" customFormat="1" ht="135.75" customHeight="1">
+    <row r="5" spans="1:18" s="25" customFormat="1" ht="146.25">
       <c r="A5" s="123"/>
       <c r="B5" s="123">
         <v>92</v>
@@ -11092,7 +11094,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="126" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="E5" s="106" t="s">
         <v>155</v>
@@ -11101,19 +11103,19 @@
         <v>55</v>
       </c>
       <c r="G5" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="H5" s="196" t="s">
         <v>204</v>
-      </c>
-      <c r="H5" s="196" t="s">
-        <v>194</v>
       </c>
       <c r="I5" s="243"/>
       <c r="J5" s="243"/>
       <c r="K5" s="244"/>
       <c r="L5" s="145" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="M5" s="145" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="N5" s="160" t="s">
         <v>187</v>
@@ -11134,42 +11136,42 @@
         <v>1</v>
       </c>
       <c r="D6" s="126" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E6" s="106" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F6" s="106" t="s">
         <v>55</v>
       </c>
       <c r="G6" s="105" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="H6" s="191" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="I6" s="192"/>
       <c r="J6" s="192"/>
       <c r="K6" s="193"/>
       <c r="L6" s="162" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="M6" s="162" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="N6" s="160" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="O6" s="107" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="P6" s="163"/>
       <c r="Q6" s="56"/>
       <c r="R6" s="56"/>
     </row>
     <row r="7" spans="1:18" s="33" customFormat="1" ht="11.25">
-      <c r="A7" s="123"/>
-      <c r="B7" s="123"/>
+      <c r="A7" s="146"/>
+      <c r="B7" s="146"/>
       <c r="C7" s="159"/>
       <c r="D7" s="126"/>
       <c r="E7" s="106"/>
@@ -11188,8 +11190,8 @@
       <c r="R7" s="56"/>
     </row>
     <row r="8" spans="1:18" s="33" customFormat="1" ht="11.25">
-      <c r="A8" s="146"/>
-      <c r="B8" s="146"/>
+      <c r="A8" s="123"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="159"/>
       <c r="D8" s="126"/>
       <c r="E8" s="106"/>
@@ -11199,8 +11201,8 @@
       <c r="I8" s="192"/>
       <c r="J8" s="192"/>
       <c r="K8" s="193"/>
-      <c r="L8" s="162"/>
-      <c r="M8" s="162"/>
+      <c r="L8" s="164"/>
+      <c r="M8" s="164"/>
       <c r="N8" s="160"/>
       <c r="O8" s="107"/>
       <c r="P8" s="163"/>
@@ -11208,8 +11210,8 @@
       <c r="R8" s="56"/>
     </row>
     <row r="9" spans="1:18" s="33" customFormat="1" ht="11.25">
-      <c r="A9" s="123"/>
-      <c r="B9" s="57"/>
+      <c r="A9" s="146"/>
+      <c r="B9" s="146"/>
       <c r="C9" s="159"/>
       <c r="D9" s="126"/>
       <c r="E9" s="106"/>
@@ -11219,8 +11221,8 @@
       <c r="I9" s="192"/>
       <c r="J9" s="192"/>
       <c r="K9" s="193"/>
-      <c r="L9" s="164"/>
-      <c r="M9" s="164"/>
+      <c r="L9" s="162"/>
+      <c r="M9" s="162"/>
       <c r="N9" s="160"/>
       <c r="O9" s="107"/>
       <c r="P9" s="163"/>
@@ -11228,9 +11230,9 @@
       <c r="R9" s="56"/>
     </row>
     <row r="10" spans="1:18" s="33" customFormat="1" ht="11.25">
-      <c r="A10" s="146"/>
-      <c r="B10" s="146"/>
-      <c r="C10" s="159"/>
+      <c r="A10" s="123"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="146"/>
       <c r="D10" s="126"/>
       <c r="E10" s="106"/>
       <c r="F10" s="106"/>
@@ -11248,9 +11250,9 @@
       <c r="R10" s="56"/>
     </row>
     <row r="11" spans="1:18" s="33" customFormat="1" ht="11.25">
-      <c r="A11" s="123"/>
-      <c r="B11" s="123"/>
-      <c r="C11" s="146"/>
+      <c r="A11" s="146"/>
+      <c r="B11" s="146"/>
+      <c r="C11" s="123"/>
       <c r="D11" s="126"/>
       <c r="E11" s="106"/>
       <c r="F11" s="106"/>
@@ -11259,8 +11261,8 @@
       <c r="I11" s="192"/>
       <c r="J11" s="192"/>
       <c r="K11" s="193"/>
-      <c r="L11" s="162"/>
-      <c r="M11" s="162"/>
+      <c r="L11" s="164"/>
+      <c r="M11" s="164"/>
       <c r="N11" s="160"/>
       <c r="O11" s="107"/>
       <c r="P11" s="163"/>
@@ -11268,9 +11270,9 @@
       <c r="R11" s="56"/>
     </row>
     <row r="12" spans="1:18" s="33" customFormat="1" ht="11.25">
-      <c r="A12" s="146"/>
-      <c r="B12" s="146"/>
-      <c r="C12" s="123"/>
+      <c r="A12" s="123"/>
+      <c r="B12" s="123"/>
+      <c r="C12" s="146"/>
       <c r="D12" s="126"/>
       <c r="E12" s="106"/>
       <c r="F12" s="106"/>
@@ -11279,8 +11281,8 @@
       <c r="I12" s="192"/>
       <c r="J12" s="192"/>
       <c r="K12" s="193"/>
-      <c r="L12" s="164"/>
-      <c r="M12" s="164"/>
+      <c r="L12" s="162"/>
+      <c r="M12" s="162"/>
       <c r="N12" s="160"/>
       <c r="O12" s="107"/>
       <c r="P12" s="163"/>
@@ -11288,9 +11290,9 @@
       <c r="R12" s="56"/>
     </row>
     <row r="13" spans="1:18" s="33" customFormat="1" ht="11.25">
-      <c r="A13" s="123"/>
-      <c r="B13" s="123"/>
-      <c r="C13" s="146"/>
+      <c r="A13" s="146"/>
+      <c r="B13" s="146"/>
+      <c r="C13" s="123"/>
       <c r="D13" s="126"/>
       <c r="E13" s="106"/>
       <c r="F13" s="106"/>
@@ -11299,8 +11301,8 @@
       <c r="I13" s="192"/>
       <c r="J13" s="192"/>
       <c r="K13" s="193"/>
-      <c r="L13" s="162"/>
-      <c r="M13" s="162"/>
+      <c r="L13" s="164"/>
+      <c r="M13" s="164"/>
       <c r="N13" s="160"/>
       <c r="O13" s="107"/>
       <c r="P13" s="163"/>
@@ -11308,64 +11310,64 @@
       <c r="R13" s="56"/>
     </row>
     <row r="14" spans="1:18" s="33" customFormat="1" ht="11.25">
-      <c r="A14" s="146"/>
-      <c r="B14" s="146"/>
+      <c r="A14" s="123"/>
+      <c r="B14" s="57"/>
       <c r="C14" s="123"/>
       <c r="D14" s="126"/>
       <c r="E14" s="106"/>
       <c r="F14" s="106"/>
       <c r="G14" s="105"/>
-      <c r="H14" s="191"/>
-      <c r="I14" s="192"/>
-      <c r="J14" s="192"/>
-      <c r="K14" s="193"/>
+      <c r="H14" s="240"/>
+      <c r="I14" s="241"/>
+      <c r="J14" s="241"/>
+      <c r="K14" s="242"/>
       <c r="L14" s="164"/>
       <c r="M14" s="164"/>
-      <c r="N14" s="160"/>
-      <c r="O14" s="107"/>
+      <c r="N14" s="163"/>
+      <c r="O14" s="113"/>
       <c r="P14" s="163"/>
       <c r="Q14" s="56"/>
       <c r="R14" s="56"/>
     </row>
-    <row r="15" spans="1:18" s="33" customFormat="1" ht="11.25">
-      <c r="A15" s="123"/>
-      <c r="B15" s="57"/>
+    <row r="15" spans="1:18" s="25" customFormat="1" ht="11.25">
+      <c r="A15" s="146"/>
+      <c r="B15" s="146"/>
       <c r="C15" s="123"/>
       <c r="D15" s="126"/>
       <c r="E15" s="106"/>
       <c r="F15" s="106"/>
       <c r="G15" s="105"/>
-      <c r="H15" s="240"/>
-      <c r="I15" s="241"/>
-      <c r="J15" s="241"/>
-      <c r="K15" s="242"/>
-      <c r="L15" s="164"/>
-      <c r="M15" s="164"/>
-      <c r="N15" s="163"/>
-      <c r="O15" s="113"/>
-      <c r="P15" s="163"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="56"/>
-    </row>
-    <row r="16" spans="1:18" s="25" customFormat="1" ht="11.25">
+      <c r="H15" s="191"/>
+      <c r="I15" s="192"/>
+      <c r="J15" s="192"/>
+      <c r="K15" s="193"/>
+      <c r="L15" s="162"/>
+      <c r="M15" s="162"/>
+      <c r="N15" s="160"/>
+      <c r="O15" s="107"/>
+      <c r="P15" s="160"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="47"/>
+    </row>
+    <row r="16" spans="1:18" s="120" customFormat="1" ht="11.25">
       <c r="A16" s="146"/>
-      <c r="B16" s="146"/>
+      <c r="B16" s="57"/>
       <c r="C16" s="123"/>
       <c r="D16" s="126"/>
       <c r="E16" s="106"/>
       <c r="F16" s="106"/>
       <c r="G16" s="105"/>
-      <c r="H16" s="191"/>
-      <c r="I16" s="192"/>
-      <c r="J16" s="192"/>
-      <c r="K16" s="193"/>
-      <c r="L16" s="162"/>
-      <c r="M16" s="162"/>
+      <c r="H16" s="196"/>
+      <c r="I16" s="243"/>
+      <c r="J16" s="243"/>
+      <c r="K16" s="244"/>
+      <c r="L16" s="145"/>
+      <c r="M16" s="145"/>
       <c r="N16" s="160"/>
       <c r="O16" s="107"/>
       <c r="P16" s="160"/>
-      <c r="Q16" s="47"/>
-      <c r="R16" s="47"/>
+      <c r="Q16" s="125"/>
+      <c r="R16" s="125"/>
     </row>
     <row r="17" spans="1:18" s="120" customFormat="1" ht="11.25">
       <c r="A17" s="146"/>
@@ -11387,7 +11389,7 @@
       <c r="Q17" s="125"/>
       <c r="R17" s="125"/>
     </row>
-    <row r="18" spans="1:18" s="120" customFormat="1" ht="11.25">
+    <row r="18" spans="1:18" s="131" customFormat="1" ht="11.25">
       <c r="A18" s="146"/>
       <c r="B18" s="57"/>
       <c r="C18" s="123"/>
@@ -11404,87 +11406,66 @@
       <c r="N18" s="160"/>
       <c r="O18" s="107"/>
       <c r="P18" s="160"/>
-      <c r="Q18" s="125"/>
-      <c r="R18" s="125"/>
-    </row>
-    <row r="19" spans="1:18" s="131" customFormat="1" ht="11.25">
-      <c r="A19" s="146"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="123"/>
-      <c r="D19" s="126"/>
+      <c r="Q18" s="132"/>
+      <c r="R18" s="132"/>
+    </row>
+    <row r="19" spans="1:18" s="33" customFormat="1" ht="12" customHeight="1">
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="111"/>
       <c r="E19" s="106"/>
       <c r="F19" s="106"/>
       <c r="G19" s="105"/>
-      <c r="H19" s="196"/>
-      <c r="I19" s="243"/>
-      <c r="J19" s="243"/>
-      <c r="K19" s="244"/>
-      <c r="L19" s="145"/>
-      <c r="M19" s="145"/>
-      <c r="N19" s="160"/>
+      <c r="H19" s="191"/>
+      <c r="I19" s="192"/>
+      <c r="J19" s="192"/>
+      <c r="K19" s="193"/>
+      <c r="L19" s="108"/>
+      <c r="M19" s="108"/>
+      <c r="N19" s="65"/>
       <c r="O19" s="107"/>
-      <c r="P19" s="160"/>
-      <c r="Q19" s="132"/>
-      <c r="R19" s="132"/>
-    </row>
-    <row r="20" spans="1:18" s="33" customFormat="1" ht="12" customHeight="1">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="106"/>
-      <c r="F20" s="106"/>
-      <c r="G20" s="105"/>
-      <c r="H20" s="191"/>
-      <c r="I20" s="192"/>
-      <c r="J20" s="192"/>
-      <c r="K20" s="193"/>
-      <c r="L20" s="108"/>
-      <c r="M20" s="108"/>
-      <c r="N20" s="65"/>
-      <c r="O20" s="107"/>
-      <c r="P20" s="55"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="56"/>
-    </row>
-    <row r="1048244" spans="14:14" ht="12" customHeight="1">
-      <c r="N1048244" s="61"/>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="56"/>
+    </row>
+    <row r="1048243" spans="14:14" ht="12" customHeight="1">
+      <c r="N1048243" s="61"/>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="22">
+  <mergeCells count="21">
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="H14:K14"/>
     <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H8:K8"/>
     <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H11:K11"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="H4:K4"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H18:K18"/>
     <mergeCell ref="H17:K17"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="H18:K18"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="N2:P2"/>
-    <mergeCell ref="H14:K14"/>
     <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
     <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H9:K9"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="N1048244:N1048576 N5 N17:N19"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O5:O20">
+    <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="N1048243:N1048576 N16:N18 N5"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O5:O19">
       <formula1>"Load,Click,Double Click,Change,Selected,KeyDown,KeyPress,Hover,Focus,LostFocus"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E19">
       <formula1>"Select,Insert,Update,Delete"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F19">
       <formula1>"SQL Script, ID SQL, ID Store, ID Function, ID Trigger"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11503,7 +11484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M121"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScale="106" zoomScaleSheetLayoutView="106" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A22" zoomScale="106" zoomScaleSheetLayoutView="106" workbookViewId="0">
       <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
@@ -11802,10 +11783,10 @@
     </row>
     <row r="18" spans="1:13" ht="12" customHeight="1">
       <c r="A18" s="223" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C18" s="40"/>
       <c r="D18" s="40"/>
@@ -11928,7 +11909,7 @@
     </row>
     <row r="26" spans="1:13" ht="12" customHeight="1">
       <c r="A26" s="223" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B26" s="40"/>
       <c r="C26" s="40"/>
